--- a/BackTest/2019-11-16 BackTest XVG.xlsx
+++ b/BackTest/2019-11-16 BackTest XVG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.260000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1.69491525423725</v>
+      </c>
       <c r="L12" t="n">
         <v>5.425000000000002</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.540000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-17.80821917808221</v>
+      </c>
       <c r="L13" t="n">
         <v>5.399000000000002</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.610000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-12.41830065359478</v>
+      </c>
       <c r="L14" t="n">
         <v>5.380000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.660000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-8.860759493670912</v>
+      </c>
       <c r="L15" t="n">
         <v>5.366000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.680000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-9.433962264150905</v>
+      </c>
       <c r="L16" t="n">
         <v>5.350000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.760000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-35.7142857142857</v>
+      </c>
       <c r="L17" t="n">
         <v>5.327000000000003</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.760000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-23.72881355932204</v>
+      </c>
       <c r="L18" t="n">
         <v>5.277000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-12.62135922330096</v>
+      </c>
       <c r="L19" t="n">
         <v>5.245000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.81</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.272727272727325</v>
+      </c>
       <c r="L20" t="n">
         <v>5.231000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.81</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-56.36363636363632</v>
+      </c>
       <c r="L21" t="n">
         <v>5.233000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.910000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-35.1351351351351</v>
+      </c>
       <c r="L22" t="n">
         <v>5.192000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.940000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-22.58064516129034</v>
+        <v>-69.69696969696982</v>
       </c>
       <c r="L23" t="n">
         <v>5.176000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.950000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-22.99465240641712</v>
+        <v>-100</v>
       </c>
       <c r="L24" t="n">
         <v>5.152000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.950000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-22.99465240641712</v>
+        <v>-100</v>
       </c>
       <c r="L25" t="n">
         <v>5.123000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.980000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-21.05263157894736</v>
+        <v>-72.72727272727259</v>
       </c>
       <c r="L26" t="n">
         <v>5.099000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>2.130000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-11.7647058823529</v>
+        <v>-2.702702702702638</v>
       </c>
       <c r="L27" t="n">
         <v>5.098000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.270000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>-34.03141361256543</v>
+        <v>-23.40425531914893</v>
       </c>
       <c r="L28" t="n">
         <v>5.083</v>
@@ -1711,7 +1733,7 @@
         <v>2.470000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>-12.16931216931218</v>
+        <v>15.15151515151505</v>
       </c>
       <c r="L29" t="n">
         <v>5.092000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.500000000000003</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.046242774566485</v>
+        <v>10.14492753623177</v>
       </c>
       <c r="L30" t="n">
         <v>5.099</v>
@@ -1809,7 +1831,7 @@
         <v>2.530000000000003</v>
       </c>
       <c r="K31" t="n">
-        <v>7.499999999999996</v>
+        <v>32.25806451612897</v>
       </c>
       <c r="L31" t="n">
         <v>5.109</v>
@@ -1860,7 +1882,7 @@
         <v>2.730000000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.6802721088435217</v>
+        <v>54.4303797468354</v>
       </c>
       <c r="L32" t="n">
         <v>5.149000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>2.770000000000003</v>
       </c>
       <c r="K33" t="n">
-        <v>18.69918699186992</v>
+        <v>48.78048780487797</v>
       </c>
       <c r="L33" t="n">
         <v>5.188000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.800000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>10.92436974789913</v>
+        <v>43.52941176470578</v>
       </c>
       <c r="L34" t="n">
         <v>5.225000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>2.890000000000003</v>
       </c>
       <c r="K35" t="n">
-        <v>13.82113821138208</v>
+        <v>47.25274725274712</v>
       </c>
       <c r="L35" t="n">
         <v>5.271000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>16.39344262295079</v>
+        <v>37.66233766233756</v>
       </c>
       <c r="L36" t="n">
         <v>5.315000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.990000000000005</v>
       </c>
       <c r="K37" t="n">
-        <v>15.44715447154462</v>
+        <v>47.22222222222204</v>
       </c>
       <c r="L37" t="n">
         <v>5.335000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K38" t="n">
-        <v>16.12903225806447</v>
+        <v>28.30188679245274</v>
       </c>
       <c r="L38" t="n">
         <v>5.370000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>3.050000000000005</v>
       </c>
       <c r="K39" t="n">
-        <v>23.19999999999992</v>
+        <v>41.81818181818171</v>
       </c>
       <c r="L39" t="n">
         <v>5.390000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>3.100000000000005</v>
       </c>
       <c r="K40" t="n">
-        <v>19.37984496124024</v>
+        <v>26.31578947368418</v>
       </c>
       <c r="L40" t="n">
         <v>5.408000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>3.130000000000005</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666659</v>
+        <v>-19.99999999999991</v>
       </c>
       <c r="L41" t="n">
         <v>5.420000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>3.130000000000005</v>
       </c>
       <c r="K42" t="n">
-        <v>26.22950819672124</v>
+        <v>-11.11111111111106</v>
       </c>
       <c r="L42" t="n">
         <v>5.412000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>3.220000000000005</v>
       </c>
       <c r="K43" t="n">
-        <v>34.37499999999993</v>
+        <v>19.04761904761899</v>
       </c>
       <c r="L43" t="n">
         <v>5.417000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>3.220000000000005</v>
       </c>
       <c r="K44" t="n">
-        <v>35.43307086614163</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="L44" t="n">
         <v>5.425000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>3.220000000000005</v>
       </c>
       <c r="K45" t="n">
-        <v>35.43307086614163</v>
+        <v>-6.250000000000121</v>
       </c>
       <c r="L45" t="n">
         <v>5.424000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>3.230000000000005</v>
       </c>
       <c r="K46" t="n">
-        <v>34.39999999999988</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>5.423000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>3.250000000000005</v>
       </c>
       <c r="K47" t="n">
-        <v>26.78571428571419</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L47" t="n">
         <v>5.433000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>3.260000000000005</v>
       </c>
       <c r="K48" t="n">
-        <v>43.43434343434337</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L48" t="n">
         <v>5.441000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>3.290000000000005</v>
       </c>
       <c r="K49" t="n">
-        <v>24.39024390243896</v>
+        <v>26.31578947368406</v>
       </c>
       <c r="L49" t="n">
         <v>5.441000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>3.320000000000006</v>
       </c>
       <c r="K50" t="n">
-        <v>31.7073170731707</v>
+        <v>57.89473684210531</v>
       </c>
       <c r="L50" t="n">
         <v>5.449000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>3.330000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>29.99999999999993</v>
+        <v>60</v>
       </c>
       <c r="L51" t="n">
         <v>5.461000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>3.340000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>4.91803278688527</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L52" t="n">
         <v>5.472000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>3.380000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>4.91803278688527</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L53" t="n">
         <v>5.470000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>3.460000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>21.21212121212113</v>
+        <v>24.99999999999991</v>
       </c>
       <c r="L54" t="n">
         <v>5.476000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>3.510000000000004</v>
       </c>
       <c r="K56" t="n">
-        <v>-1.639344262295192</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L56" t="n">
         <v>5.477000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>3.550000000000004</v>
       </c>
       <c r="K57" t="n">
-        <v>7.142857142857154</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L57" t="n">
         <v>5.471000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>3.590000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>11.86440677966094</v>
+        <v>6.666666666666549</v>
       </c>
       <c r="L58" t="n">
         <v>5.470000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>3.640000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.084745762711916</v>
+        <v>-18.75000000000025</v>
       </c>
       <c r="L59" t="n">
         <v>5.467000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>3.670000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>8.771929824561383</v>
+        <v>-11.76470588235299</v>
       </c>
       <c r="L60" t="n">
         <v>5.464</v>
@@ -3339,7 +3361,7 @@
         <v>3.730000000000005</v>
       </c>
       <c r="K61" t="n">
-        <v>3.333333333333265</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L61" t="n">
         <v>5.454</v>
@@ -3390,7 +3412,7 @@
         <v>3.790000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>12.12121212121213</v>
+        <v>2.43902439024385</v>
       </c>
       <c r="L62" t="n">
         <v>5.451000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>3.800000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.448275862068892</v>
+        <v>-23.52941176470559</v>
       </c>
       <c r="L63" t="n">
         <v>5.451000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>3.800000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.448275862068892</v>
+        <v>-10.34482758620664</v>
       </c>
       <c r="L64" t="n">
         <v>5.443000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>3.800000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.448275862068892</v>
+        <v>-10.34482758620664</v>
       </c>
       <c r="L65" t="n">
         <v>5.44</v>
@@ -3594,7 +3616,7 @@
         <v>3.850000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>-12.9032258064516</v>
+        <v>-13.33333333333328</v>
       </c>
       <c r="L66" t="n">
         <v>5.432</v>
@@ -3645,7 +3667,7 @@
         <v>3.860000000000007</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.75409836065568</v>
+        <v>-25.92592592592549</v>
       </c>
       <c r="L67" t="n">
         <v>5.429</v>
@@ -3696,7 +3718,7 @@
         <v>3.860000000000007</v>
       </c>
       <c r="K68" t="n">
-        <v>-13.33333333333331</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L68" t="n">
         <v>5.422000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>3.870000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>-10.34482758620695</v>
+        <v>-29.99999999999982</v>
       </c>
       <c r="L69" t="n">
         <v>5.419</v>
@@ -3798,7 +3820,7 @@
         <v>3.930000000000008</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.91803278688527</v>
+        <v>29.99999999999982</v>
       </c>
       <c r="L70" t="n">
         <v>5.419</v>
@@ -3849,7 +3871,7 @@
         <v>3.960000000000008</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.11111111111111</v>
+        <v>-17.64705882352929</v>
       </c>
       <c r="L71" t="n">
         <v>5.422000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>4.000000000000008</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.030303030303087</v>
+        <v>9.999999999999645</v>
       </c>
       <c r="L72" t="n">
         <v>5.423</v>
@@ -3951,7 +3973,7 @@
         <v>4.080000000000008</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.571428571428608</v>
+        <v>-21.42857142857138</v>
       </c>
       <c r="L73" t="n">
         <v>5.417000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>4.090000000000008</v>
       </c>
       <c r="K74" t="n">
-        <v>-23.80952380952359</v>
+        <v>-24.13793103448263</v>
       </c>
       <c r="L74" t="n">
         <v>5.410000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>4.140000000000008</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.936507936507866</v>
+        <v>10.34482758620692</v>
       </c>
       <c r="L75" t="n">
         <v>5.408000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>4.140000000000008</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.936507936507866</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L76" t="n">
         <v>5.411000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>4.140000000000008</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.694915254237242</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L77" t="n">
         <v>5.413000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>4.200000000000007</v>
       </c>
       <c r="K78" t="n">
-        <v>-18.03278688524572</v>
+        <v>-9.090909090908896</v>
       </c>
       <c r="L78" t="n">
         <v>5.409000000000002</v>
@@ -4257,7 +4279,7 @@
         <v>4.280000000000007</v>
       </c>
       <c r="K79" t="n">
-        <v>3.125000000000056</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L79" t="n">
         <v>5.414000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>4.290000000000007</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L80" t="n">
         <v>5.414000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>4.370000000000007</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.124999999999922</v>
+        <v>-24.32432432432434</v>
       </c>
       <c r="L81" t="n">
         <v>5.409000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>4.370000000000007</v>
       </c>
       <c r="K82" t="n">
-        <v>-13.79310344827583</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="L82" t="n">
         <v>5.4</v>
@@ -4461,7 +4483,7 @@
         <v>4.380000000000007</v>
       </c>
       <c r="K83" t="n">
-        <v>-13.79310344827583</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="L83" t="n">
         <v>5.398000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>4.390000000000007</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.86440677966103</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>5.398000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>4.410000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.19672131147551</v>
+        <v>-11.11111111111126</v>
       </c>
       <c r="L85" t="n">
         <v>5.395</v>
@@ -4614,7 +4636,7 @@
         <v>4.440000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.084745762711758</v>
+        <v>-20</v>
       </c>
       <c r="L86" t="n">
         <v>5.389</v>
@@ -4665,7 +4687,7 @@
         <v>4.490000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.28571428571441</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L87" t="n">
         <v>5.378</v>
@@ -4716,7 +4738,7 @@
         <v>4.510000000000007</v>
       </c>
       <c r="K88" t="n">
-        <v>-10.76923076923081</v>
+        <v>-47.82608695652198</v>
       </c>
       <c r="L88" t="n">
         <v>5.375</v>
@@ -4767,7 +4789,7 @@
         <v>4.590000000000007</v>
       </c>
       <c r="K89" t="n">
-        <v>2.777777777777843</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L89" t="n">
         <v>5.372</v>
@@ -4818,7 +4840,7 @@
         <v>4.610000000000007</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.941176470588308</v>
+        <v>24.99999999999991</v>
       </c>
       <c r="L90" t="n">
         <v>5.369999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>4.610000000000007</v>
       </c>
       <c r="K91" t="n">
-        <v>1.538461538461509</v>
+        <v>24.99999999999991</v>
       </c>
       <c r="L91" t="n">
         <v>5.375999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>4.610000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.918032786885298</v>
+        <v>30.43478260869545</v>
       </c>
       <c r="L92" t="n">
         <v>5.382</v>
@@ -4971,7 +4993,7 @@
         <v>4.610000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>9.433962264150937</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L93" t="n">
         <v>5.389</v>
@@ -5022,7 +5044,7 @@
         <v>4.640000000000006</v>
       </c>
       <c r="K94" t="n">
-        <v>5.454545454545519</v>
+        <v>4.347826086956824</v>
       </c>
       <c r="L94" t="n">
         <v>5.392</v>
@@ -5073,7 +5095,7 @@
         <v>4.650000000000006</v>
       </c>
       <c r="K95" t="n">
-        <v>-1.960784313725456</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L95" t="n">
         <v>5.394</v>
@@ -5124,7 +5146,7 @@
         <v>4.650000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.960784313725456</v>
+        <v>62.50000000000063</v>
       </c>
       <c r="L96" t="n">
         <v>5.398999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>4.660000000000005</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>60.00000000000048</v>
       </c>
       <c r="L97" t="n">
         <v>5.409999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>4.690000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>18.36734693877554</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L98" t="n">
         <v>5.422</v>
@@ -5277,7 +5299,7 @@
         <v>4.700000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>4.761904761904681</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L99" t="n">
         <v>5.427</v>
@@ -5328,7 +5350,7 @@
         <v>4.700000000000006</v>
       </c>
       <c r="K100" t="n">
-        <v>2.43902439024386</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L100" t="n">
         <v>5.43</v>
@@ -5379,7 +5401,7 @@
         <v>4.730000000000006</v>
       </c>
       <c r="K101" t="n">
-        <v>16.66666666666663</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>5.43</v>
@@ -5430,7 +5452,7 @@
         <v>4.810000000000006</v>
       </c>
       <c r="K102" t="n">
-        <v>-4.545454545454665</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L102" t="n">
         <v>5.422</v>
@@ -5481,7 +5503,7 @@
         <v>4.820000000000006</v>
       </c>
       <c r="K103" t="n">
-        <v>-4.545454545454665</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L103" t="n">
         <v>5.413</v>
@@ -5532,7 +5554,7 @@
         <v>4.820000000000006</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.976744186046588</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L104" t="n">
         <v>5.407</v>
@@ -5583,7 +5605,7 @@
         <v>4.840000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>-16.27906976744177</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L105" t="n">
         <v>5.398000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>4.840000000000005</v>
       </c>
       <c r="K106" t="n">
-        <v>-10.00000000000002</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L106" t="n">
         <v>5.389</v>
@@ -5685,7 +5707,7 @@
         <v>4.840000000000005</v>
       </c>
       <c r="K107" t="n">
-        <v>2.85714285714306</v>
+        <v>-86.6666666666669</v>
       </c>
       <c r="L107" t="n">
         <v>5.379</v>
@@ -5736,7 +5758,7 @@
         <v>4.840000000000005</v>
       </c>
       <c r="K108" t="n">
-        <v>-3.030303030302981</v>
+        <v>-100</v>
       </c>
       <c r="L108" t="n">
         <v>5.366</v>
@@ -5787,7 +5809,7 @@
         <v>4.880000000000005</v>
       </c>
       <c r="K109" t="n">
-        <v>-17.24137931034487</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L109" t="n">
         <v>5.356</v>
@@ -5838,7 +5860,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K110" t="n">
-        <v>-31.03448275862073</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L110" t="n">
         <v>5.343999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>4.920000000000005</v>
       </c>
       <c r="K111" t="n">
-        <v>-35.4838709677419</v>
+        <v>-27.27272727272683</v>
       </c>
       <c r="L111" t="n">
         <v>5.332999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>4.960000000000005</v>
       </c>
       <c r="K112" t="n">
-        <v>-42.85714285714285</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L112" t="n">
         <v>5.325999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>4.980000000000006</v>
       </c>
       <c r="K113" t="n">
-        <v>-45.94594594594603</v>
+        <v>-50</v>
       </c>
       <c r="L113" t="n">
         <v>5.318</v>
@@ -6042,7 +6064,7 @@
         <v>5.140000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>-60.00000000000014</v>
+        <v>-73.33333333333337</v>
       </c>
       <c r="L114" t="n">
         <v>5.294</v>
@@ -6093,7 +6115,7 @@
         <v>5.350000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571436</v>
+        <v>-1.96078431372562</v>
       </c>
       <c r="L115" t="n">
         <v>5.293</v>
@@ -6144,7 +6166,7 @@
         <v>5.420000000000005</v>
       </c>
       <c r="K116" t="n">
-        <v>-22.07792207792208</v>
+        <v>-13.79310344827587</v>
       </c>
       <c r="L116" t="n">
         <v>5.285</v>
@@ -6195,7 +6217,7 @@
         <v>5.510000000000005</v>
       </c>
       <c r="K117" t="n">
-        <v>-31.76470588235291</v>
+        <v>-25.3731343283582</v>
       </c>
       <c r="L117" t="n">
         <v>5.268</v>
@@ -6246,7 +6268,7 @@
         <v>5.800000000000005</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.9009009009008822</v>
+        <v>8.695652173913052</v>
       </c>
       <c r="L118" t="n">
         <v>5.279999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>5.940000000000006</v>
       </c>
       <c r="K119" t="n">
-        <v>-12.90322580645162</v>
+        <v>-3.846153846153849</v>
       </c>
       <c r="L119" t="n">
         <v>5.273999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>5.960000000000006</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111108</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>5.272</v>
@@ -6399,7 +6421,7 @@
         <v>6.060000000000007</v>
       </c>
       <c r="K121" t="n">
-        <v>-15.78947368421051</v>
+        <v>-5.454545454545492</v>
       </c>
       <c r="L121" t="n">
         <v>5.262</v>
@@ -6450,7 +6472,7 @@
         <v>6.130000000000007</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.545454545454511</v>
+        <v>2.608695652173932</v>
       </c>
       <c r="L122" t="n">
         <v>5.263</v>
@@ -6501,7 +6523,7 @@
         <v>6.140000000000007</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.545454545454511</v>
+        <v>18.00000000000004</v>
       </c>
       <c r="L123" t="n">
         <v>5.265</v>
@@ -6552,7 +6574,7 @@
         <v>6.200000000000007</v>
       </c>
       <c r="K124" t="n">
-        <v>-8.695652173913041</v>
+        <v>-10.58823529411761</v>
       </c>
       <c r="L124" t="n">
         <v>5.276999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>6.240000000000007</v>
       </c>
       <c r="K125" t="n">
-        <v>-4.285714285714315</v>
+        <v>2.439024390243844</v>
       </c>
       <c r="L125" t="n">
         <v>5.271999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>6.260000000000008</v>
       </c>
       <c r="K126" t="n">
-        <v>-2.816901408450701</v>
+        <v>17.33333333333326</v>
       </c>
       <c r="L126" t="n">
         <v>5.275999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>6.310000000000008</v>
       </c>
       <c r="K127" t="n">
-        <v>0.6802721088435217</v>
+        <v>-21.56862745098035</v>
       </c>
       <c r="L127" t="n">
         <v>5.293999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>6.320000000000007</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>5.26315789473694</v>
       </c>
       <c r="L128" t="n">
         <v>5.281999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>6.320000000000007</v>
       </c>
       <c r="K129" t="n">
-        <v>-2.777777777777776</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>5.284</v>
@@ -6858,7 +6880,7 @@
         <v>6.320000000000007</v>
       </c>
       <c r="K130" t="n">
-        <v>-1.40845070422532</v>
+        <v>38.46153846153857</v>
       </c>
       <c r="L130" t="n">
         <v>5.284</v>
@@ -6909,7 +6931,7 @@
         <v>6.330000000000007</v>
       </c>
       <c r="K131" t="n">
-        <v>0.7092198581560123</v>
+        <v>20</v>
       </c>
       <c r="L131" t="n">
         <v>5.295</v>
@@ -6960,7 +6982,7 @@
         <v>6.330000000000007</v>
       </c>
       <c r="K132" t="n">
-        <v>3.649635036496333</v>
+        <v>26.31578947368406</v>
       </c>
       <c r="L132" t="n">
         <v>5.298999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>6.340000000000007</v>
       </c>
       <c r="K133" t="n">
-        <v>4.411764705882386</v>
+        <v>71.42857142857197</v>
       </c>
       <c r="L133" t="n">
         <v>5.302999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>6.440000000000007</v>
       </c>
       <c r="K134" t="n">
-        <v>9.230769230769226</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>5.302999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>6.520000000000008</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.8547008547008352</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L135" t="n">
         <v>5.306999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>6.610000000000007</v>
       </c>
       <c r="K136" t="n">
-        <v>-2.521008403361361</v>
+        <v>-40.00000000000006</v>
       </c>
       <c r="L136" t="n">
         <v>5.299999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>6.620000000000007</v>
       </c>
       <c r="K137" t="n">
-        <v>6.30630630630624</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L137" t="n">
         <v>5.289</v>
@@ -7266,7 +7288,7 @@
         <v>6.630000000000007</v>
       </c>
       <c r="K138" t="n">
-        <v>-27.71084337349397</v>
+        <v>-35.48387096774208</v>
       </c>
       <c r="L138" t="n">
         <v>5.278</v>
@@ -7317,7 +7339,7 @@
         <v>6.790000000000007</v>
       </c>
       <c r="K139" t="n">
-        <v>-29.41176470588231</v>
+        <v>-57.44680851063843</v>
       </c>
       <c r="L139" t="n">
         <v>5.250999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>6.840000000000007</v>
       </c>
       <c r="K140" t="n">
-        <v>-25.00000000000005</v>
+        <v>-45.09803921568638</v>
       </c>
       <c r="L140" t="n">
         <v>5.228999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>6.840000000000007</v>
       </c>
       <c r="K141" t="n">
-        <v>-15.38461538461539</v>
+        <v>-45.09803921568638</v>
       </c>
       <c r="L141" t="n">
         <v>5.206</v>
@@ -7470,7 +7492,7 @@
         <v>6.910000000000007</v>
       </c>
       <c r="K142" t="n">
-        <v>-15.38461538461539</v>
+        <v>-26.31578947368426</v>
       </c>
       <c r="L142" t="n">
         <v>5.19</v>
@@ -7521,7 +7543,7 @@
         <v>6.980000000000008</v>
       </c>
       <c r="K143" t="n">
-        <v>-21.42857142857148</v>
+        <v>-22.22222222222224</v>
       </c>
       <c r="L143" t="n">
         <v>5.168</v>
@@ -7572,7 +7594,7 @@
         <v>6.980000000000008</v>
       </c>
       <c r="K144" t="n">
-        <v>-15.38461538461539</v>
+        <v>-43.47826086956526</v>
       </c>
       <c r="L144" t="n">
         <v>5.156000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>6.980000000000008</v>
       </c>
       <c r="K145" t="n">
-        <v>-21.62162162162164</v>
+        <v>-29.72972972972981</v>
       </c>
       <c r="L145" t="n">
         <v>5.136000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>7.040000000000008</v>
       </c>
       <c r="K146" t="n">
-        <v>-15.38461538461539</v>
+        <v>-14.28571428571417</v>
       </c>
       <c r="L146" t="n">
         <v>5.131000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>7.080000000000008</v>
       </c>
       <c r="K147" t="n">
-        <v>-27.27272727272726</v>
+        <v>-19.99999999999992</v>
       </c>
       <c r="L147" t="n">
         <v>5.121</v>
@@ -7776,7 +7798,7 @@
         <v>7.120000000000008</v>
       </c>
       <c r="K148" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>5.116000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>7.120000000000008</v>
       </c>
       <c r="K149" t="n">
-        <v>-20</v>
+        <v>21.42857142857152</v>
       </c>
       <c r="L149" t="n">
         <v>5.127000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>7.160000000000008</v>
       </c>
       <c r="K150" t="n">
-        <v>-23.80952380952381</v>
+        <v>6.250000000000121</v>
       </c>
       <c r="L150" t="n">
         <v>5.129</v>
@@ -7929,7 +7951,7 @@
         <v>7.230000000000008</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.5555555555555</v>
+        <v>6.250000000000121</v>
       </c>
       <c r="L151" t="n">
         <v>5.138</v>
@@ -7980,7 +8002,7 @@
         <v>7.260000000000008</v>
       </c>
       <c r="K152" t="n">
-        <v>-11.82795698924734</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L152" t="n">
         <v>5.143</v>
@@ -8031,7 +8053,7 @@
         <v>7.270000000000008</v>
       </c>
       <c r="K153" t="n">
-        <v>-11.82795698924734</v>
+        <v>37.93103448275873</v>
       </c>
       <c r="L153" t="n">
         <v>5.154</v>
@@ -8082,7 +8104,7 @@
         <v>7.340000000000008</v>
       </c>
       <c r="K154" t="n">
-        <v>-8.888888888888893</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L154" t="n">
         <v>5.157999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>7.360000000000007</v>
       </c>
       <c r="K155" t="n">
-        <v>-21.4285714285714</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L155" t="n">
         <v>5.159999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>7.360000000000007</v>
       </c>
       <c r="K156" t="n">
-        <v>-11.99999999999998</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>5.155999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>7.370000000000007</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.66666666666659</v>
+        <v>-20</v>
       </c>
       <c r="L157" t="n">
         <v>5.154999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>7.410000000000007</v>
       </c>
       <c r="K158" t="n">
-        <v>-7.69230769230764</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="L158" t="n">
         <v>5.153999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>7.410000000000007</v>
       </c>
       <c r="K159" t="n">
-        <v>16.1290322580646</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L159" t="n">
         <v>5.152999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>7.410000000000007</v>
       </c>
       <c r="K160" t="n">
-        <v>8.771929824561523</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L160" t="n">
         <v>5.155999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>7.440000000000007</v>
       </c>
       <c r="K161" t="n">
-        <v>3.333333333333408</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L161" t="n">
         <v>5.148999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>7.460000000000008</v>
       </c>
       <c r="K162" t="n">
-        <v>-12.72727272727276</v>
+        <v>-57.89473684210531</v>
       </c>
       <c r="L162" t="n">
         <v>5.136999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>7.470000000000008</v>
       </c>
       <c r="K163" t="n">
-        <v>-2.040816326530568</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L163" t="n">
         <v>5.124999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>7.540000000000008</v>
       </c>
       <c r="K164" t="n">
-        <v>10.71428571428579</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L164" t="n">
         <v>5.127</v>
@@ -8643,7 +8665,7 @@
         <v>7.620000000000008</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.124999999999931</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L165" t="n">
         <v>5.122999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>7.630000000000008</v>
       </c>
       <c r="K166" t="n">
-        <v>-15.25423728813557</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L166" t="n">
         <v>5.118</v>
@@ -8745,7 +8767,7 @@
         <v>7.660000000000007</v>
       </c>
       <c r="K167" t="n">
-        <v>-3.44827586206905</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L167" t="n">
         <v>5.117</v>
@@ -8796,7 +8818,7 @@
         <v>7.710000000000007</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.64406779661025</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L168" t="n">
         <v>5.107</v>
@@ -8847,7 +8869,7 @@
         <v>7.710000000000007</v>
       </c>
       <c r="K169" t="n">
-        <v>-18.64406779661025</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L169" t="n">
         <v>5.097</v>
@@ -8898,7 +8920,7 @@
         <v>7.730000000000008</v>
       </c>
       <c r="K170" t="n">
-        <v>-8.771929824561383</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L170" t="n">
         <v>5.089</v>
@@ -8949,7 +8971,7 @@
         <v>7.790000000000007</v>
       </c>
       <c r="K171" t="n">
-        <v>-10.71428571428583</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L171" t="n">
         <v>5.090000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>7.830000000000007</v>
       </c>
       <c r="K172" t="n">
-        <v>-22.80701754385965</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>5.089</v>
@@ -9051,7 +9073,7 @@
         <v>7.880000000000007</v>
       </c>
       <c r="K173" t="n">
-        <v>-27.86885245901641</v>
+        <v>-35.29411764705897</v>
       </c>
       <c r="L173" t="n">
         <v>5.084000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>7.890000000000007</v>
       </c>
       <c r="K174" t="n">
-        <v>-19.99999999999994</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L174" t="n">
         <v>5.071000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>7.900000000000007</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.81481481481485</v>
+        <v>-11.11111111111126</v>
       </c>
       <c r="L175" t="n">
         <v>5.067000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>7.940000000000007</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.896551724137947</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L176" t="n">
         <v>5.068000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>7.940000000000007</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.263157894736891</v>
+        <v>13.0434782608697</v>
       </c>
       <c r="L177" t="n">
         <v>5.066000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>8.020000000000007</v>
       </c>
       <c r="K178" t="n">
-        <v>-24.59016393442631</v>
+        <v>-16.12903225806448</v>
       </c>
       <c r="L178" t="n">
         <v>5.061000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>8.210000000000008</v>
       </c>
       <c r="K179" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L179" t="n">
         <v>5.075000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>8.230000000000008</v>
       </c>
       <c r="K180" t="n">
-        <v>2.43902439024385</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L180" t="n">
         <v>5.085000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>8.230000000000008</v>
       </c>
       <c r="K181" t="n">
-        <v>6.32911392405061</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>5.089</v>
@@ -9510,7 +9532,7 @@
         <v>8.240000000000007</v>
       </c>
       <c r="K182" t="n">
-        <v>7.692307692307762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>5.096000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>8.240000000000007</v>
       </c>
       <c r="K183" t="n">
-        <v>9.090909090909133</v>
+        <v>37.14285714285705</v>
       </c>
       <c r="L183" t="n">
         <v>5.108000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>8.250000000000007</v>
       </c>
       <c r="K184" t="n">
-        <v>1.408450704225324</v>
+        <v>37.14285714285705</v>
       </c>
       <c r="L184" t="n">
         <v>5.122000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>8.250000000000007</v>
       </c>
       <c r="K185" t="n">
-        <v>14.28571428571428</v>
+        <v>29.03225806451604</v>
       </c>
       <c r="L185" t="n">
         <v>5.135000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>8.260000000000007</v>
       </c>
       <c r="K186" t="n">
-        <v>17.4603174603174</v>
+        <v>31.24999999999986</v>
       </c>
       <c r="L186" t="n">
         <v>5.145000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>8.340000000000007</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>31.24999999999986</v>
       </c>
       <c r="L187" t="n">
         <v>5.147000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>8.340000000000007</v>
       </c>
       <c r="K188" t="n">
-        <v>7.93650793650791</v>
+        <v>-69.23076923077033</v>
       </c>
       <c r="L188" t="n">
         <v>5.157000000000002</v>
@@ -9867,7 +9889,7 @@
         <v>8.440000000000008</v>
       </c>
       <c r="K189" t="n">
-        <v>20.54794520547946</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L189" t="n">
         <v>5.158000000000002</v>
@@ -9918,7 +9940,7 @@
         <v>8.440000000000008</v>
       </c>
       <c r="K190" t="n">
-        <v>18.30985915492954</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L190" t="n">
         <v>5.161000000000002</v>
@@ -9969,7 +9991,7 @@
         <v>8.440000000000008</v>
       </c>
       <c r="K191" t="n">
-        <v>10.76923076923079</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L191" t="n">
         <v>5.164000000000002</v>
@@ -10020,7 +10042,7 @@
         <v>8.460000000000008</v>
       </c>
       <c r="K192" t="n">
-        <v>20.63492063492059</v>
+        <v>27.27272727272701</v>
       </c>
       <c r="L192" t="n">
         <v>5.170000000000002</v>
@@ -10071,7 +10093,7 @@
         <v>8.460000000000008</v>
       </c>
       <c r="K193" t="n">
-        <v>31.03448275862059</v>
+        <v>23.80952380952363</v>
       </c>
       <c r="L193" t="n">
         <v>5.176000000000002</v>
@@ -10122,7 +10144,7 @@
         <v>8.460000000000008</v>
       </c>
       <c r="K194" t="n">
-        <v>33.33333333333318</v>
+        <v>23.80952380952363</v>
       </c>
       <c r="L194" t="n">
         <v>5.181000000000002</v>
@@ -10173,7 +10195,7 @@
         <v>8.460000000000008</v>
       </c>
       <c r="K195" t="n">
-        <v>32.14285714285701</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L195" t="n">
         <v>5.186000000000002</v>
@@ -10224,7 +10246,7 @@
         <v>8.480000000000008</v>
       </c>
       <c r="K196" t="n">
-        <v>22.2222222222222</v>
+        <v>71.42857142857152</v>
       </c>
       <c r="L196" t="n">
         <v>5.188000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>8.500000000000007</v>
       </c>
       <c r="K197" t="n">
-        <v>24.99999999999992</v>
+        <v>75</v>
       </c>
       <c r="L197" t="n">
         <v>5.200000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>8.530000000000006</v>
       </c>
       <c r="K198" t="n">
-        <v>37.2549019607844</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L198" t="n">
         <v>5.209000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>8.530000000000006</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L199" t="n">
         <v>5.208</v>
@@ -10428,7 +10450,7 @@
         <v>8.530000000000006</v>
       </c>
       <c r="K200" t="n">
-        <v>6.666666666666845</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L200" t="n">
         <v>5.207</v>
@@ -10479,7 +10501,7 @@
         <v>8.540000000000006</v>
       </c>
       <c r="K201" t="n">
-        <v>3.225806451612848</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L201" t="n">
         <v>5.205</v>
@@ -10530,7 +10552,7 @@
         <v>8.580000000000005</v>
       </c>
       <c r="K202" t="n">
-        <v>-5.88235294117664</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L202" t="n">
         <v>5.197</v>
@@ -10581,7 +10603,7 @@
         <v>8.630000000000006</v>
       </c>
       <c r="K203" t="n">
-        <v>-17.94871794871808</v>
+        <v>-76.47058823529488</v>
       </c>
       <c r="L203" t="n">
         <v>5.184</v>
@@ -10632,7 +10654,7 @@
         <v>8.690000000000007</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.545454545454454</v>
+        <v>-30.43478260869557</v>
       </c>
       <c r="L204" t="n">
         <v>5.177</v>
@@ -10683,7 +10705,7 @@
         <v>8.780000000000008</v>
       </c>
       <c r="K205" t="n">
-        <v>-20.75471698113209</v>
+        <v>-46.66666666666674</v>
       </c>
       <c r="L205" t="n">
         <v>5.161</v>
@@ -10734,7 +10756,7 @@
         <v>8.790000000000008</v>
       </c>
       <c r="K206" t="n">
-        <v>-24.52830188679238</v>
+        <v>-58.6206896551722</v>
       </c>
       <c r="L206" t="n">
         <v>5.146</v>
@@ -10785,7 +10807,7 @@
         <v>8.870000000000008</v>
       </c>
       <c r="K207" t="n">
-        <v>5.660377358490601</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L207" t="n">
         <v>5.137</v>
@@ -10836,7 +10858,7 @@
         <v>8.890000000000008</v>
       </c>
       <c r="K208" t="n">
-        <v>9.090909090909207</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L208" t="n">
         <v>5.133000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>8.920000000000007</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.166666666666774</v>
+        <v>-2.564102564102734</v>
       </c>
       <c r="L209" t="n">
         <v>5.132000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>8.950000000000006</v>
       </c>
       <c r="K210" t="n">
-        <v>-9.803921568627455</v>
+        <v>-7.317073170731549</v>
       </c>
       <c r="L210" t="n">
         <v>5.128000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>8.970000000000006</v>
       </c>
       <c r="K211" t="n">
-        <v>-13.20754716981143</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L211" t="n">
         <v>5.123000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K212" t="n">
-        <v>-11.11111111111106</v>
+        <v>18.91891891891894</v>
       </c>
       <c r="L212" t="n">
         <v>5.125000000000002</v>
@@ -11091,7 +11113,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K213" t="n">
-        <v>-11.11111111111106</v>
+        <v>3.22580645161283</v>
       </c>
       <c r="L213" t="n">
         <v>5.132000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>9.030000000000008</v>
       </c>
       <c r="K214" t="n">
-        <v>-15.78947368421049</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L214" t="n">
         <v>5.130000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>9.030000000000008</v>
       </c>
       <c r="K215" t="n">
-        <v>-15.78947368421049</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>5.137000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K216" t="n">
-        <v>-22.58064516129038</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L216" t="n">
         <v>5.138000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>9.110000000000008</v>
       </c>
       <c r="K217" t="n">
-        <v>-27.86885245901632</v>
+        <v>-45.45454545454557</v>
       </c>
       <c r="L217" t="n">
         <v>5.130000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>9.180000000000009</v>
       </c>
       <c r="K218" t="n">
-        <v>-10.76923076923078</v>
+        <v>-23.07692307692279</v>
       </c>
       <c r="L218" t="n">
         <v>5.127000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>9.230000000000008</v>
       </c>
       <c r="K219" t="n">
-        <v>-2.857142857142919</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L219" t="n">
         <v>5.126000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>9.230000000000008</v>
       </c>
       <c r="K220" t="n">
-        <v>-2.857142857142919</v>
+        <v>15.38461538461531</v>
       </c>
       <c r="L220" t="n">
         <v>5.128000000000002</v>
@@ -11499,7 +11521,7 @@
         <v>9.280000000000008</v>
       </c>
       <c r="K221" t="n">
-        <v>-8.108108108108034</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L221" t="n">
         <v>5.127000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>9.410000000000007</v>
       </c>
       <c r="K222" t="n">
-        <v>13.25301204819278</v>
+        <v>21.95121951219508</v>
       </c>
       <c r="L222" t="n">
         <v>5.136000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>9.480000000000008</v>
       </c>
       <c r="K223" t="n">
-        <v>10.58823529411761</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L223" t="n">
         <v>5.138000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>9.480000000000008</v>
       </c>
       <c r="K224" t="n">
-        <v>3.797468354430294</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L224" t="n">
         <v>5.143000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>9.480000000000008</v>
       </c>
       <c r="K225" t="n">
-        <v>17.14285714285718</v>
+        <v>31.57894736842116</v>
       </c>
       <c r="L225" t="n">
         <v>5.148000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>9.480000000000008</v>
       </c>
       <c r="K226" t="n">
-        <v>18.84057971014493</v>
+        <v>35.13513513513518</v>
       </c>
       <c r="L226" t="n">
         <v>5.16</v>
@@ -11805,7 +11827,7 @@
         <v>9.490000000000007</v>
       </c>
       <c r="K227" t="n">
-        <v>6.45161290322582</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L227" t="n">
         <v>5.172000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K228" t="n">
-        <v>4.918032786885146</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L228" t="n">
         <v>5.178000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L229" t="n">
         <v>5.179</v>
@@ -11958,7 +11980,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K230" t="n">
-        <v>5.454545454545332</v>
+        <v>27.27272727272724</v>
       </c>
       <c r="L230" t="n">
         <v>5.180000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K231" t="n">
-        <v>23.80952380952377</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L231" t="n">
         <v>5.196000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K232" t="n">
-        <v>19.99999999999997</v>
+        <v>83.33333333333309</v>
       </c>
       <c r="L232" t="n">
         <v>5.199000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>9.650000000000009</v>
       </c>
       <c r="K233" t="n">
-        <v>10.76923076923078</v>
+        <v>29.41176470588248</v>
       </c>
       <c r="L233" t="n">
         <v>5.204000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>9.670000000000009</v>
       </c>
       <c r="K234" t="n">
-        <v>18.75</v>
+        <v>36.8421052631578</v>
       </c>
       <c r="L234" t="n">
         <v>5.211000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>9.710000000000008</v>
       </c>
       <c r="K235" t="n">
-        <v>23.52941176470591</v>
+        <v>47.82608695652179</v>
       </c>
       <c r="L235" t="n">
         <v>5.222000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>9.760000000000009</v>
       </c>
       <c r="K236" t="n">
-        <v>27.27272727272736</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="L236" t="n">
         <v>5.228000000000002</v>
@@ -12315,7 +12337,7 @@
         <v>9.770000000000008</v>
       </c>
       <c r="K237" t="n">
-        <v>30.30303030303033</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="L237" t="n">
         <v>5.236000000000002</v>
@@ -12366,7 +12388,7 @@
         <v>9.780000000000008</v>
       </c>
       <c r="K238" t="n">
-        <v>20.00000000000003</v>
+        <v>21.42857142857152</v>
       </c>
       <c r="L238" t="n">
         <v>5.242000000000002</v>
@@ -12417,7 +12439,7 @@
         <v>9.820000000000007</v>
       </c>
       <c r="K239" t="n">
-        <v>18.64406779661023</v>
+        <v>31.25000000000014</v>
       </c>
       <c r="L239" t="n">
         <v>5.252000000000002</v>
@@ -12468,7 +12490,7 @@
         <v>9.840000000000007</v>
       </c>
       <c r="K240" t="n">
-        <v>21.31147540983607</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L240" t="n">
         <v>5.264000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>9.870000000000008</v>
       </c>
       <c r="K241" t="n">
-        <v>35.59322033898306</v>
+        <v>18.51851851851848</v>
       </c>
       <c r="L241" t="n">
         <v>5.269000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>9.870000000000008</v>
       </c>
       <c r="K242" t="n">
-        <v>17.39130434782607</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L242" t="n">
         <v>5.274000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>9.880000000000008</v>
       </c>
       <c r="K243" t="n">
-        <v>40</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L243" t="n">
         <v>5.285000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K245" t="n">
-        <v>50</v>
+        <v>90.00000000000018</v>
       </c>
       <c r="L245" t="n">
         <v>5.313000000000001</v>
@@ -12774,7 +12796,7 @@
         <v>9.970000000000008</v>
       </c>
       <c r="K246" t="n">
-        <v>51.02040816326529</v>
+        <v>90.00000000000018</v>
       </c>
       <c r="L246" t="n">
         <v>5.332000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>45.09803921568638</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L247" t="n">
         <v>5.347</v>
@@ -12876,7 +12898,7 @@
         <v>10.01000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>41.17647058823516</v>
+        <v>57.89473684210458</v>
       </c>
       <c r="L248" t="n">
         <v>5.362</v>
@@ -12927,7 +12949,7 @@
         <v>10.02000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>42.30769230769217</v>
+        <v>55.55555555555485</v>
       </c>
       <c r="L249" t="n">
         <v>5.374000000000001</v>
@@ -12978,7 +13000,7 @@
         <v>10.03000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>39.62264150943361</v>
+        <v>37.49999999999889</v>
       </c>
       <c r="L250" t="n">
         <v>5.383000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>10.11000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>37.25490196078397</v>
+        <v>58.33333333333228</v>
       </c>
       <c r="L251" t="n">
         <v>5.397</v>
@@ -13080,7 +13102,7 @@
         <v>10.12000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>38.46153846153826</v>
+        <v>58.33333333333266</v>
       </c>
       <c r="L252" t="n">
         <v>5.412000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>10.13000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>54.16666666666637</v>
+        <v>47.36842105263074</v>
       </c>
       <c r="L253" t="n">
         <v>5.427000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>10.13000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>52.173913043478</v>
+        <v>41.17647058823462</v>
       </c>
       <c r="L254" t="n">
         <v>5.436000000000002</v>
@@ -13233,7 +13255,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>26.53061224489773</v>
+        <v>-4.347826086956354</v>
       </c>
       <c r="L255" t="n">
         <v>5.436000000000002</v>
@@ -13284,7 +13306,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>47.9999999999997</v>
+        <v>30.76923076923019</v>
       </c>
       <c r="L256" t="n">
         <v>5.441000000000002</v>
@@ -13335,7 +13357,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>46.9387755102038</v>
+        <v>35.99999999999979</v>
       </c>
       <c r="L257" t="n">
         <v>5.449000000000002</v>
@@ -13386,7 +13408,7 @@
         <v>10.28000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>43.99999999999964</v>
+        <v>23.07692307692279</v>
       </c>
       <c r="L258" t="n">
         <v>5.456000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>10.29000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>40.42553191489315</v>
+        <v>30.76923076923082</v>
       </c>
       <c r="L259" t="n">
         <v>5.463000000000002</v>
@@ -13488,7 +13510,7 @@
         <v>10.37000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>16.98113207547152</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L260" t="n">
         <v>5.463000000000002</v>
@@ -13539,7 +13561,7 @@
         <v>10.39000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>15.38461538461531</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L261" t="n">
         <v>5.457000000000003</v>
@@ -13590,7 +13612,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>13.2075471698113</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>5.449000000000003</v>
@@ -13641,7 +13663,7 @@
         <v>10.47000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>22.03389830508467</v>
+        <v>-5.88235294117664</v>
       </c>
       <c r="L263" t="n">
         <v>5.447000000000002</v>
@@ -13692,7 +13714,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>17.85714285714272</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L264" t="n">
         <v>5.448000000000002</v>
@@ -13743,7 +13765,7 @@
         <v>10.59000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>26.98412698412687</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>5.465000000000002</v>
@@ -13794,7 +13816,7 @@
         <v>10.62000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>19.99999999999986</v>
+        <v>22.22222222222203</v>
       </c>
       <c r="L266" t="n">
         <v>5.473000000000002</v>
@@ -13845,7 +13867,7 @@
         <v>10.71000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>35.21126760563359</v>
+        <v>44.18604651162802</v>
       </c>
       <c r="L267" t="n">
         <v>5.490000000000002</v>
@@ -13896,7 +13918,7 @@
         <v>10.79000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>23.07692307692307</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L268" t="n">
         <v>5.501000000000002</v>
@@ -13947,7 +13969,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>31.81818181818172</v>
+        <v>54.71698113207555</v>
       </c>
       <c r="L269" t="n">
         <v>5.522000000000002</v>
@@ -13998,7 +14020,7 @@
         <v>10.92000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>34.83146067415734</v>
+        <v>54.71698113207536</v>
       </c>
       <c r="L270" t="n">
         <v>5.553000000000003</v>
@@ -14049,7 +14071,7 @@
         <v>10.92000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>28.3950617283951</v>
+        <v>57.69230769230751</v>
       </c>
       <c r="L271" t="n">
         <v>5.582000000000003</v>
@@ -14100,7 +14122,7 @@
         <v>10.92000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>27.49999999999995</v>
+        <v>51.11111111111089</v>
       </c>
       <c r="L272" t="n">
         <v>5.612000000000003</v>
@@ -14151,7 +14173,7 @@
         <v>10.92000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>26.58227848101262</v>
+        <v>47.61904761904746</v>
       </c>
       <c r="L273" t="n">
         <v>5.635000000000003</v>
@@ -14202,7 +14224,7 @@
         <v>11.04000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>36.2637362637362</v>
+        <v>51.11111111111089</v>
       </c>
       <c r="L274" t="n">
         <v>5.667000000000003</v>
@@ -14253,7 +14275,7 @@
         <v>11.06000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>48.8372093023255</v>
+        <v>63.63636363636351</v>
       </c>
       <c r="L275" t="n">
         <v>5.692000000000003</v>
@@ -14304,7 +14326,7 @@
         <v>11.24000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>18.36734693877547</v>
+        <v>1.886792452830145</v>
       </c>
       <c r="L276" t="n">
         <v>5.702000000000003</v>
@@ -14355,7 +14377,7 @@
         <v>11.38000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>28.57142857142849</v>
+        <v>38.98305084745744</v>
       </c>
       <c r="L277" t="n">
         <v>5.717000000000002</v>
@@ -14406,7 +14428,7 @@
         <v>11.49000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>19.00826446280994</v>
+        <v>1.694915254237398</v>
       </c>
       <c r="L278" t="n">
         <v>5.729000000000002</v>
@@ -14457,7 +14479,7 @@
         <v>11.51000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>16.39344262295083</v>
+        <v>-5.084745762711908</v>
       </c>
       <c r="L279" t="n">
         <v>5.728000000000002</v>
@@ -14508,7 +14530,7 @@
         <v>11.53000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>22.41379310344833</v>
+        <v>-8.196721311475388</v>
       </c>
       <c r="L280" t="n">
         <v>5.723000000000002</v>
@@ -14559,7 +14581,7 @@
         <v>11.54000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>21.7391304347826</v>
+        <v>-6.45161290322582</v>
       </c>
       <c r="L281" t="n">
         <v>5.719000000000001</v>
@@ -14610,7 +14632,7 @@
         <v>11.58000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>25.42372881355928</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>5.719000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>11.63000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>24.1379310344827</v>
+        <v>-11.86440677966107</v>
       </c>
       <c r="L283" t="n">
         <v>5.724000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>26.66666666666663</v>
+        <v>-3.124999999999931</v>
       </c>
       <c r="L284" t="n">
         <v>5.724000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>11.75000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>15.51724137931027</v>
+        <v>21.56862745098022</v>
       </c>
       <c r="L285" t="n">
         <v>5.717000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>11.76000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>19.29824561403507</v>
+        <v>-5.263157894736695</v>
       </c>
       <c r="L286" t="n">
         <v>5.729000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>11.78000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>10.28037383177561</v>
+        <v>24.13793103448233</v>
       </c>
       <c r="L287" t="n">
         <v>5.725000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>11.78000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>19.19191919191907</v>
+        <v>33.3333333333329</v>
       </c>
       <c r="L288" t="n">
         <v>5.732000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>11.84000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>2.127659574468127</v>
+        <v>16.12903225806434</v>
       </c>
       <c r="L289" t="n">
         <v>5.735000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>11.84000000000001</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>13.33333333333324</v>
       </c>
       <c r="L290" t="n">
         <v>5.740000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>11.92000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>7.999999999999993</v>
+        <v>23.52941176470579</v>
       </c>
       <c r="L291" t="n">
         <v>5.752000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>11.92000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>7.999999999999993</v>
+        <v>10.34482758620695</v>
       </c>
       <c r="L292" t="n">
         <v>5.760000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-39.99999999999994</v>
       </c>
       <c r="L293" t="n">
         <v>5.755000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>-12.5</v>
+        <v>-27.99999999999976</v>
       </c>
       <c r="L294" t="n">
         <v>5.743000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>12.03000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>-11.34020618556692</v>
+        <v>-18.51851851851848</v>
       </c>
       <c r="L295" t="n">
         <v>5.739000000000002</v>
@@ -15324,7 +15346,7 @@
         <v>12.03000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>8.860759493670892</v>
+        <v>-11.99999999999974</v>
       </c>
       <c r="L296" t="n">
         <v>5.734000000000002</v>
@@ -15375,7 +15397,7 @@
         <v>12.11000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-20.54794520547932</v>
+        <v>-33.33333333333315</v>
       </c>
       <c r="L297" t="n">
         <v>5.723000000000002</v>
@@ -15426,7 +15448,7 @@
         <v>12.21000000000002</v>
       </c>
       <c r="K298" t="n">
-        <v>8.33333333333325</v>
+        <v>13.51351351351343</v>
       </c>
       <c r="L298" t="n">
         <v>5.722000000000002</v>
@@ -15477,7 +15499,7 @@
         <v>12.32000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>-3.703703703703724</v>
+        <v>-12.50000000000009</v>
       </c>
       <c r="L299" t="n">
         <v>5.716000000000002</v>
@@ -15528,7 +15550,7 @@
         <v>12.39000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.302325581395325</v>
+        <v>-44.68085106382972</v>
       </c>
       <c r="L300" t="n">
         <v>5.703000000000001</v>
@@ -15579,7 +15601,7 @@
         <v>12.45000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-3.296703296703317</v>
+        <v>-28.30188679245293</v>
       </c>
       <c r="L301" t="n">
         <v>5.688000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>12.47000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-5.617977528089864</v>
+        <v>-10.63829787234041</v>
       </c>
       <c r="L302" t="n">
         <v>5.675000000000002</v>
@@ -15681,7 +15703,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>-8.045977011494292</v>
+        <v>-4.000000000000107</v>
       </c>
       <c r="L303" t="n">
         <v>5.673000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>12.51000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>-16.0493827160494</v>
+        <v>-8.333333333333396</v>
       </c>
       <c r="L304" t="n">
         <v>5.672000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>12.61000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>-20.93023255813952</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="L305" t="n">
         <v>5.657999999999999</v>
@@ -15834,7 +15856,7 @@
         <v>12.62000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>-20.93023255813966</v>
+        <v>-9.803921568627629</v>
       </c>
       <c r="L306" t="n">
         <v>5.645</v>
@@ -15885,7 +15907,7 @@
         <v>12.67000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>-23.5955056179776</v>
+        <v>-43.47826086956551</v>
       </c>
       <c r="L307" t="n">
         <v>5.635</v>
@@ -15936,7 +15958,7 @@
         <v>12.72000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>-17.02127659574474</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L308" t="n">
         <v>5.62</v>
@@ -15987,7 +16009,7 @@
         <v>12.75000000000001</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.2857142857143</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>5.613</v>
@@ -16038,7 +16060,7 @@
         <v>12.77000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>-16.12903225806456</v>
+        <v>-25</v>
       </c>
       <c r="L310" t="n">
         <v>5.611</v>
@@ -16089,7 +16111,7 @@
         <v>12.78000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>-25.5813953488373</v>
+        <v>-29.03225806451633</v>
       </c>
       <c r="L311" t="n">
         <v>5.604</v>
@@ -16140,7 +16162,7 @@
         <v>12.91000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>-35.3535353535354</v>
+        <v>-60.97560975609727</v>
       </c>
       <c r="L312" t="n">
         <v>5.582</v>
@@ -16191,7 +16213,7 @@
         <v>12.94000000000002</v>
       </c>
       <c r="K313" t="n">
-        <v>-25.53191489361701</v>
+        <v>-53.48837209302295</v>
       </c>
       <c r="L313" t="n">
         <v>5.56</v>
@@ -16242,7 +16264,7 @@
         <v>12.96000000000002</v>
       </c>
       <c r="K314" t="n">
-        <v>-27.08333333333329</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L314" t="n">
         <v>5.535</v>
@@ -16293,7 +16315,7 @@
         <v>12.97000000000002</v>
       </c>
       <c r="K315" t="n">
-        <v>-31.91489361702131</v>
+        <v>-48.57142857142811</v>
       </c>
       <c r="L315" t="n">
         <v>5.519</v>
@@ -16344,7 +16366,7 @@
         <v>13.04000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>-36.63366336633659</v>
+        <v>-51.35135135135058</v>
       </c>
       <c r="L316" t="n">
         <v>5.494999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>13.14000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>-18.44660194174759</v>
+        <v>-33.33333333333298</v>
       </c>
       <c r="L317" t="n">
         <v>5.486</v>
@@ -16446,7 +16468,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>-23.23232323232323</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L318" t="n">
         <v>5.478</v>
@@ -16497,7 +16519,7 @@
         <v>13.25000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>-7.526881720430016</v>
+        <v>4.166666666666728</v>
       </c>
       <c r="L319" t="n">
         <v>5.478</v>
@@ -16548,7 +16570,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>-5.49450549450555</v>
+        <v>-7.692307692307626</v>
       </c>
       <c r="L320" t="n">
         <v>5.475</v>
@@ -16599,7 +16621,7 @@
         <v>13.37000000000002</v>
       </c>
       <c r="K321" t="n">
-        <v>-19.56521739130421</v>
+        <v>4.347826086956581</v>
       </c>
       <c r="L321" t="n">
         <v>5.464</v>
@@ -16650,7 +16672,7 @@
         <v>13.38000000000002</v>
       </c>
       <c r="K322" t="n">
-        <v>-23.07692307692293</v>
+        <v>-4.545454545454417</v>
       </c>
       <c r="L322" t="n">
         <v>5.465</v>
@@ -16701,7 +16723,7 @@
         <v>13.45000000000002</v>
       </c>
       <c r="K323" t="n">
-        <v>-32.63157894736816</v>
+        <v>-14.28571428571423</v>
       </c>
       <c r="L323" t="n">
         <v>5.456</v>
@@ -16752,7 +16774,7 @@
         <v>13.46000000000002</v>
       </c>
       <c r="K324" t="n">
-        <v>-34.73684210526293</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L324" t="n">
         <v>5.448</v>
@@ -16803,7 +16825,7 @@
         <v>13.46000000000002</v>
       </c>
       <c r="K325" t="n">
-        <v>-27.05882352941155</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>5.441</v>
@@ -16854,7 +16876,7 @@
         <v>13.64000000000002</v>
       </c>
       <c r="K326" t="n">
-        <v>-5.882352941176404</v>
+        <v>15.99999999999996</v>
       </c>
       <c r="L326" t="n">
         <v>5.459</v>
@@ -16905,7 +16927,7 @@
         <v>13.64000000000002</v>
       </c>
       <c r="K327" t="n">
-        <v>-1.030927835051518</v>
+        <v>4.545454545454637</v>
       </c>
       <c r="L327" t="n">
         <v>5.467</v>
@@ -16956,7 +16978,7 @@
         <v>13.65000000000002</v>
       </c>
       <c r="K328" t="n">
-        <v>-7.526881720430002</v>
+        <v>-10</v>
       </c>
       <c r="L328" t="n">
         <v>5.467999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>13.85000000000002</v>
       </c>
       <c r="K329" t="n">
-        <v>-21.8181818181817</v>
+        <v>-34.54545454545441</v>
       </c>
       <c r="L329" t="n">
         <v>5.443999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>13.88000000000002</v>
       </c>
       <c r="K330" t="n">
-        <v>-22.52252252252239</v>
+        <v>-29.41176470588233</v>
       </c>
       <c r="L330" t="n">
         <v>5.421999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.47540983606547</v>
+        <v>-3.225806451612963</v>
       </c>
       <c r="L331" t="n">
         <v>5.418999999999999</v>
@@ -17160,7 +17182,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>-0.917431192660525</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L332" t="n">
         <v>5.416999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>-3.77358490566036</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L333" t="n">
         <v>5.421999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>14.18000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>13.11475409836053</v>
+        <v>33.33333333333313</v>
       </c>
       <c r="L334" t="n">
         <v>5.446</v>
@@ -17313,7 +17335,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K335" t="n">
-        <v>12.1951219512195</v>
+        <v>7.14285714285712</v>
       </c>
       <c r="L335" t="n">
         <v>5.467999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>14.22000000000002</v>
       </c>
       <c r="K336" t="n">
-        <v>20.33898305084735</v>
+        <v>10.3448275862068</v>
       </c>
       <c r="L336" t="n">
         <v>5.473999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>14.26000000000002</v>
       </c>
       <c r="K337" t="n">
-        <v>16.07142857142851</v>
+        <v>18.03278688524577</v>
       </c>
       <c r="L337" t="n">
         <v>5.484</v>
@@ -17466,7 +17488,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K338" t="n">
-        <v>7.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L338" t="n">
         <v>5.491</v>
@@ -17517,7 +17539,7 @@
         <v>14.37000000000002</v>
       </c>
       <c r="K339" t="n">
-        <v>8.928571428571388</v>
+        <v>75.51020408163292</v>
       </c>
       <c r="L339" t="n">
         <v>5.525</v>
@@ -17568,7 +17590,7 @@
         <v>14.39000000000002</v>
       </c>
       <c r="K340" t="n">
-        <v>15.59633027522943</v>
+        <v>69.23076923076988</v>
       </c>
       <c r="L340" t="n">
         <v>5.564</v>
@@ -17619,7 +17641,7 @@
         <v>14.39000000000002</v>
       </c>
       <c r="K341" t="n">
-        <v>23.52941176470591</v>
+        <v>69.23076923076988</v>
       </c>
       <c r="L341" t="n">
         <v>5.590999999999999</v>
@@ -17670,7 +17692,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K342" t="n">
-        <v>25.49019607843136</v>
+        <v>70.00000000000061</v>
       </c>
       <c r="L342" t="n">
         <v>5.619</v>
@@ -17721,7 +17743,7 @@
         <v>14.42000000000002</v>
       </c>
       <c r="K343" t="n">
-        <v>31.95876288659787</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L343" t="n">
         <v>5.645</v>
@@ -17772,7 +17794,7 @@
         <v>14.43000000000002</v>
       </c>
       <c r="K344" t="n">
-        <v>34.02061855670095</v>
+        <v>47.82608695652179</v>
       </c>
       <c r="L344" t="n">
         <v>5.653999999999999</v>
@@ -17823,7 +17845,7 @@
         <v>14.44000000000002</v>
       </c>
       <c r="K345" t="n">
-        <v>32.6530612244896</v>
+        <v>36.363636363636</v>
       </c>
       <c r="L345" t="n">
         <v>5.664</v>
@@ -17874,7 +17896,7 @@
         <v>14.44000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>17.49999999999986</v>
+        <v>22.22222222222184</v>
       </c>
       <c r="L346" t="n">
         <v>5.671999999999999</v>
@@ -17925,7 +17947,7 @@
         <v>14.44000000000002</v>
       </c>
       <c r="K347" t="n">
-        <v>17.49999999999986</v>
+        <v>57.1428571428555</v>
       </c>
       <c r="L347" t="n">
         <v>5.675999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>14.44000000000002</v>
       </c>
       <c r="K348" t="n">
-        <v>18.98734177215172</v>
+        <v>14.2857142857132</v>
       </c>
       <c r="L348" t="n">
         <v>5.683999999999999</v>
@@ -18027,7 +18049,7 @@
         <v>14.44000000000002</v>
       </c>
       <c r="K349" t="n">
-        <v>59.32203389830468</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L349" t="n">
         <v>5.684999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>14.44000000000002</v>
       </c>
       <c r="K350" t="n">
-        <v>67.85714285714256</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L350" t="n">
         <v>5.683999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>14.45000000000002</v>
       </c>
       <c r="K351" t="n">
-        <v>55.55555555555542</v>
+        <v>-59.99999999999538</v>
       </c>
       <c r="L351" t="n">
         <v>5.681999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>14.48000000000002</v>
       </c>
       <c r="K352" t="n">
-        <v>45.83333333333324</v>
+        <v>-66.6666666666642</v>
       </c>
       <c r="L352" t="n">
         <v>5.675999999999999</v>
@@ -18231,7 +18253,7 @@
         <v>14.57000000000002</v>
       </c>
       <c r="K353" t="n">
-        <v>54.38596491228076</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L353" t="n">
         <v>5.680999999999999</v>
@@ -18282,7 +18304,7 @@
         <v>14.58000000000002</v>
       </c>
       <c r="K354" t="n">
-        <v>29.99999999999986</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L354" t="n">
         <v>5.683999999999999</v>
@@ -18333,7 +18355,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K355" t="n">
-        <v>39.99999999999982</v>
+        <v>37.50000000000028</v>
       </c>
       <c r="L355" t="n">
         <v>5.69</v>
@@ -18384,7 +18406,7 @@
         <v>14.61000000000002</v>
       </c>
       <c r="K356" t="n">
-        <v>33.33333333333333</v>
+        <v>29.41176470588278</v>
       </c>
       <c r="L356" t="n">
         <v>5.694999999999999</v>
@@ -18435,7 +18457,7 @@
         <v>14.61000000000002</v>
       </c>
       <c r="K357" t="n">
-        <v>25.71428571428569</v>
+        <v>29.41176470588278</v>
       </c>
       <c r="L357" t="n">
         <v>5.699999999999999</v>
@@ -18486,7 +18508,7 @@
         <v>14.62000000000002</v>
       </c>
       <c r="K358" t="n">
-        <v>43.74999999999966</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L358" t="n">
         <v>5.706</v>
@@ -18537,7 +18559,7 @@
         <v>14.62000000000002</v>
       </c>
       <c r="K359" t="n">
-        <v>27.99999999999972</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L359" t="n">
         <v>5.712</v>
@@ -18588,7 +18610,7 @@
         <v>14.62000000000002</v>
       </c>
       <c r="K360" t="n">
-        <v>21.73913043478215</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L360" t="n">
         <v>5.718</v>
@@ -18639,7 +18661,7 @@
         <v>14.62000000000002</v>
       </c>
       <c r="K361" t="n">
-        <v>21.73913043478215</v>
+        <v>71.42857142857152</v>
       </c>
       <c r="L361" t="n">
         <v>5.725</v>
@@ -18690,7 +18712,7 @@
         <v>14.62000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>18.18181818181785</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L362" t="n">
         <v>5.735</v>
@@ -18741,7 +18763,7 @@
         <v>14.64000000000002</v>
       </c>
       <c r="K363" t="n">
-        <v>18.181818181818</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>5.734</v>
@@ -18792,7 +18814,7 @@
         <v>14.64000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>14.28571428571392</v>
+        <v>-50.00000000000222</v>
       </c>
       <c r="L364" t="n">
         <v>5.734</v>
@@ -18843,7 +18865,7 @@
         <v>14.66000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>27.27272727272764</v>
+        <v>20</v>
       </c>
       <c r="L365" t="n">
         <v>5.734</v>
@@ -18894,7 +18916,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K366" t="n">
-        <v>7.692307692307929</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L366" t="n">
         <v>5.731</v>
@@ -18945,7 +18967,7 @@
         <v>14.71000000000002</v>
       </c>
       <c r="K367" t="n">
-        <v>3.703703703703984</v>
+        <v>-55.55555555555654</v>
       </c>
       <c r="L367" t="n">
         <v>5.726999999999999</v>
@@ -18996,7 +19018,7 @@
         <v>14.71000000000002</v>
       </c>
       <c r="K368" t="n">
-        <v>3.703703703703984</v>
+        <v>-55.55555555555654</v>
       </c>
       <c r="L368" t="n">
         <v>5.722</v>
@@ -19047,7 +19069,7 @@
         <v>14.72000000000002</v>
       </c>
       <c r="K369" t="n">
-        <v>7.14285714285737</v>
+        <v>-40.00000000000089</v>
       </c>
       <c r="L369" t="n">
         <v>5.717999999999999</v>
@@ -19098,7 +19120,7 @@
         <v>14.76000000000002</v>
       </c>
       <c r="K370" t="n">
-        <v>18.75000000000035</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>5.717999999999999</v>
@@ -19149,7 +19171,7 @@
         <v>14.92000000000002</v>
       </c>
       <c r="K371" t="n">
-        <v>48.93617021276635</v>
+        <v>53.33333333333389</v>
       </c>
       <c r="L371" t="n">
         <v>5.733999999999999</v>
@@ -19200,7 +19222,7 @@
         <v>14.94000000000002</v>
       </c>
       <c r="K372" t="n">
-        <v>60.86956521739172</v>
+        <v>66.66666666666737</v>
       </c>
       <c r="L372" t="n">
         <v>5.751999999999999</v>
@@ -19251,7 +19273,7 @@
         <v>14.95000000000002</v>
       </c>
       <c r="K373" t="n">
-        <v>52.63157894736862</v>
+        <v>67.74193548387163</v>
       </c>
       <c r="L373" t="n">
         <v>5.772999999999999</v>
@@ -19302,7 +19324,7 @@
         <v>15.18000000000002</v>
       </c>
       <c r="K374" t="n">
-        <v>73.33333333333387</v>
+        <v>80.76923076923109</v>
       </c>
       <c r="L374" t="n">
         <v>5.816999999999998</v>
@@ -19353,7 +19375,7 @@
         <v>15.19000000000002</v>
       </c>
       <c r="K375" t="n">
-        <v>69.49152542372927</v>
+        <v>91.83673469387787</v>
       </c>
       <c r="L375" t="n">
         <v>5.857999999999999</v>
@@ -19404,7 +19426,7 @@
         <v>15.23000000000002</v>
       </c>
       <c r="K376" t="n">
-        <v>74.19354838709728</v>
+        <v>96.15384615384656</v>
       </c>
       <c r="L376" t="n">
         <v>5.906999999999999</v>
@@ -19455,7 +19477,7 @@
         <v>15.34000000000002</v>
       </c>
       <c r="K377" t="n">
-        <v>47.94520547945233</v>
+        <v>61.90476190476213</v>
       </c>
       <c r="L377" t="n">
         <v>5.946</v>
@@ -19506,7 +19528,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K378" t="n">
-        <v>51.28205128205161</v>
+        <v>64.70588235294147</v>
       </c>
       <c r="L378" t="n">
         <v>5.991</v>
@@ -19557,7 +19579,7 @@
         <v>15.41000000000002</v>
       </c>
       <c r="K379" t="n">
-        <v>51.8987341772155</v>
+        <v>63.07692307692324</v>
       </c>
       <c r="L379" t="n">
         <v>6.036</v>
@@ -19608,7 +19630,7 @@
         <v>15.44000000000002</v>
       </c>
       <c r="K380" t="n">
-        <v>46.34146341463432</v>
+        <v>42.3076923076923</v>
       </c>
       <c r="L380" t="n">
         <v>6.074</v>
@@ -19659,7 +19681,7 @@
         <v>15.56000000000002</v>
       </c>
       <c r="K381" t="n">
-        <v>53.19148936170226</v>
+        <v>51.61290322580642</v>
       </c>
       <c r="L381" t="n">
         <v>6.108000000000001</v>
@@ -19710,7 +19732,7 @@
         <v>15.72000000000002</v>
       </c>
       <c r="K382" t="n">
-        <v>60.00000000000013</v>
+        <v>61.03896103896101</v>
       </c>
       <c r="L382" t="n">
         <v>6.156000000000001</v>
@@ -19761,7 +19783,7 @@
         <v>15.74000000000002</v>
       </c>
       <c r="K383" t="n">
-        <v>60.00000000000013</v>
+        <v>39.28571428571421</v>
       </c>
       <c r="L383" t="n">
         <v>6.201</v>
@@ -19812,7 +19834,7 @@
         <v>15.82000000000002</v>
       </c>
       <c r="K384" t="n">
-        <v>49.15254237288145</v>
+        <v>23.80952380952369</v>
       </c>
       <c r="L384" t="n">
         <v>6.215000000000001</v>
@@ -19863,7 +19885,7 @@
         <v>15.88000000000002</v>
       </c>
       <c r="K385" t="n">
-        <v>40.98360655737709</v>
+        <v>7.69230769230764</v>
       </c>
       <c r="L385" t="n">
         <v>6.224</v>
@@ -19914,7 +19936,7 @@
         <v>15.97000000000002</v>
       </c>
       <c r="K386" t="n">
-        <v>35.43307086614176</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L386" t="n">
         <v>6.220000000000001</v>
@@ -19965,7 +19987,7 @@
         <v>16.02000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>38.93129770992363</v>
+        <v>9.677419354838719</v>
       </c>
       <c r="L387" t="n">
         <v>6.232000000000001</v>
@@ -20016,7 +20038,7 @@
         <v>16.02000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>38.93129770992363</v>
+        <v>8.196721311475342</v>
       </c>
       <c r="L388" t="n">
         <v>6.238000000000001</v>
@@ -20067,7 +20089,7 @@
         <v>16.12000000000002</v>
       </c>
       <c r="K389" t="n">
-        <v>42.85714285714288</v>
+        <v>26.47058823529408</v>
       </c>
       <c r="L389" t="n">
         <v>6.253000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>16.16000000000002</v>
       </c>
       <c r="K390" t="n">
-        <v>42.85714285714288</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L390" t="n">
         <v>6.275</v>
@@ -20169,7 +20191,7 @@
         <v>16.18000000000002</v>
       </c>
       <c r="K391" t="n">
-        <v>33.33333333333338</v>
+        <v>-17.39130434782621</v>
       </c>
       <c r="L391" t="n">
         <v>6.283</v>
@@ -20220,7 +20242,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K392" t="n">
-        <v>30.1587301587302</v>
+        <v>-17.39130434782621</v>
       </c>
       <c r="L392" t="n">
         <v>6.273000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>16.25000000000002</v>
       </c>
       <c r="K393" t="n">
-        <v>24.61538461538466</v>
+        <v>-11.6279069767442</v>
       </c>
       <c r="L393" t="n">
         <v>6.260000000000002</v>
@@ -20322,7 +20344,7 @@
         <v>16.31000000000002</v>
       </c>
       <c r="K394" t="n">
-        <v>13.27433628318582</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L394" t="n">
         <v>6.261000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>16.37000000000002</v>
       </c>
       <c r="K395" t="n">
-        <v>18.64406779661015</v>
+        <v>55.00000000000014</v>
       </c>
       <c r="L395" t="n">
         <v>6.274000000000002</v>
@@ -20424,7 +20446,7 @@
         <v>16.41000000000002</v>
       </c>
       <c r="K396" t="n">
-        <v>18.64406779661015</v>
+        <v>53.84615384615425</v>
       </c>
       <c r="L396" t="n">
         <v>6.300000000000002</v>
@@ -20475,7 +20497,7 @@
         <v>16.45000000000002</v>
       </c>
       <c r="K397" t="n">
-        <v>33.33333333333336</v>
+        <v>58.13953488372145</v>
       </c>
       <c r="L397" t="n">
         <v>6.325000000000001</v>
@@ -20526,7 +20548,7 @@
         <v>16.51000000000002</v>
       </c>
       <c r="K398" t="n">
-        <v>22.52252252252246</v>
+        <v>23.07692307692301</v>
       </c>
       <c r="L398" t="n">
         <v>6.344000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>16.61000000000002</v>
       </c>
       <c r="K399" t="n">
-        <v>11.66666666666661</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L399" t="n">
         <v>6.343000000000002</v>
@@ -20628,7 +20650,7 @@
         <v>16.71000000000002</v>
       </c>
       <c r="K400" t="n">
-        <v>21.25984251968496</v>
+        <v>13.20754716981109</v>
       </c>
       <c r="L400" t="n">
         <v>6.348000000000002</v>
@@ -20679,7 +20701,7 @@
         <v>16.81000000000002</v>
       </c>
       <c r="K401" t="n">
-        <v>3.999999999999974</v>
+        <v>-1.639344262295029</v>
       </c>
       <c r="L401" t="n">
         <v>6.345000000000002</v>
@@ -20730,7 +20752,7 @@
         <v>16.89000000000002</v>
       </c>
       <c r="K402" t="n">
-        <v>-2.564102564102582</v>
+        <v>18.7499999999999</v>
       </c>
       <c r="L402" t="n">
         <v>6.352000000000002</v>
@@ -20781,7 +20803,7 @@
         <v>16.92000000000002</v>
       </c>
       <c r="K403" t="n">
-        <v>1.694915254237322</v>
+        <v>14.7540983606557</v>
       </c>
       <c r="L403" t="n">
         <v>6.367000000000003</v>
@@ -20832,7 +20854,7 @@
         <v>16.98000000000002</v>
       </c>
       <c r="K404" t="n">
-        <v>13.79310344827585</v>
+        <v>14.75409836065564</v>
       </c>
       <c r="L404" t="n">
         <v>6.382000000000002</v>
@@ -20883,7 +20905,7 @@
         <v>17.04000000000002</v>
       </c>
       <c r="K405" t="n">
-        <v>13.79310344827587</v>
+        <v>-1.587301587301547</v>
       </c>
       <c r="L405" t="n">
         <v>6.385000000000003</v>
@@ -20934,7 +20956,7 @@
         <v>17.05000000000002</v>
       </c>
       <c r="K406" t="n">
-        <v>22.22222222222212</v>
+        <v>-10</v>
       </c>
       <c r="L406" t="n">
         <v>6.383000000000003</v>
@@ -20985,7 +21007,7 @@
         <v>17.12000000000002</v>
       </c>
       <c r="K407" t="n">
-        <v>23.63636363636359</v>
+        <v>11.47540983606556</v>
       </c>
       <c r="L407" t="n">
         <v>6.384000000000002</v>
@@ -21036,7 +21058,7 @@
         <v>17.21000000000002</v>
       </c>
       <c r="K408" t="n">
-        <v>14.28571428571427</v>
+        <v>13.33333333333331</v>
       </c>
       <c r="L408" t="n">
         <v>6.382000000000002</v>
@@ -21087,7 +21109,7 @@
         <v>17.27000000000002</v>
       </c>
       <c r="K409" t="n">
-        <v>0.8695652173912815</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L409" t="n">
         <v>6.384000000000002</v>
@@ -21138,7 +21160,7 @@
         <v>17.36000000000002</v>
       </c>
       <c r="K410" t="n">
-        <v>5.000000000000015</v>
+        <v>20.00000000000003</v>
       </c>
       <c r="L410" t="n">
         <v>6.385000000000002</v>
@@ -21189,7 +21211,7 @@
         <v>17.41000000000003</v>
       </c>
       <c r="K411" t="n">
-        <v>2.439024390243836</v>
+        <v>-3.846153846153912</v>
       </c>
       <c r="L411" t="n">
         <v>6.391000000000002</v>
@@ -21240,7 +21262,7 @@
         <v>17.45000000000002</v>
       </c>
       <c r="K412" t="n">
-        <v>7.199999999999948</v>
+        <v>-1.886792452830312</v>
       </c>
       <c r="L412" t="n">
         <v>6.393000000000002</v>
@@ -21291,7 +21313,7 @@
         <v>17.46000000000002</v>
       </c>
       <c r="K413" t="n">
-        <v>10.74380165289251</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L413" t="n">
         <v>6.391000000000002</v>
@@ -21342,7 +21364,7 @@
         <v>17.93000000000002</v>
       </c>
       <c r="K414" t="n">
-        <v>-24.69135802469126</v>
+        <v>-55.05617977528089</v>
       </c>
       <c r="L414" t="n">
         <v>6.336000000000002</v>
@@ -21393,7 +21415,7 @@
         <v>18.15000000000002</v>
       </c>
       <c r="K415" t="n">
-        <v>-13.48314606741573</v>
+        <v>-23.63636363636367</v>
       </c>
       <c r="L415" t="n">
         <v>6.309000000000003</v>
@@ -21444,7 +21466,7 @@
         <v>18.22000000000002</v>
       </c>
       <c r="K416" t="n">
-        <v>-11.60220994475136</v>
+        <v>-23.63636363636367</v>
       </c>
       <c r="L416" t="n">
         <v>6.290000000000002</v>
@@ -21495,7 +21517,7 @@
         <v>18.32000000000002</v>
       </c>
       <c r="K417" t="n">
-        <v>-8.021390374331551</v>
+        <v>-6.306306306306335</v>
       </c>
       <c r="L417" t="n">
         <v>6.274000000000002</v>
@@ -21546,7 +21568,7 @@
         <v>18.37000000000002</v>
       </c>
       <c r="K418" t="n">
-        <v>-2.150537634408601</v>
+        <v>3.636363636363646</v>
       </c>
       <c r="L418" t="n">
         <v>6.272000000000002</v>
@@ -21597,7 +21619,7 @@
         <v>18.38000000000002</v>
       </c>
       <c r="K419" t="n">
-        <v>2.824858757062132</v>
+        <v>-5.882352941176522</v>
       </c>
       <c r="L419" t="n">
         <v>6.275000000000001</v>
@@ -21648,7 +21670,7 @@
         <v>18.48000000000003</v>
       </c>
       <c r="K420" t="n">
-        <v>-8.474576271186397</v>
+        <v>-10.28037383177564</v>
       </c>
       <c r="L420" t="n">
         <v>6.259000000000001</v>
@@ -21699,7 +21721,7 @@
         <v>18.55000000000003</v>
       </c>
       <c r="K421" t="n">
-        <v>-6.89655172413793</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="L421" t="n">
         <v>6.241000000000001</v>
@@ -21750,7 +21772,7 @@
         <v>18.59000000000002</v>
       </c>
       <c r="K422" t="n">
-        <v>-14.11764705882352</v>
+        <v>-22.12389380530968</v>
       </c>
       <c r="L422" t="n">
         <v>6.215000000000001</v>
@@ -21801,7 +21823,7 @@
         <v>18.63000000000002</v>
       </c>
       <c r="K423" t="n">
-        <v>-13.45029239766084</v>
+        <v>37.14285714285696</v>
       </c>
       <c r="L423" t="n">
         <v>6.194000000000001</v>
@@ -21852,7 +21874,7 @@
         <v>18.63000000000002</v>
       </c>
       <c r="K424" t="n">
-        <v>-17.57575757575756</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L424" t="n">
         <v>6.220000000000001</v>
@@ -21903,7 +21925,7 @@
         <v>18.64000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>-15</v>
+        <v>-9.523809523809494</v>
       </c>
       <c r="L425" t="n">
         <v>6.223</v>
@@ -21954,7 +21976,7 @@
         <v>18.65000000000002</v>
       </c>
       <c r="K426" t="n">
-        <v>-13.75</v>
+        <v>-39.39393939393956</v>
       </c>
       <c r="L426" t="n">
         <v>6.219999999999999</v>
@@ -22005,7 +22027,7 @@
         <v>18.65000000000002</v>
       </c>
       <c r="K427" t="n">
-        <v>-18.9542483660131</v>
+        <v>-64.28571428571473</v>
       </c>
       <c r="L427" t="n">
         <v>6.206999999999999</v>
@@ -22056,7 +22078,7 @@
         <v>18.71000000000002</v>
       </c>
       <c r="K428" t="n">
-        <v>-9.333333333333311</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L428" t="n">
         <v>6.194999999999999</v>
@@ -22107,7 +22129,7 @@
         <v>18.74000000000002</v>
       </c>
       <c r="K429" t="n">
-        <v>-7.482993197278878</v>
+        <v>-15.38461538461552</v>
       </c>
       <c r="L429" t="n">
         <v>6.180999999999999</v>
@@ -22158,7 +22180,7 @@
         <v>18.79000000000002</v>
       </c>
       <c r="K430" t="n">
-        <v>-10.48951048951052</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L430" t="n">
         <v>6.181999999999999</v>
@@ -22209,7 +22231,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K431" t="n">
-        <v>-6.474820143884879</v>
+        <v>61.90476190476161</v>
       </c>
       <c r="L431" t="n">
         <v>6.190999999999998</v>
@@ -22260,7 +22282,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K432" t="n">
-        <v>-9.629629629629612</v>
+        <v>52.94117647058763</v>
       </c>
       <c r="L432" t="n">
         <v>6.203999999999999</v>
@@ -22311,7 +22333,7 @@
         <v>18.84000000000002</v>
       </c>
       <c r="K433" t="n">
-        <v>-5.797101449275357</v>
+        <v>61.90476190476161</v>
       </c>
       <c r="L433" t="n">
         <v>6.216999999999999</v>
@@ -22362,7 +22384,7 @@
         <v>18.88000000000002</v>
       </c>
       <c r="K434" t="n">
-        <v>45.26315789473668</v>
+        <v>74.99999999999926</v>
       </c>
       <c r="L434" t="n">
         <v>6.233999999999999</v>
@@ -22413,7 +22435,7 @@
         <v>18.92000000000002</v>
       </c>
       <c r="K435" t="n">
-        <v>22.07792207792198</v>
+        <v>48.14814814814755</v>
       </c>
       <c r="L435" t="n">
         <v>6.247999999999999</v>
@@ -22464,7 +22486,7 @@
         <v>19.03000000000002</v>
       </c>
       <c r="K436" t="n">
-        <v>-1.234567901234538</v>
+        <v>5.263157894736929</v>
       </c>
       <c r="L436" t="n">
         <v>6.249999999999998</v>
@@ -22515,7 +22537,7 @@
         <v>19.06000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>-18.91891891891883</v>
+        <v>-20</v>
       </c>
       <c r="L437" t="n">
         <v>6.248999999999998</v>
@@ -22566,7 +22588,7 @@
         <v>19.18000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>-38.27160493827144</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L438" t="n">
         <v>6.229999999999999</v>
@@ -22617,7 +22639,7 @@
         <v>19.34000000000002</v>
       </c>
       <c r="K439" t="n">
-        <v>-14.58333333333329</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L439" t="n">
         <v>6.229999999999999</v>
@@ -22668,7 +22690,7 @@
         <v>19.45000000000002</v>
       </c>
       <c r="K440" t="n">
-        <v>-15.46391752577325</v>
+        <v>-26.1538461538462</v>
       </c>
       <c r="L440" t="n">
         <v>6.213999999999999</v>
@@ -22719,7 +22741,7 @@
         <v>19.46000000000002</v>
       </c>
       <c r="K441" t="n">
-        <v>-7.692307692307752</v>
+        <v>-24.24242424242439</v>
       </c>
       <c r="L441" t="n">
         <v>6.197999999999999</v>
@@ -22770,7 +22792,7 @@
         <v>19.46000000000002</v>
       </c>
       <c r="K442" t="n">
-        <v>-3.448275862069004</v>
+        <v>-32.2580645161292</v>
       </c>
       <c r="L442" t="n">
         <v>6.181999999999999</v>
@@ -22821,7 +22843,7 @@
         <v>19.46000000000002</v>
       </c>
       <c r="K443" t="n">
-        <v>-8.433734939759088</v>
+        <v>-41.37931034482774</v>
       </c>
       <c r="L443" t="n">
         <v>6.161999999999999</v>
@@ -22872,7 +22894,7 @@
         <v>19.55000000000002</v>
       </c>
       <c r="K444" t="n">
-        <v>-17.39130434782614</v>
+        <v>-46.03174603174611</v>
       </c>
       <c r="L444" t="n">
         <v>6.129</v>
@@ -22923,7 +22945,7 @@
         <v>19.56000000000002</v>
       </c>
       <c r="K445" t="n">
-        <v>-15.21739130434786</v>
+        <v>-32.0754716981133</v>
       </c>
       <c r="L445" t="n">
         <v>6.100999999999999</v>
@@ -22974,7 +22996,7 @@
         <v>19.58000000000002</v>
       </c>
       <c r="K446" t="n">
-        <v>-18.27956989247305</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L446" t="n">
         <v>6.081999999999999</v>
@@ -23025,7 +23047,7 @@
         <v>19.64000000000002</v>
       </c>
       <c r="K447" t="n">
-        <v>-11.11111111111112</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L447" t="n">
         <v>6.072</v>
@@ -23076,7 +23098,7 @@
         <v>19.68000000000002</v>
       </c>
       <c r="K448" t="n">
-        <v>-21.64948453608259</v>
+        <v>-52.94117647058899</v>
       </c>
       <c r="L448" t="n">
         <v>6.069999999999999</v>
@@ -23127,7 +23149,7 @@
         <v>19.69000000000002</v>
       </c>
       <c r="K449" t="n">
-        <v>-20.00000000000013</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L449" t="n">
         <v>6.050999999999999</v>
@@ -23178,7 +23200,7 @@
         <v>19.77000000000002</v>
       </c>
       <c r="K450" t="n">
-        <v>-16.32653061224502</v>
+        <v>-3.225806451612884</v>
       </c>
       <c r="L450" t="n">
         <v>6.050999999999999</v>
@@ -23229,7 +23251,7 @@
         <v>19.86000000000002</v>
       </c>
       <c r="K451" t="n">
-        <v>-24.52830188679263</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L451" t="n">
         <v>6.040999999999999</v>
@@ -23280,7 +23302,7 @@
         <v>19.86000000000002</v>
       </c>
       <c r="K452" t="n">
-        <v>-24.52830188679263</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L452" t="n">
         <v>6.031</v>
@@ -23331,7 +23353,7 @@
         <v>19.86000000000002</v>
       </c>
       <c r="K453" t="n">
-        <v>-29.41176470588255</v>
+        <v>-3.225806451612884</v>
       </c>
       <c r="L453" t="n">
         <v>6.021</v>
@@ -23382,7 +23404,7 @@
         <v>19.98000000000002</v>
       </c>
       <c r="K454" t="n">
-        <v>-20.00000000000008</v>
+        <v>23.80952380952424</v>
       </c>
       <c r="L454" t="n">
         <v>6.032</v>
@@ -23433,7 +23455,7 @@
         <v>19.99000000000002</v>
       </c>
       <c r="K455" t="n">
-        <v>-15.88785046728981</v>
+        <v>31.70731707317124</v>
       </c>
       <c r="L455" t="n">
         <v>6.043000000000001</v>
@@ -23484,7 +23506,7 @@
         <v>20.01000000000002</v>
       </c>
       <c r="K456" t="n">
-        <v>-4.081632653061256</v>
+        <v>24.32432432432493</v>
       </c>
       <c r="L456" t="n">
         <v>6.058000000000002</v>
@@ -23535,7 +23557,7 @@
         <v>20.01000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>-1.052631578947355</v>
+        <v>39.39393939394026</v>
       </c>
       <c r="L457" t="n">
         <v>6.067000000000002</v>
@@ -23586,7 +23608,7 @@
         <v>20.06000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>18.18181818181836</v>
+        <v>51.35135135135182</v>
       </c>
       <c r="L458" t="n">
         <v>6.085000000000003</v>
@@ -23637,7 +23659,7 @@
         <v>20.06000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>37.93103448275884</v>
       </c>
       <c r="L459" t="n">
         <v>6.104000000000003</v>
@@ -23688,7 +23710,7 @@
         <v>20.15000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>2.857142857142955</v>
+        <v>37.93103448275884</v>
       </c>
       <c r="L460" t="n">
         <v>6.106000000000003</v>
@@ -23739,7 +23761,7 @@
         <v>20.26000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>15.00000000000013</v>
+        <v>55.00000000000014</v>
       </c>
       <c r="L461" t="n">
         <v>6.128000000000003</v>
@@ -23790,7 +23812,7 @@
         <v>20.37000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>1.098901098901182</v>
+        <v>21.56862745098054</v>
       </c>
       <c r="L462" t="n">
         <v>6.139000000000003</v>
@@ -23841,7 +23863,7 @@
         <v>20.37000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>1.098901098901182</v>
+        <v>-2.564102564102529</v>
       </c>
       <c r="L463" t="n">
         <v>6.150000000000003</v>
@@ -23892,7 +23914,7 @@
         <v>20.41000000000001</v>
       </c>
       <c r="K464" t="n">
-        <v>16.27906976744207</v>
+        <v>4.761904761904892</v>
       </c>
       <c r="L464" t="n">
         <v>6.153000000000004</v>
@@ -23943,7 +23965,7 @@
         <v>20.41000000000001</v>
       </c>
       <c r="K465" t="n">
-        <v>15.29411764705908</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>6.155000000000003</v>
@@ -23994,7 +24016,7 @@
         <v>20.46000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>11.36363636363643</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L466" t="n">
         <v>6.150000000000004</v>
@@ -24045,7 +24067,7 @@
         <v>20.51000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>10.34482758620705</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L467" t="n">
         <v>6.150000000000004</v>
@@ -24096,7 +24118,7 @@
         <v>20.57000000000001</v>
       </c>
       <c r="K468" t="n">
-        <v>7.865168539325933</v>
+        <v>-21.56862745098054</v>
       </c>
       <c r="L468" t="n">
         <v>6.139000000000003</v>
@@ -24147,7 +24169,7 @@
         <v>20.62000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>13.97849462365596</v>
+        <v>6.382978723404134</v>
       </c>
       <c r="L469" t="n">
         <v>6.133000000000003</v>
@@ -24198,7 +24220,7 @@
         <v>20.66000000000001</v>
       </c>
       <c r="K470" t="n">
-        <v>1.123595505617957</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L470" t="n">
         <v>6.132000000000002</v>
@@ -24249,7 +24271,7 @@
         <v>20.67000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>11.11111111111111</v>
+        <v>-6.666666666666806</v>
       </c>
       <c r="L471" t="n">
         <v>6.119000000000002</v>
@@ -24300,7 +24322,7 @@
         <v>20.68000000000001</v>
       </c>
       <c r="K472" t="n">
-        <v>9.756097560975658</v>
+        <v>-9.677419354838831</v>
       </c>
       <c r="L472" t="n">
         <v>6.116000000000002</v>
@@ -24351,7 +24373,7 @@
         <v>20.70000000000001</v>
       </c>
       <c r="K473" t="n">
-        <v>7.142857142857127</v>
+        <v>-31.03448275862104</v>
       </c>
       <c r="L473" t="n">
         <v>6.111000000000002</v>
@@ -24402,7 +24424,7 @@
         <v>20.72000000000001</v>
       </c>
       <c r="K474" t="n">
-        <v>-5.405405405405447</v>
+        <v>-22.58064516129051</v>
       </c>
       <c r="L474" t="n">
         <v>6.104000000000003</v>
@@ -24453,7 +24475,7 @@
         <v>20.74000000000001</v>
       </c>
       <c r="K475" t="n">
-        <v>-4.000000000000052</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>6.099000000000003</v>
@@ -24504,7 +24526,7 @@
         <v>20.74000000000001</v>
       </c>
       <c r="K476" t="n">
-        <v>-6.849315068493278</v>
+        <v>-21.73913043478321</v>
       </c>
       <c r="L476" t="n">
         <v>6.099000000000003</v>
@@ -24555,7 +24577,7 @@
         <v>20.74000000000001</v>
       </c>
       <c r="K477" t="n">
-        <v>-6.849315068493278</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L477" t="n">
         <v>6.094000000000003</v>
@@ -24606,7 +24628,7 @@
         <v>20.74000000000001</v>
       </c>
       <c r="K478" t="n">
-        <v>-14.70588235294134</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L478" t="n">
         <v>6.095000000000003</v>
@@ -24657,7 +24679,7 @@
         <v>20.82000000000001</v>
       </c>
       <c r="K479" t="n">
-        <v>-2.631578947368489</v>
+        <v>50</v>
       </c>
       <c r="L479" t="n">
         <v>6.099000000000002</v>
@@ -24708,7 +24730,7 @@
         <v>20.84000000000001</v>
       </c>
       <c r="K480" t="n">
-        <v>13.04347826086959</v>
+        <v>64.70588235294207</v>
       </c>
       <c r="L480" t="n">
         <v>6.109000000000003</v>
@@ -24759,7 +24781,7 @@
         <v>20.87000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>-8.196721311475388</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L481" t="n">
         <v>6.117000000000002</v>
@@ -24810,7 +24832,7 @@
         <v>20.88000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>13.72549019607827</v>
+        <v>66.66666666666552</v>
       </c>
       <c r="L482" t="n">
         <v>6.127000000000002</v>
@@ -24861,7 +24883,7 @@
         <v>20.99000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>-6.451612903225802</v>
+        <v>-3.703703703703582</v>
       </c>
       <c r="L483" t="n">
         <v>6.128000000000003</v>
@@ -24912,7 +24934,7 @@
         <v>21.01000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>-10.00000000000006</v>
+        <v>-3.703703703703582</v>
       </c>
       <c r="L484" t="n">
         <v>6.129000000000003</v>
@@ -24963,7 +24985,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>4.347826086956421</v>
+        <v>22.22222222222206</v>
       </c>
       <c r="L485" t="n">
         <v>6.137000000000002</v>
@@ -25014,7 +25036,7 @@
         <v>21.13000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>7.462686567164265</v>
+        <v>12.82051282051287</v>
       </c>
       <c r="L486" t="n">
         <v>6.142000000000002</v>
@@ -25065,7 +25087,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>-10.14492753623191</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L487" t="n">
         <v>6.140000000000002</v>
@@ -25116,7 +25138,7 @@
         <v>21.26000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>7.246376811594164</v>
+        <v>-9.090909090909074</v>
       </c>
       <c r="L488" t="n">
         <v>6.144000000000002</v>
@@ -25167,7 +25189,7 @@
         <v>21.32000000000001</v>
       </c>
       <c r="K489" t="n">
-        <v>-8.571428571428525</v>
+        <v>-25</v>
       </c>
       <c r="L489" t="n">
         <v>6.134000000000002</v>
@@ -25218,7 +25240,7 @@
         <v>21.38000000000001</v>
       </c>
       <c r="K490" t="n">
-        <v>5.55555555555557</v>
+        <v>-5.882352941176542</v>
       </c>
       <c r="L490" t="n">
         <v>6.128000000000002</v>
@@ -25269,7 +25291,7 @@
         <v>21.40000000000001</v>
       </c>
       <c r="K491" t="n">
-        <v>4.109589041095942</v>
+        <v>-11.53846153846155</v>
       </c>
       <c r="L491" t="n">
         <v>6.123000000000002</v>
@@ -25320,7 +25342,7 @@
         <v>21.42000000000001</v>
       </c>
       <c r="K492" t="n">
-        <v>8.108108108108073</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L492" t="n">
         <v>6.119000000000002</v>
@@ -25371,7 +25393,7 @@
         <v>21.42000000000001</v>
       </c>
       <c r="K493" t="n">
-        <v>11.11111111111114</v>
+        <v>12.19512195121957</v>
       </c>
       <c r="L493" t="n">
         <v>6.126000000000001</v>
@@ -25422,7 +25444,7 @@
         <v>21.50000000000001</v>
       </c>
       <c r="K494" t="n">
-        <v>-2.564102564102619</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L494" t="n">
         <v>6.123</v>
@@ -25473,7 +25495,7 @@
         <v>21.57000000000001</v>
       </c>
       <c r="K495" t="n">
-        <v>3.614457831325323</v>
+        <v>-4.545454545454674</v>
       </c>
       <c r="L495" t="n">
         <v>6.118</v>
@@ -25524,7 +25546,7 @@
         <v>21.65000000000001</v>
       </c>
       <c r="K496" t="n">
-        <v>-5.494505494505474</v>
+        <v>-6.666666666666784</v>
       </c>
       <c r="L496" t="n">
         <v>6.108000000000001</v>
@@ -25575,7 +25597,7 @@
         <v>21.72000000000001</v>
       </c>
       <c r="K497" t="n">
-        <v>2.040816326530658</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L497" t="n">
         <v>6.112</v>
@@ -25626,7 +25648,7 @@
         <v>21.73000000000001</v>
       </c>
       <c r="K498" t="n">
-        <v>1.01010101010108</v>
+        <v>7.317073170731829</v>
       </c>
       <c r="L498" t="n">
         <v>6.109</v>
@@ -25677,7 +25699,7 @@
         <v>21.80000000000001</v>
       </c>
       <c r="K499" t="n">
-        <v>-14.2857142857143</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L499" t="n">
         <v>6.105000000000001</v>
@@ -25728,7 +25750,7 @@
         <v>21.81000000000001</v>
       </c>
       <c r="K500" t="n">
-        <v>-17.52577319587636</v>
+        <v>-21.95121951219527</v>
       </c>
       <c r="L500" t="n">
         <v>6.094000000000001</v>
@@ -25779,7 +25801,7 @@
         <v>21.81000000000001</v>
       </c>
       <c r="K501" t="n">
-        <v>-14.89361702127665</v>
+        <v>-28.20512820512828</v>
       </c>
       <c r="L501" t="n">
         <v>6.085000000000002</v>
@@ -25830,7 +25852,7 @@
         <v>21.89000000000001</v>
       </c>
       <c r="K502" t="n">
-        <v>-6.930693069306932</v>
+        <v>-6.382978723404182</v>
       </c>
       <c r="L502" t="n">
         <v>6.082000000000003</v>
@@ -25881,7 +25903,7 @@
         <v>21.95000000000001</v>
       </c>
       <c r="K503" t="n">
-        <v>-2.083333333333395</v>
+        <v>-2.222222222222196</v>
       </c>
       <c r="L503" t="n">
         <v>6.073000000000002</v>
@@ -25932,7 +25954,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K504" t="n">
-        <v>4.854368932038846</v>
+        <v>2.127659574468061</v>
       </c>
       <c r="L504" t="n">
         <v>6.081000000000001</v>
@@ -25983,7 +26005,7 @@
         <v>22.12000000000001</v>
       </c>
       <c r="K505" t="n">
-        <v>-11.764705882353</v>
+        <v>2.127659574468045</v>
       </c>
       <c r="L505" t="n">
         <v>6.074000000000002</v>
@@ -26034,7 +26056,7 @@
         <v>22.12000000000001</v>
       </c>
       <c r="K506" t="n">
-        <v>-9.090909090909213</v>
+        <v>-15.00000000000018</v>
       </c>
       <c r="L506" t="n">
         <v>6.075000000000001</v>
@@ -26085,7 +26107,7 @@
         <v>22.13000000000001</v>
       </c>
       <c r="K507" t="n">
-        <v>-1.075268817204283</v>
+        <v>-9.999999999999956</v>
       </c>
       <c r="L507" t="n">
         <v>6.070000000000002</v>
@@ -26136,7 +26158,7 @@
         <v>22.16000000000001</v>
       </c>
       <c r="K508" t="n">
-        <v>-4.444444444444473</v>
+        <v>16.66666666666659</v>
       </c>
       <c r="L508" t="n">
         <v>6.069000000000003</v>
@@ -26187,7 +26209,7 @@
         <v>22.19000000000001</v>
       </c>
       <c r="K509" t="n">
-        <v>-1.149425287356301</v>
+        <v>10.52631578947362</v>
       </c>
       <c r="L509" t="n">
         <v>6.072000000000002</v>
@@ -26238,7 +26260,7 @@
         <v>22.19000000000001</v>
       </c>
       <c r="K510" t="n">
-        <v>-8.641975308641914</v>
+        <v>10.52631578947362</v>
       </c>
       <c r="L510" t="n">
         <v>6.076000000000002</v>
@@ -26289,7 +26311,7 @@
         <v>22.23000000000001</v>
       </c>
       <c r="K511" t="n">
-        <v>-10.84337349397591</v>
+        <v>-23.52941176470567</v>
       </c>
       <c r="L511" t="n">
         <v>6.076000000000002</v>
@@ -26340,7 +26362,7 @@
         <v>22.23000000000001</v>
       </c>
       <c r="K512" t="n">
-        <v>-13.5802469135802</v>
+        <v>-7.142857142856962</v>
       </c>
       <c r="L512" t="n">
         <v>6.068000000000002</v>
@@ -26391,7 +26413,7 @@
         <v>22.26000000000001</v>
       </c>
       <c r="K513" t="n">
-        <v>-9.523809523809534</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="L513" t="n">
         <v>6.069000000000003</v>
@@ -26442,7 +26464,7 @@
         <v>22.31000000000001</v>
       </c>
       <c r="K514" t="n">
-        <v>-6.172839506172827</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L514" t="n">
         <v>6.056000000000003</v>
@@ -26493,7 +26515,7 @@
         <v>22.34000000000001</v>
       </c>
       <c r="K515" t="n">
-        <v>-11.68831168831168</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L515" t="n">
         <v>6.054000000000004</v>
@@ -26544,7 +26566,7 @@
         <v>22.44000000000001</v>
       </c>
       <c r="K516" t="n">
-        <v>-13.92405063291134</v>
+        <v>-41.93548387096789</v>
       </c>
       <c r="L516" t="n">
         <v>6.042000000000003</v>
@@ -26595,7 +26617,7 @@
         <v>22.50000000000001</v>
       </c>
       <c r="K517" t="n">
-        <v>-15.38461538461545</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L517" t="n">
         <v>6.035000000000003</v>
@@ -26646,7 +26668,7 @@
         <v>22.56000000000001</v>
       </c>
       <c r="K518" t="n">
-        <v>-6.024096385542267</v>
+        <v>-2.702702702702904</v>
       </c>
       <c r="L518" t="n">
         <v>6.031000000000002</v>
@@ -26697,7 +26719,7 @@
         <v>22.56000000000001</v>
       </c>
       <c r="K519" t="n">
-        <v>2.631578947368372</v>
+        <v>-2.702702702702904</v>
       </c>
       <c r="L519" t="n">
         <v>6.030000000000002</v>
@@ -26748,7 +26770,7 @@
         <v>22.58000000000001</v>
       </c>
       <c r="K520" t="n">
-        <v>1.298701298701272</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L520" t="n">
         <v>6.027000000000002</v>
@@ -26799,7 +26821,7 @@
         <v>22.58000000000001</v>
       </c>
       <c r="K521" t="n">
-        <v>1.298701298701272</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L521" t="n">
         <v>6.028000000000001</v>
@@ -26850,7 +26872,7 @@
         <v>22.59000000000001</v>
       </c>
       <c r="K522" t="n">
-        <v>-11.42857142857139</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L522" t="n">
         <v>6.028000000000001</v>
@@ -26901,7 +26923,7 @@
         <v>22.59000000000001</v>
       </c>
       <c r="K523" t="n">
-        <v>-3.124999999999931</v>
+        <v>7.14285714285737</v>
       </c>
       <c r="L523" t="n">
         <v>6.025000000000001</v>
@@ -26952,7 +26974,7 @@
         <v>22.67000000000001</v>
       </c>
       <c r="K524" t="n">
-        <v>-30.15873015873013</v>
+        <v>-27.27272727272766</v>
       </c>
       <c r="L524" t="n">
         <v>6.019000000000002</v>
@@ -27003,7 +27025,7 @@
         <v>22.68000000000001</v>
       </c>
       <c r="K525" t="n">
-        <v>-17.85714285714295</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L525" t="n">
         <v>6.011000000000002</v>
@@ -27054,7 +27076,7 @@
         <v>22.72000000000001</v>
       </c>
       <c r="K526" t="n">
-        <v>-10.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>6.017000000000001</v>
@@ -27105,7 +27127,7 @@
         <v>22.74000000000001</v>
       </c>
       <c r="K527" t="n">
-        <v>-14.7540983606559</v>
+        <v>-44.44444444444493</v>
       </c>
       <c r="L527" t="n">
         <v>6.015000000000002</v>
@@ -27156,7 +27178,7 @@
         <v>22.78</v>
       </c>
       <c r="K528" t="n">
-        <v>-25.80645161290336</v>
+        <v>-54.54545454545535</v>
       </c>
       <c r="L528" t="n">
         <v>6.003000000000002</v>
@@ -27207,7 +27229,7 @@
         <v>22.83000000000001</v>
       </c>
       <c r="K529" t="n">
-        <v>-28.12500000000038</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L529" t="n">
         <v>5.986000000000002</v>
@@ -27258,7 +27280,7 @@
         <v>22.95000000000001</v>
       </c>
       <c r="K530" t="n">
-        <v>-7.894736842105386</v>
+        <v>-8.108108108108231</v>
       </c>
       <c r="L530" t="n">
         <v>5.983000000000002</v>
@@ -27309,7 +27331,7 @@
         <v>23.01000000000001</v>
       </c>
       <c r="K531" t="n">
-        <v>-10.25641025641034</v>
+        <v>-19.04761904761931</v>
       </c>
       <c r="L531" t="n">
         <v>5.974000000000002</v>
@@ -27360,7 +27382,7 @@
         <v>23.01000000000001</v>
       </c>
       <c r="K532" t="n">
-        <v>-10.25641025641034</v>
+        <v>-19.04761904761931</v>
       </c>
       <c r="L532" t="n">
         <v>5.966000000000001</v>
@@ -27411,7 +27433,7 @@
         <v>23.04000000000001</v>
       </c>
       <c r="K533" t="n">
-        <v>-10.25641025641023</v>
+        <v>8.108108108108231</v>
       </c>
       <c r="L533" t="n">
         <v>5.961000000000001</v>
@@ -27462,7 +27484,7 @@
         <v>23.12</v>
       </c>
       <c r="K534" t="n">
-        <v>-13.58024691358032</v>
+        <v>-13.63636363636362</v>
       </c>
       <c r="L534" t="n">
         <v>5.956000000000001</v>
@@ -27513,7 +27535,7 @@
         <v>23.17000000000001</v>
       </c>
       <c r="K535" t="n">
-        <v>-10.843373493976</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L535" t="n">
         <v>5.955000000000002</v>
@@ -27564,7 +27586,7 @@
         <v>23.24000000000001</v>
       </c>
       <c r="K536" t="n">
-        <v>-7.500000000000122</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L536" t="n">
         <v>5.943000000000002</v>
@@ -27615,7 +27637,7 @@
         <v>23.25000000000001</v>
       </c>
       <c r="K537" t="n">
-        <v>-17.3333333333334</v>
+        <v>-14.89361702127658</v>
       </c>
       <c r="L537" t="n">
         <v>5.932000000000002</v>
@@ -27666,7 +27688,7 @@
         <v>23.25000000000001</v>
       </c>
       <c r="K538" t="n">
-        <v>-27.53623188405799</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L538" t="n">
         <v>5.925000000000002</v>
@@ -27717,7 +27739,7 @@
         <v>23.26000000000001</v>
       </c>
       <c r="K539" t="n">
-        <v>-28.57142857142864</v>
+        <v>-48.38709677419358</v>
       </c>
       <c r="L539" t="n">
         <v>5.922000000000002</v>
@@ -27768,7 +27790,7 @@
         <v>23.32</v>
       </c>
       <c r="K540" t="n">
-        <v>-16.21621621621634</v>
+        <v>-9.677419354838831</v>
       </c>
       <c r="L540" t="n">
         <v>5.913000000000003</v>
@@ -27819,7 +27841,7 @@
         <v>23.36</v>
       </c>
       <c r="K541" t="n">
-        <v>-20.51282051282069</v>
+        <v>-20.0000000000002</v>
       </c>
       <c r="L541" t="n">
         <v>5.906000000000003</v>
@@ -27870,7 +27892,7 @@
         <v>23.39</v>
       </c>
       <c r="K542" t="n">
-        <v>-15.00000000000013</v>
+        <v>-20.0000000000002</v>
       </c>
       <c r="L542" t="n">
         <v>5.902000000000003</v>
@@ -27921,7 +27943,7 @@
         <v>23.44</v>
       </c>
       <c r="K543" t="n">
-        <v>-20.00000000000012</v>
+        <v>-12.5</v>
       </c>
       <c r="L543" t="n">
         <v>5.890000000000002</v>
@@ -27972,7 +27994,7 @@
         <v>23.5</v>
       </c>
       <c r="K544" t="n">
-        <v>-3.614457831325354</v>
+        <v>-9.090909090909213</v>
       </c>
       <c r="L544" t="n">
         <v>5.892000000000002</v>
@@ -28023,7 +28045,7 @@
         <v>23.56</v>
       </c>
       <c r="K545" t="n">
-        <v>-11.36363636363638</v>
+        <v>-6.249999999999931</v>
       </c>
       <c r="L545" t="n">
         <v>5.883000000000003</v>
@@ -28074,7 +28096,7 @@
         <v>23.63</v>
       </c>
       <c r="K546" t="n">
-        <v>-7.692307692307752</v>
+        <v>15.78947368421061</v>
       </c>
       <c r="L546" t="n">
         <v>5.888000000000002</v>
@@ -28125,7 +28147,7 @@
         <v>23.71</v>
       </c>
       <c r="K547" t="n">
-        <v>-13.40206185567025</v>
+        <v>-4.347826086956681</v>
       </c>
       <c r="L547" t="n">
         <v>5.886000000000002</v>
@@ -28176,7 +28198,7 @@
         <v>23.73</v>
       </c>
       <c r="K548" t="n">
-        <v>-7.368421052631642</v>
+        <v>2.127659574468061</v>
       </c>
       <c r="L548" t="n">
         <v>5.886000000000002</v>
@@ -28227,7 +28249,7 @@
         <v>23.73</v>
       </c>
       <c r="K549" t="n">
-        <v>-2.222222222222187</v>
+        <v>-12.19512195121957</v>
       </c>
       <c r="L549" t="n">
         <v>5.887000000000002</v>
@@ -28278,7 +28300,7 @@
         <v>23.73</v>
       </c>
       <c r="K550" t="n">
-        <v>-17.94871794871804</v>
+        <v>-2.702702702702664</v>
       </c>
       <c r="L550" t="n">
         <v>5.882000000000002</v>
@@ -28329,7 +28351,7 @@
         <v>23.77</v>
       </c>
       <c r="K551" t="n">
-        <v>-15.78947368421066</v>
+        <v>-21.05263157894764</v>
       </c>
       <c r="L551" t="n">
         <v>5.877000000000002</v>
@@ -28380,7 +28402,7 @@
         <v>23.77</v>
       </c>
       <c r="K552" t="n">
-        <v>-15.78947368421066</v>
+        <v>-9.09090909090931</v>
       </c>
       <c r="L552" t="n">
         <v>5.869000000000002</v>
@@ -28431,7 +28453,7 @@
         <v>23.78</v>
       </c>
       <c r="K553" t="n">
-        <v>-21.62162162162179</v>
+        <v>-35.7142857142859</v>
       </c>
       <c r="L553" t="n">
         <v>5.865000000000002</v>
@@ -28482,7 +28504,7 @@
         <v>23.81</v>
       </c>
       <c r="K554" t="n">
-        <v>-7.246376811594329</v>
+        <v>-4.00000000000027</v>
       </c>
       <c r="L554" t="n">
         <v>5.858000000000001</v>
@@ -28533,7 +28555,7 @@
         <v>23.83</v>
       </c>
       <c r="K555" t="n">
-        <v>-12.1212121212122</v>
+        <v>-29.99999999999991</v>
       </c>
       <c r="L555" t="n">
         <v>5.859000000000002</v>
@@ -28584,7 +28606,7 @@
         <v>23.86</v>
       </c>
       <c r="K556" t="n">
-        <v>-6.451612903225838</v>
+        <v>-6.666666666666429</v>
       </c>
       <c r="L556" t="n">
         <v>5.850000000000002</v>
@@ -28686,7 +28708,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K558" t="n">
-        <v>-1.538461538461509</v>
+        <v>-5.882352941176163</v>
       </c>
       <c r="L558" t="n">
         <v>5.851000000000003</v>
@@ -28737,7 +28759,7 @@
         <v>23.91</v>
       </c>
       <c r="K559" t="n">
-        <v>1.538461538461509</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>5.851000000000003</v>
@@ -28788,7 +28810,7 @@
         <v>23.91</v>
       </c>
       <c r="K560" t="n">
-        <v>-8.474576271186413</v>
+        <v>28.57142857142775</v>
       </c>
       <c r="L560" t="n">
         <v>5.851000000000003</v>
@@ -28839,7 +28861,7 @@
         <v>23.91</v>
       </c>
       <c r="K561" t="n">
-        <v>-1.818181818181777</v>
+        <v>28.57142857142775</v>
       </c>
       <c r="L561" t="n">
         <v>5.855000000000002</v>
@@ -28890,7 +28912,7 @@
         <v>23.94</v>
       </c>
       <c r="K562" t="n">
-        <v>-1.818181818181777</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L562" t="n">
         <v>5.862000000000004</v>
@@ -28941,7 +28963,7 @@
         <v>23.95</v>
       </c>
       <c r="K563" t="n">
-        <v>9.803921568627455</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L563" t="n">
         <v>5.871000000000003</v>
@@ -28992,7 +29014,7 @@
         <v>24.08</v>
       </c>
       <c r="K564" t="n">
-        <v>-24.13793103448277</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L564" t="n">
         <v>5.864000000000003</v>
@@ -29043,7 +29065,7 @@
         <v>24.21</v>
       </c>
       <c r="K565" t="n">
-        <v>7.692307692307682</v>
+        <v>20.0000000000002</v>
       </c>
       <c r="L565" t="n">
         <v>5.868000000000003</v>
@@ -29094,7 +29116,7 @@
         <v>24.21</v>
       </c>
       <c r="K566" t="n">
-        <v>-3.448275862068902</v>
+        <v>12.50000000000014</v>
       </c>
       <c r="L566" t="n">
         <v>5.875000000000003</v>
@@ -29145,7 +29167,7 @@
         <v>24.21</v>
       </c>
       <c r="K567" t="n">
-        <v>12.0000000000001</v>
+        <v>16.12903225806471</v>
       </c>
       <c r="L567" t="n">
         <v>5.879000000000003</v>
@@ -29196,7 +29218,7 @@
         <v>24.22</v>
       </c>
       <c r="K568" t="n">
-        <v>6.122448979591907</v>
+        <v>9.677419354838941</v>
       </c>
       <c r="L568" t="n">
         <v>5.883000000000003</v>
@@ -29247,7 +29269,7 @@
         <v>24.22</v>
       </c>
       <c r="K569" t="n">
-        <v>6.122448979591907</v>
+        <v>9.677419354838941</v>
       </c>
       <c r="L569" t="n">
         <v>5.886000000000004</v>
@@ -29298,7 +29320,7 @@
         <v>24.22</v>
       </c>
       <c r="K570" t="n">
-        <v>6.122448979591907</v>
+        <v>9.677419354838941</v>
       </c>
       <c r="L570" t="n">
         <v>5.889000000000004</v>
@@ -29349,7 +29371,7 @@
         <v>24.22</v>
       </c>
       <c r="K571" t="n">
-        <v>15.55555555555564</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>5.892000000000004</v>
@@ -29400,7 +29422,7 @@
         <v>24.27</v>
       </c>
       <c r="K572" t="n">
-        <v>3.999999999999915</v>
+        <v>-18.75000000000035</v>
       </c>
       <c r="L572" t="n">
         <v>5.887000000000004</v>
@@ -29451,7 +29473,7 @@
         <v>24.27</v>
       </c>
       <c r="K573" t="n">
-        <v>6.122448979591725</v>
+        <v>36.84210526315802</v>
       </c>
       <c r="L573" t="n">
         <v>5.881000000000005</v>
@@ -29502,7 +29524,7 @@
         <v>24.28</v>
       </c>
       <c r="K574" t="n">
-        <v>-2.127659574468045</v>
+        <v>-100</v>
       </c>
       <c r="L574" t="n">
         <v>5.887000000000005</v>
@@ -29553,7 +29575,7 @@
         <v>24.29</v>
       </c>
       <c r="K575" t="n">
-        <v>-4.347826086956648</v>
+        <v>-75.00000000000222</v>
       </c>
       <c r="L575" t="n">
         <v>5.881000000000005</v>
@@ -29604,7 +29626,7 @@
         <v>24.29</v>
       </c>
       <c r="K576" t="n">
-        <v>2.325581395348808</v>
+        <v>-75.00000000000222</v>
       </c>
       <c r="L576" t="n">
         <v>5.875000000000004</v>
@@ -29655,7 +29677,7 @@
         <v>24.3</v>
       </c>
       <c r="K577" t="n">
-        <v>-7.317073170731893</v>
+        <v>-75.00000000000222</v>
       </c>
       <c r="L577" t="n">
         <v>5.868000000000005</v>
@@ -29706,7 +29728,7 @@
         <v>24.39</v>
       </c>
       <c r="K578" t="n">
-        <v>-22.4489795918372</v>
+        <v>-88.23529411764822</v>
       </c>
       <c r="L578" t="n">
         <v>5.853000000000005</v>
@@ -29757,7 +29779,7 @@
         <v>24.44</v>
       </c>
       <c r="K579" t="n">
-        <v>-13.20754716981152</v>
+        <v>-45.45454545454593</v>
       </c>
       <c r="L579" t="n">
         <v>5.843000000000005</v>
@@ -29808,7 +29830,7 @@
         <v>24.57</v>
       </c>
       <c r="K580" t="n">
-        <v>9.090909090909127</v>
+        <v>8.571428571428442</v>
       </c>
       <c r="L580" t="n">
         <v>5.846000000000005</v>
@@ -29859,7 +29881,7 @@
         <v>24.64</v>
       </c>
       <c r="K581" t="n">
-        <v>17.80821917808234</v>
+        <v>40.54054054054092</v>
       </c>
       <c r="L581" t="n">
         <v>5.856000000000007</v>
@@ -29910,7 +29932,7 @@
         <v>24.7</v>
       </c>
       <c r="K582" t="n">
-        <v>21.05263157894752</v>
+        <v>48.83720930232601</v>
       </c>
       <c r="L582" t="n">
         <v>5.877000000000006</v>
@@ -29961,7 +29983,7 @@
         <v>24.71</v>
       </c>
       <c r="K583" t="n">
-        <v>21.05263157894754</v>
+        <v>53.48837209302383</v>
       </c>
       <c r="L583" t="n">
         <v>5.899000000000006</v>
@@ -30012,7 +30034,7 @@
         <v>24.72</v>
       </c>
       <c r="K584" t="n">
-        <v>43.75000000000011</v>
+        <v>48.8372093023256</v>
       </c>
       <c r="L584" t="n">
         <v>5.921000000000005</v>
@@ -30063,7 +30085,7 @@
         <v>24.73</v>
       </c>
       <c r="K585" t="n">
-        <v>30.76923076923082</v>
+        <v>50</v>
       </c>
       <c r="L585" t="n">
         <v>5.943000000000006</v>
@@ -30114,7 +30136,7 @@
         <v>24.73</v>
       </c>
       <c r="K586" t="n">
-        <v>30.76923076923082</v>
+        <v>53.48837209302295</v>
       </c>
       <c r="L586" t="n">
         <v>5.965000000000005</v>
@@ -30165,7 +30187,7 @@
         <v>24.76</v>
       </c>
       <c r="K587" t="n">
-        <v>23.63636363636359</v>
+        <v>78.37837837837742</v>
       </c>
       <c r="L587" t="n">
         <v>5.985000000000005</v>
@@ -30216,7 +30238,7 @@
         <v>24.8</v>
       </c>
       <c r="K588" t="n">
-        <v>17.24137931034471</v>
+        <v>55.55555555555515</v>
       </c>
       <c r="L588" t="n">
         <v>6.010000000000005</v>
@@ -30267,7 +30289,7 @@
         <v>24.83</v>
       </c>
       <c r="K589" t="n">
-        <v>11.47540983606542</v>
+        <v>15.3846153846151</v>
       </c>
       <c r="L589" t="n">
         <v>6.027000000000005</v>
@@ -30318,7 +30340,7 @@
         <v>24.84</v>
       </c>
       <c r="K590" t="n">
-        <v>9.677419354838577</v>
+        <v>-19.99999999999938</v>
       </c>
       <c r="L590" t="n">
         <v>6.030000000000005</v>
@@ -30369,7 +30391,7 @@
         <v>24.9</v>
       </c>
       <c r="K591" t="n">
-        <v>17.64705882352921</v>
+        <v>-19.99999999999938</v>
       </c>
       <c r="L591" t="n">
         <v>6.032000000000005</v>
@@ -30420,7 +30442,7 @@
         <v>24.92</v>
       </c>
       <c r="K592" t="n">
-        <v>23.07692307692306</v>
+        <v>-33.33333333333277</v>
       </c>
       <c r="L592" t="n">
         <v>6.026000000000005</v>
@@ -30471,7 +30493,7 @@
         <v>24.93</v>
       </c>
       <c r="K593" t="n">
-        <v>21.21212121212129</v>
+        <v>-33.33333333333291</v>
       </c>
       <c r="L593" t="n">
         <v>6.018000000000004</v>
@@ -30522,7 +30544,7 @@
         <v>24.95</v>
       </c>
       <c r="K594" t="n">
-        <v>19.4029850746269</v>
+        <v>-45.45454545454593</v>
       </c>
       <c r="L594" t="n">
         <v>6.009000000000005</v>
@@ -30573,7 +30595,7 @@
         <v>24.96</v>
       </c>
       <c r="K595" t="n">
-        <v>16.4179104477612</v>
+        <v>-47.82608695652179</v>
       </c>
       <c r="L595" t="n">
         <v>5.998000000000004</v>
@@ -30624,7 +30646,7 @@
         <v>24.96</v>
       </c>
       <c r="K596" t="n">
-        <v>16.4179104477612</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L596" t="n">
         <v>5.987000000000004</v>
@@ -30675,7 +30697,7 @@
         <v>24.98</v>
       </c>
       <c r="K597" t="n">
-        <v>20.58823529411763</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L597" t="n">
         <v>5.981000000000003</v>
@@ -30726,7 +30748,7 @@
         <v>25</v>
       </c>
       <c r="K598" t="n">
-        <v>40.98360655737685</v>
+        <v>17.64705882352975</v>
       </c>
       <c r="L598" t="n">
         <v>5.981000000000003</v>
@@ -30777,7 +30799,7 @@
         <v>25.05</v>
       </c>
       <c r="K599" t="n">
-        <v>40.98360655737685</v>
+        <v>42.85714285714334</v>
       </c>
       <c r="L599" t="n">
         <v>5.989000000000003</v>
@@ -30828,7 +30850,7 @@
         <v>25.07</v>
       </c>
       <c r="K600" t="n">
-        <v>27.99999999999991</v>
+        <v>29.41176470588309</v>
       </c>
       <c r="L600" t="n">
         <v>6.000000000000004</v>
@@ -30879,7 +30901,7 @@
         <v>25.07</v>
       </c>
       <c r="K601" t="n">
-        <v>16.2790697674418</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L601" t="n">
         <v>6.005000000000004</v>
@@ -30930,7 +30952,7 @@
         <v>25.14</v>
       </c>
       <c r="K602" t="n">
-        <v>18.181818181818</v>
+        <v>71.42857142857089</v>
       </c>
       <c r="L602" t="n">
         <v>6.019000000000004</v>
@@ -30981,7 +31003,7 @@
         <v>25.17</v>
       </c>
       <c r="K603" t="n">
-        <v>21.73913043478232</v>
+        <v>90.90909090909</v>
       </c>
       <c r="L603" t="n">
         <v>6.037000000000004</v>
@@ -31032,7 +31054,7 @@
         <v>25.2</v>
       </c>
       <c r="K604" t="n">
-        <v>29.16666666666654</v>
+        <v>99.99999999999926</v>
       </c>
       <c r="L604" t="n">
         <v>6.060000000000004</v>
@@ -31083,7 +31105,7 @@
         <v>25.23</v>
       </c>
       <c r="K605" t="n">
-        <v>19.99999999999979</v>
+        <v>77.77777777777686</v>
       </c>
       <c r="L605" t="n">
         <v>6.081000000000004</v>
@@ -31134,7 +31156,7 @@
         <v>25.26000000000001</v>
       </c>
       <c r="K606" t="n">
-        <v>24.52830188679222</v>
+        <v>78.57142857142718</v>
       </c>
       <c r="L606" t="n">
         <v>6.105000000000003</v>
@@ -31185,7 +31207,7 @@
         <v>25.35</v>
       </c>
       <c r="K607" t="n">
-        <v>42.37288135593196</v>
+        <v>82.85714285714168</v>
       </c>
       <c r="L607" t="n">
         <v>6.136000000000003</v>
@@ -31236,7 +31258,7 @@
         <v>25.35</v>
       </c>
       <c r="K608" t="n">
-        <v>52.72727272727232</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L608" t="n">
         <v>6.165000000000004</v>
@@ -31287,7 +31309,7 @@
         <v>25.43000000000001</v>
       </c>
       <c r="K609" t="n">
-        <v>39.9999999999997</v>
+        <v>38.8888888888881</v>
       </c>
       <c r="L609" t="n">
         <v>6.181000000000003</v>
@@ -31338,7 +31360,7 @@
         <v>25.48000000000001</v>
       </c>
       <c r="K610" t="n">
-        <v>46.87499999999967</v>
+        <v>46.3414634146332</v>
       </c>
       <c r="L610" t="n">
         <v>6.200000000000004</v>
@@ -31389,7 +31411,7 @@
         <v>25.54000000000001</v>
       </c>
       <c r="K611" t="n">
-        <v>28.12499999999991</v>
+        <v>14.99999999999991</v>
       </c>
       <c r="L611" t="n">
         <v>6.213000000000003</v>
@@ -31440,7 +31462,7 @@
         <v>25.64000000000001</v>
       </c>
       <c r="K612" t="n">
-        <v>13.88888888888873</v>
+        <v>-14.89361702127647</v>
       </c>
       <c r="L612" t="n">
         <v>6.209000000000003</v>
@@ -31491,7 +31513,7 @@
         <v>25.67000000000001</v>
       </c>
       <c r="K613" t="n">
-        <v>18.91891891891864</v>
+        <v>-14.89361702127647</v>
       </c>
       <c r="L613" t="n">
         <v>6.205000000000003</v>
@@ -31542,7 +31564,7 @@
         <v>25.82000000000001</v>
       </c>
       <c r="K614" t="n">
-        <v>1.149425287356389</v>
+        <v>-32.20338983050821</v>
       </c>
       <c r="L614" t="n">
         <v>6.183000000000002</v>
@@ -31593,7 +31615,7 @@
         <v>26.10000000000001</v>
       </c>
       <c r="K615" t="n">
-        <v>26.31578947368402</v>
+        <v>7.142857142857068</v>
       </c>
       <c r="L615" t="n">
         <v>6.192000000000003</v>
@@ -31644,7 +31666,7 @@
         <v>26.11000000000001</v>
       </c>
       <c r="K616" t="n">
-        <v>25.2173913043477</v>
+        <v>-5.263157894736836</v>
       </c>
       <c r="L616" t="n">
         <v>6.197000000000003</v>
@@ -31695,7 +31717,7 @@
         <v>26.13000000000001</v>
       </c>
       <c r="K617" t="n">
-        <v>21.7391304347825</v>
+        <v>-7.692307692307631</v>
       </c>
       <c r="L617" t="n">
         <v>6.191000000000003</v>
@@ -31746,7 +31768,7 @@
         <v>26.21000000000001</v>
       </c>
       <c r="K618" t="n">
-        <v>12.39669421487598</v>
+        <v>-7.692307692307631</v>
       </c>
       <c r="L618" t="n">
         <v>6.177000000000003</v>
@@ -31797,7 +31819,7 @@
         <v>26.24000000000001</v>
       </c>
       <c r="K619" t="n">
-        <v>10.92436974789907</v>
+        <v>-10.52631578947367</v>
       </c>
       <c r="L619" t="n">
         <v>6.174000000000003</v>
@@ -31848,7 +31870,7 @@
         <v>26.24000000000001</v>
       </c>
       <c r="K620" t="n">
-        <v>9.401709401709283</v>
+        <v>-2.857142857142911</v>
       </c>
       <c r="L620" t="n">
         <v>6.166000000000003</v>
@@ -31899,7 +31921,7 @@
         <v>26.30000000000001</v>
       </c>
       <c r="K621" t="n">
-        <v>13.82113821138198</v>
+        <v>21.21212121212118</v>
       </c>
       <c r="L621" t="n">
         <v>6.170000000000003</v>
@@ -31950,7 +31972,7 @@
         <v>26.32000000000001</v>
       </c>
       <c r="K622" t="n">
-        <v>6.779661016949098</v>
+        <v>13.84615384615378</v>
       </c>
       <c r="L622" t="n">
         <v>6.182000000000003</v>
@@ -32001,7 +32023,7 @@
         <v>26.33000000000001</v>
       </c>
       <c r="K623" t="n">
-        <v>5.172413793103443</v>
+        <v>49.01960784313676</v>
       </c>
       <c r="L623" t="n">
         <v>6.192000000000002</v>
@@ -32052,7 +32074,7 @@
         <v>26.36000000000001</v>
       </c>
       <c r="K624" t="n">
-        <v>5.172413793103367</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>6.220000000000002</v>
@@ -32103,7 +32125,7 @@
         <v>26.39000000000001</v>
       </c>
       <c r="K625" t="n">
-        <v>10.34482758620681</v>
+        <v>14.28571428571388</v>
       </c>
       <c r="L625" t="n">
         <v>6.223000000000003</v>
@@ -32154,7 +32176,7 @@
         <v>26.54000000000001</v>
       </c>
       <c r="K626" t="n">
-        <v>-4.687500000000008</v>
+        <v>-21.95121951219492</v>
       </c>
       <c r="L626" t="n">
         <v>6.212000000000002</v>
@@ -32205,7 +32227,7 @@
         <v>26.55000000000001</v>
       </c>
       <c r="K627" t="n">
-        <v>-13.33333333333328</v>
+        <v>-5.882352941176547</v>
       </c>
       <c r="L627" t="n">
         <v>6.202000000000001</v>
@@ -32256,7 +32278,7 @@
         <v>26.58000000000001</v>
       </c>
       <c r="K628" t="n">
-        <v>-15.44715447154465</v>
+        <v>-23.52941176470567</v>
       </c>
       <c r="L628" t="n">
         <v>6.197000000000001</v>
@@ -32307,7 +32329,7 @@
         <v>26.64000000000001</v>
       </c>
       <c r="K629" t="n">
-        <v>-14.04958677685945</v>
+        <v>-34.99999999999973</v>
       </c>
       <c r="L629" t="n">
         <v>6.183000000000001</v>
@@ -32358,7 +32380,7 @@
         <v>26.67000000000001</v>
       </c>
       <c r="K630" t="n">
-        <v>-15.96638655462174</v>
+        <v>-45.9459459459458</v>
       </c>
       <c r="L630" t="n">
         <v>6.172000000000001</v>
@@ -32409,7 +32431,7 @@
         <v>26.69000000000001</v>
       </c>
       <c r="K631" t="n">
-        <v>-13.04347826086953</v>
+        <v>-45.9459459459458</v>
       </c>
       <c r="L631" t="n">
         <v>6.153</v>
@@ -32460,7 +32482,7 @@
         <v>26.74000000000001</v>
       </c>
       <c r="K632" t="n">
-        <v>0</v>
+        <v>-31.70731707317091</v>
       </c>
       <c r="L632" t="n">
         <v>6.141000000000001</v>
@@ -32511,7 +32533,7 @@
         <v>26.79000000000001</v>
       </c>
       <c r="K633" t="n">
-        <v>-7.14285714285712</v>
+        <v>-48.8372093023256</v>
       </c>
       <c r="L633" t="n">
         <v>6.123</v>
@@ -32562,7 +32584,7 @@
         <v>26.80000000000001</v>
       </c>
       <c r="K634" t="n">
-        <v>8.163265306122334</v>
+        <v>-56.09756097561033</v>
       </c>
       <c r="L634" t="n">
         <v>6.103000000000001</v>
@@ -32613,7 +32635,7 @@
         <v>26.87000000000001</v>
       </c>
       <c r="K635" t="n">
-        <v>-16.8831168831168</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="L635" t="n">
         <v>6.087000000000002</v>
@@ -32664,7 +32686,7 @@
         <v>26.87000000000001</v>
       </c>
       <c r="K636" t="n">
-        <v>-15.78947368421043</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>6.086000000000001</v>
@@ -32715,7 +32737,7 @@
         <v>26.88000000000001</v>
       </c>
       <c r="K637" t="n">
-        <v>-12.00000000000004</v>
+        <v>13.33333333333347</v>
       </c>
       <c r="L637" t="n">
         <v>6.087000000000002</v>
@@ -32766,7 +32788,7 @@
         <v>26.88000000000001</v>
       </c>
       <c r="K638" t="n">
-        <v>-1.492537313432933</v>
+        <v>41.66666666666679</v>
       </c>
       <c r="L638" t="n">
         <v>6.091</v>
@@ -32817,7 +32839,7 @@
         <v>26.92000000000001</v>
       </c>
       <c r="K639" t="n">
-        <v>-11.76470588235296</v>
+        <v>11.99999999999991</v>
       </c>
       <c r="L639" t="n">
         <v>6.097</v>
@@ -32868,7 +32890,7 @@
         <v>26.93000000000001</v>
       </c>
       <c r="K640" t="n">
-        <v>-13.04347826086959</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L640" t="n">
         <v>6.099</v>
@@ -32919,7 +32941,7 @@
         <v>26.94</v>
       </c>
       <c r="K641" t="n">
-        <v>-21.87500000000031</v>
+        <v>0</v>
       </c>
       <c r="L641" t="n">
         <v>6.104000000000001</v>
@@ -32970,7 +32992,7 @@
         <v>26.95</v>
       </c>
       <c r="K642" t="n">
-        <v>-20.63492063492088</v>
+        <v>25.00000000000167</v>
       </c>
       <c r="L642" t="n">
         <v>6.103000000000001</v>
@@ -33021,7 +33043,7 @@
         <v>26.95</v>
       </c>
       <c r="K643" t="n">
-        <v>-22.58064516129076</v>
+        <v>20.0000000000013</v>
       </c>
       <c r="L643" t="n">
         <v>6.107000000000001</v>
@@ -33072,7 +33094,7 @@
         <v>26.96</v>
       </c>
       <c r="K644" t="n">
-        <v>-30.00000000000059</v>
+        <v>-55.55555555556202</v>
       </c>
       <c r="L644" t="n">
         <v>6.109</v>
@@ -33123,7 +33145,7 @@
         <v>26.99</v>
       </c>
       <c r="K645" t="n">
-        <v>-30.00000000000059</v>
+        <v>-16.66666666666766</v>
       </c>
       <c r="L645" t="n">
         <v>6.107</v>
@@ -33174,7 +33196,7 @@
         <v>27.06</v>
       </c>
       <c r="K646" t="n">
-        <v>-19.23076923076957</v>
+        <v>-55.55555555555763</v>
       </c>
       <c r="L646" t="n">
         <v>6.098</v>
@@ -33225,7 +33247,7 @@
         <v>27.06</v>
       </c>
       <c r="K647" t="n">
-        <v>-17.6470588235297</v>
+        <v>-55.55555555555763</v>
       </c>
       <c r="L647" t="n">
         <v>6.087999999999999</v>
@@ -33276,7 +33298,7 @@
         <v>27.12</v>
       </c>
       <c r="K648" t="n">
-        <v>-22.22222222222255</v>
+        <v>-60.00000000000195</v>
       </c>
       <c r="L648" t="n">
         <v>6.072</v>
@@ -33327,7 +33349,7 @@
         <v>27.21</v>
       </c>
       <c r="K649" t="n">
-        <v>5.263157894736981</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L649" t="n">
         <v>6.068999999999999</v>
@@ -33378,7 +33400,7 @@
         <v>27.3</v>
       </c>
       <c r="K650" t="n">
-        <v>-14.28571428571453</v>
+        <v>-33.3333333333335</v>
       </c>
       <c r="L650" t="n">
         <v>6.057999999999998</v>
@@ -33429,7 +33451,7 @@
         <v>27.31</v>
       </c>
       <c r="K651" t="n">
-        <v>-12.90322580645183</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L651" t="n">
         <v>6.044999999999998</v>
@@ -33480,7 +33502,7 @@
         <v>27.32</v>
       </c>
       <c r="K652" t="n">
-        <v>-24.13793103448322</v>
+        <v>-35.13513513513535</v>
       </c>
       <c r="L652" t="n">
         <v>6.031999999999998</v>
@@ -33531,7 +33553,7 @@
         <v>27.33</v>
       </c>
       <c r="K653" t="n">
-        <v>-14.81481481481524</v>
+        <v>-29.72972972973002</v>
       </c>
       <c r="L653" t="n">
         <v>6.019999999999998</v>
@@ -33582,7 +33604,7 @@
         <v>27.33</v>
       </c>
       <c r="K654" t="n">
-        <v>-16.98113207547209</v>
+        <v>-41.17647058823591</v>
       </c>
       <c r="L654" t="n">
         <v>6.008999999999998</v>
@@ -33633,7 +33655,7 @@
         <v>27.39</v>
       </c>
       <c r="K655" t="n">
-        <v>-19.23076923076957</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="L655" t="n">
         <v>6.000999999999998</v>
@@ -33684,7 +33706,7 @@
         <v>27.44</v>
       </c>
       <c r="K656" t="n">
-        <v>-26.3157894736846</v>
+        <v>-15.78947368421046</v>
       </c>
       <c r="L656" t="n">
         <v>5.994999999999998</v>
@@ -33735,7 +33757,7 @@
         <v>27.46</v>
       </c>
       <c r="K657" t="n">
-        <v>-24.13793103448307</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L657" t="n">
         <v>5.990999999999999</v>
@@ -33786,7 +33808,7 @@
         <v>27.5</v>
       </c>
       <c r="K658" t="n">
-        <v>-16.12903225806471</v>
+        <v>-10.34482758620701</v>
       </c>
       <c r="L658" t="n">
         <v>5.996999999999998</v>
@@ -33837,7 +33859,7 @@
         <v>27.51</v>
       </c>
       <c r="K659" t="n">
-        <v>-8.474576271186566</v>
+        <v>33.33333333333348</v>
       </c>
       <c r="L659" t="n">
         <v>5.994999999999998</v>
@@ -33888,7 +33910,7 @@
         <v>27.52</v>
       </c>
       <c r="K660" t="n">
-        <v>-5.084745762711999</v>
+        <v>42.85714285714406</v>
       </c>
       <c r="L660" t="n">
         <v>6.002999999999997</v>
@@ -33939,7 +33961,7 @@
         <v>27.72</v>
       </c>
       <c r="K661" t="n">
-        <v>20.51282051282078</v>
+        <v>75.00000000000088</v>
       </c>
       <c r="L661" t="n">
         <v>6.031999999999998</v>
@@ -33990,7 +34012,7 @@
         <v>27.91999999999999</v>
       </c>
       <c r="K662" t="n">
-        <v>-3.092783505154691</v>
+        <v>15.25423728813566</v>
       </c>
       <c r="L662" t="n">
         <v>6.041999999999998</v>
@@ -34041,7 +34063,7 @@
         <v>27.95999999999999</v>
       </c>
       <c r="K663" t="n">
-        <v>-6.930693069307021</v>
+        <v>7.936507936507965</v>
       </c>
       <c r="L663" t="n">
         <v>6.046999999999999</v>
@@ -34092,7 +34114,7 @@
         <v>28.13</v>
       </c>
       <c r="K664" t="n">
-        <v>9.401709401709473</v>
+        <v>21.62162162162179</v>
       </c>
       <c r="L664" t="n">
         <v>6.068999999999998</v>
@@ -34143,7 +34165,7 @@
         <v>28.22</v>
       </c>
       <c r="K665" t="n">
-        <v>-0.8130081300813601</v>
+        <v>15.3846153846154</v>
       </c>
       <c r="L665" t="n">
         <v>6.075999999999998</v>
@@ -34194,7 +34216,7 @@
         <v>28.29</v>
       </c>
       <c r="K666" t="n">
-        <v>10.56910569105696</v>
+        <v>20.48192771084349</v>
       </c>
       <c r="L666" t="n">
         <v>6.094999999999997</v>
@@ -34245,7 +34267,7 @@
         <v>28.32</v>
       </c>
       <c r="K667" t="n">
-        <v>12.69841269841276</v>
+        <v>19.51219512195132</v>
       </c>
       <c r="L667" t="n">
         <v>6.114999999999998</v>
@@ -34296,7 +34318,7 @@
         <v>28.39</v>
       </c>
       <c r="K668" t="n">
-        <v>11.81102362204724</v>
+        <v>9.090909090909109</v>
       </c>
       <c r="L668" t="n">
         <v>6.123999999999997</v>
@@ -34347,7 +34369,7 @@
         <v>28.5</v>
       </c>
       <c r="K669" t="n">
-        <v>13.17829457364345</v>
+        <v>18.36734693877557</v>
       </c>
       <c r="L669" t="n">
         <v>6.142999999999998</v>
@@ -34398,7 +34420,7 @@
         <v>28.51</v>
       </c>
       <c r="K670" t="n">
-        <v>22.31404958677687</v>
+        <v>-1.265822784810095</v>
       </c>
       <c r="L670" t="n">
         <v>6.161999999999997</v>
@@ -34449,7 +34471,7 @@
         <v>28.52</v>
       </c>
       <c r="K671" t="n">
-        <v>22.31404958677701</v>
+        <v>30.00000000000003</v>
       </c>
       <c r="L671" t="n">
         <v>6.159999999999997</v>
@@ -34500,7 +34522,7 @@
         <v>28.64</v>
       </c>
       <c r="K672" t="n">
-        <v>12.12121212121216</v>
+        <v>14.70588235294118</v>
       </c>
       <c r="L672" t="n">
         <v>6.165999999999997</v>
@@ -34551,7 +34573,7 @@
         <v>28.66</v>
       </c>
       <c r="K673" t="n">
-        <v>9.774436090225569</v>
+        <v>-16.9811320754718</v>
       </c>
       <c r="L673" t="n">
         <v>6.173999999999997</v>
@@ -34602,7 +34624,7 @@
         <v>28.7</v>
       </c>
       <c r="K674" t="n">
-        <v>12.40875912408761</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L674" t="n">
         <v>6.168999999999997</v>
@@ -34653,7 +34675,7 @@
         <v>28.75999999999999</v>
       </c>
       <c r="K675" t="n">
-        <v>3.649635036496353</v>
+        <v>-19.14893617021278</v>
       </c>
       <c r="L675" t="n">
         <v>6.166999999999996</v>
@@ -34704,7 +34726,7 @@
         <v>28.84</v>
       </c>
       <c r="K676" t="n">
-        <v>12.85714285714288</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L676" t="n">
         <v>6.165999999999997</v>
@@ -34755,7 +34777,7 @@
         <v>28.93</v>
       </c>
       <c r="K677" t="n">
-        <v>4.761904761904797</v>
+        <v>-11.11111111111106</v>
       </c>
       <c r="L677" t="n">
         <v>6.152999999999996</v>
@@ -34806,7 +34828,7 @@
         <v>29</v>
       </c>
       <c r="K678" t="n">
-        <v>6.666666666666658</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L678" t="n">
         <v>6.153999999999995</v>
@@ -34857,7 +34879,7 @@
         <v>29.04</v>
       </c>
       <c r="K679" t="n">
-        <v>3.267973856209144</v>
+        <v>-28.30188679245303</v>
       </c>
       <c r="L679" t="n">
         <v>6.139999999999995</v>
@@ -34908,7 +34930,7 @@
         <v>29.04</v>
       </c>
       <c r="K680" t="n">
-        <v>2.631578947368424</v>
+        <v>-26.92307692307705</v>
       </c>
       <c r="L680" t="n">
         <v>6.124999999999996</v>
@@ -34959,7 +34981,7 @@
         <v>29.11</v>
       </c>
       <c r="K681" t="n">
-        <v>-16.54676258992802</v>
+        <v>-19.14893617021278</v>
       </c>
       <c r="L681" t="n">
         <v>6.103999999999996</v>
@@ -35010,7 +35032,7 @@
         <v>29.11</v>
       </c>
       <c r="K682" t="n">
-        <v>-2.521008403361288</v>
+        <v>-15.55555555555545</v>
       </c>
       <c r="L682" t="n">
         <v>6.094999999999995</v>
@@ -35061,7 +35083,7 @@
         <v>29.13</v>
       </c>
       <c r="K683" t="n">
-        <v>-0.8547008547008352</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L683" t="n">
         <v>6.085999999999995</v>
@@ -35112,7 +35134,7 @@
         <v>29.19</v>
       </c>
       <c r="K684" t="n">
-        <v>-11.32075471698112</v>
+        <v>-2.32558139534877</v>
       </c>
       <c r="L684" t="n">
         <v>6.078999999999995</v>
@@ -35163,7 +35185,7 @@
         <v>29.22</v>
       </c>
       <c r="K685" t="n">
-        <v>0</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L685" t="n">
         <v>6.080999999999994</v>
@@ -35214,7 +35236,7 @@
         <v>29.27</v>
       </c>
       <c r="K686" t="n">
-        <v>-12.24489795918363</v>
+        <v>-5.882352941176547</v>
       </c>
       <c r="L686" t="n">
         <v>6.069999999999995</v>
@@ -35265,7 +35287,7 @@
         <v>29.28</v>
       </c>
       <c r="K687" t="n">
-        <v>-16.6666666666666</v>
+        <v>-35.71428571428499</v>
       </c>
       <c r="L687" t="n">
         <v>6.066999999999995</v>
@@ -35316,7 +35338,7 @@
         <v>29.29</v>
       </c>
       <c r="K688" t="n">
-        <v>-8.888888888888875</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L688" t="n">
         <v>6.057999999999995</v>
@@ -35367,7 +35389,7 @@
         <v>29.29</v>
       </c>
       <c r="K689" t="n">
-        <v>-24.05063291139237</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L689" t="n">
         <v>6.052999999999995</v>
@@ -35418,7 +35440,7 @@
         <v>29.31</v>
       </c>
       <c r="K690" t="n">
-        <v>-27.49999999999995</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>6.045999999999994</v>
@@ -35469,7 +35491,7 @@
         <v>29.37</v>
       </c>
       <c r="K691" t="n">
-        <v>-17.64705882352942</v>
+        <v>23.07692307692279</v>
       </c>
       <c r="L691" t="n">
         <v>6.051999999999994</v>
@@ -35520,7 +35542,7 @@
         <v>29.49</v>
       </c>
       <c r="K692" t="n">
-        <v>-17.64705882352942</v>
+        <v>-11.11111111111103</v>
       </c>
       <c r="L692" t="n">
         <v>6.045999999999994</v>
@@ -35571,7 +35593,7 @@
         <v>29.51</v>
       </c>
       <c r="K693" t="n">
-        <v>-12.94117647058815</v>
+        <v>-25</v>
       </c>
       <c r="L693" t="n">
         <v>6.043999999999993</v>
@@ -35622,7 +35644,7 @@
         <v>29.53</v>
       </c>
       <c r="K694" t="n">
-        <v>-20.48192771084332</v>
+        <v>-41.93548387096789</v>
       </c>
       <c r="L694" t="n">
         <v>6.033999999999994</v>
@@ -35673,7 +35695,7 @@
         <v>29.6</v>
       </c>
       <c r="K695" t="n">
-        <v>-4.761904761904747</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="L695" t="n">
         <v>6.027999999999993</v>
@@ -35724,7 +35746,7 @@
         <v>29.67</v>
       </c>
       <c r="K696" t="n">
-        <v>-22.89156626506024</v>
+        <v>-17.94871794871816</v>
       </c>
       <c r="L696" t="n">
         <v>6.019999999999994</v>
@@ -35775,7 +35797,7 @@
         <v>29.67</v>
       </c>
       <c r="K697" t="n">
-        <v>-13.51351351351355</v>
+        <v>-21.05263157894744</v>
       </c>
       <c r="L697" t="n">
         <v>6.012999999999995</v>
@@ -35826,7 +35848,7 @@
         <v>29.74</v>
       </c>
       <c r="K698" t="n">
-        <v>-13.51351351351343</v>
+        <v>-2.222222222222178</v>
       </c>
       <c r="L698" t="n">
         <v>6.011999999999995</v>
@@ -35877,7 +35899,7 @@
         <v>29.75</v>
       </c>
       <c r="K699" t="n">
-        <v>-7.042253521126692</v>
+        <v>4.545454545454435</v>
       </c>
       <c r="L699" t="n">
         <v>6.011999999999995</v>
@@ -35928,7 +35950,7 @@
         <v>29.75</v>
       </c>
       <c r="K700" t="n">
-        <v>-7.042253521126692</v>
+        <v>-10.52631578947362</v>
       </c>
       <c r="L700" t="n">
         <v>6.013999999999994</v>
@@ -35979,7 +36001,7 @@
         <v>29.75</v>
       </c>
       <c r="K701" t="n">
-        <v>3.124999999999913</v>
+        <v>30.76923076923061</v>
       </c>
       <c r="L701" t="n">
         <v>6.009999999999994</v>
@@ -36030,7 +36052,7 @@
         <v>29.75</v>
       </c>
       <c r="K702" t="n">
-        <v>3.124999999999913</v>
+        <v>24.99999999999963</v>
       </c>
       <c r="L702" t="n">
         <v>6.017999999999994</v>
@@ -36081,7 +36103,7 @@
         <v>29.82</v>
       </c>
       <c r="K703" t="n">
-        <v>-4.347826086956399</v>
+        <v>3.448275862069166</v>
       </c>
       <c r="L703" t="n">
         <v>6.016999999999994</v>
@@ -36132,7 +36154,7 @@
         <v>29.84</v>
       </c>
       <c r="K704" t="n">
-        <v>-10.76923076923078</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L704" t="n">
         <v>6.019999999999993</v>
@@ -36183,7 +36205,7 @@
         <v>29.94</v>
       </c>
       <c r="K705" t="n">
-        <v>-27.77777777777772</v>
+        <v>-25.92592592592574</v>
       </c>
       <c r="L705" t="n">
         <v>6.005999999999994</v>
@@ -36234,7 +36256,7 @@
         <v>29.97</v>
       </c>
       <c r="K706" t="n">
-        <v>-17.14285714285718</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L706" t="n">
         <v>6.001999999999994</v>
@@ -36285,7 +36307,7 @@
         <v>30</v>
       </c>
       <c r="K707" t="n">
-        <v>-19.44444444444443</v>
+        <v>-53.8461538461534</v>
       </c>
       <c r="L707" t="n">
         <v>5.994999999999995</v>
@@ -36336,7 +36358,7 @@
         <v>30.05</v>
       </c>
       <c r="K708" t="n">
-        <v>-26.31578947368418</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L708" t="n">
         <v>5.975999999999994</v>
@@ -36387,7 +36409,7 @@
         <v>30.05</v>
       </c>
       <c r="K709" t="n">
-        <v>-26.31578947368418</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L709" t="n">
         <v>5.955999999999994</v>
@@ -36438,7 +36460,7 @@
         <v>30.09</v>
       </c>
       <c r="K710" t="n">
-        <v>-28.20512820512824</v>
+        <v>-70.58823529411774</v>
       </c>
       <c r="L710" t="n">
         <v>5.931999999999995</v>

--- a/BackTest/2019-11-16 BackTest XVG.xlsx
+++ b/BackTest/2019-11-16 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -523,7 +523,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.9</v>
@@ -562,7 +562,7 @@
         <v>3340320.13683538</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.9</v>
@@ -601,7 +601,7 @@
         <v>3159218.13683538</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.88</v>
@@ -640,7 +640,7 @@
         <v>3159218.13683538</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4.76</v>
@@ -679,7 +679,7 @@
         <v>3410368.13683538</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.76</v>
@@ -718,7 +718,7 @@
         <v>3410368.13683538</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.9</v>
@@ -757,7 +757,7 @@
         <v>2673222.10583538</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>4.9</v>
@@ -796,11 +796,9 @@
         <v>2692062.10583538</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,7 +833,7 @@
         <v>2692062.10583538</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>4.96</v>
@@ -874,11 +872,9 @@
         <v>3282883.10583538</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +909,9 @@
         <v>3916952.10583538</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +946,9 @@
         <v>3916952.10583538</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +983,9 @@
         <v>4161609.800135381</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +1020,9 @@
         <v>4429299.568735381</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -6545,9 +6533,11 @@
         <v>-2362553.04671317</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6582,9 +6572,11 @@
         <v>-2362553.04671317</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6619,9 +6611,11 @@
         <v>-2322553.04671317</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6656,9 +6650,11 @@
         <v>-2400239.564913169</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6693,9 +6689,11 @@
         <v>-2456239.564913169</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>5.34</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6730,9 +6728,11 @@
         <v>-3283244.843013169</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6804,9 +6804,11 @@
         <v>-5139843.837413169</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.26</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6841,9 +6843,11 @@
         <v>-4977847.277113169</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6878,9 +6882,11 @@
         <v>-5026622.828813169</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>5.31</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6915,9 +6921,11 @@
         <v>-5462622.828813169</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>5.24</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6952,9 +6960,11 @@
         <v>-4159613.789513169</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>5.15</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7285,9 +7295,11 @@
         <v>-4445598.824013169</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7322,9 +7334,11 @@
         <v>-4455598.824013169</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5.33</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7359,9 +7373,11 @@
         <v>-4455598.824013169</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7581,9 +7597,11 @@
         <v>-3673673.721413169</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7655,9 +7673,11 @@
         <v>-3334899.544513169</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>5.21</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7729,9 +7749,11 @@
         <v>-3711135.815513169</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>5.21</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7803,9 +7825,11 @@
         <v>-3532024.432513169</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7840,9 +7864,11 @@
         <v>-3326853.991513169</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -8099,9 +8125,11 @@
         <v>-3536778.567913169</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>5.16</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8173,9 +8201,11 @@
         <v>-3512087.642313169</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8395,9 +8425,11 @@
         <v>-3577936.038213169</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8765,9 +8797,11 @@
         <v>-3957898.979613169</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>5.07</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8839,7 +8873,7 @@
         <v>-4063226.366413169</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>5.05</v>
@@ -8878,7 +8912,7 @@
         <v>-3978226.366413169</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>5.05</v>
@@ -8917,7 +8951,7 @@
         <v>-3957830.366413169</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>5.07</v>
@@ -8956,7 +8990,7 @@
         <v>-6451606.158713168</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>5.13</v>
@@ -9143,9 +9177,11 @@
         <v>-5652178.927313169</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>5.08</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9180,9 +9216,11 @@
         <v>-5654163.035513168</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>5.08</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9217,9 +9255,11 @@
         <v>-5430707.035513168</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>5</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9254,9 +9294,11 @@
         <v>-5435707.035513168</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>5.19</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9291,9 +9333,11 @@
         <v>-5435707.035513168</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9328,9 +9372,11 @@
         <v>-5450707.035513168</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9365,9 +9411,11 @@
         <v>-5450707.035513168</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>5.16</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9402,9 +9450,11 @@
         <v>-5328521.708113168</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>5.16</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9439,9 +9489,11 @@
         <v>-5328521.708113168</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9476,9 +9528,11 @@
         <v>-5273199.213013168</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9513,9 +9567,11 @@
         <v>-5591421.449213169</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9550,7 +9606,7 @@
         <v>-5591421.449213169</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>5.1</v>
@@ -9589,7 +9645,7 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>5.1</v>
@@ -9628,7 +9684,7 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>5.2</v>
@@ -9667,11 +9723,9 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>5.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9706,11 +9760,9 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>5.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9745,9 +9797,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9782,9 +9836,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9819,9 +9875,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9856,9 +9914,11 @@
         <v>-5534771.747613168</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9893,7 +9953,7 @@
         <v>-5526684.858113169</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>5.2</v>
@@ -9932,11 +9992,9 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10008,9 +10066,11 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5.19</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10045,9 +10105,11 @@
         <v>-6637912.995513169</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5.19</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10156,9 +10218,11 @@
         <v>-6695460.827813169</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5.09</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10193,7 +10257,7 @@
         <v>-6923713.807513169</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>5.15</v>
@@ -10232,11 +10296,9 @@
         <v>-6943413.007413169</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>5.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10271,7 +10333,7 @@
         <v>-6943314.897413169</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>5.05</v>
@@ -10310,9 +10372,11 @@
         <v>-5945034.927813169</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.13</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10347,9 +10411,11 @@
         <v>-5915034.927813169</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.15</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10458,11 +10524,9 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>5.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10534,11 +10598,9 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10573,11 +10635,9 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>5.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10612,11 +10672,9 @@
         <v>-6737992.639813168</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>5.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10651,11 +10709,9 @@
         <v>-6781992.639813168</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>5.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10764,11 +10820,9 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -11025,11 +11079,9 @@
         <v>-6577711.464513168</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>5.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11064,7 +11116,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>5.17</v>
@@ -11103,9 +11155,11 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11140,7 +11194,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>5.18</v>
@@ -11179,7 +11233,7 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>5.18</v>
@@ -11218,7 +11272,7 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>5.28</v>
@@ -11257,7 +11311,7 @@
         <v>-6363474.273213168</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>5.28</v>
@@ -11296,11 +11350,9 @@
         <v>-6185294.871113168</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>5.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -11335,11 +11387,9 @@
         <v>-6093770.712813168</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>5.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -11374,11 +11424,9 @@
         <v>-6267776.099913168</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>5.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11524,11 +11572,9 @@
         <v>-6154013.494313167</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>5.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11563,11 +11609,9 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>5.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11602,11 +11646,9 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11641,11 +11683,9 @@
         <v>-5866942.750913167</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11976,11 +12016,9 @@
         <v>-3512879.096413167</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>5.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -12089,11 +12127,9 @@
         <v>-3566207.689813167</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -12128,11 +12164,9 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>5.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12315,11 +12349,9 @@
         <v>-3442346.671613167</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>5.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -12354,11 +12386,9 @@
         <v>-3512435.277013167</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>5.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12393,11 +12423,9 @@
         <v>-3507435.277013167</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -12432,11 +12460,9 @@
         <v>-2765259.071213167</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>5.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -12471,11 +12497,9 @@
         <v>-775852.4022131667</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>5.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -18911,18 +18935,16 @@
         <v>12040929.02997115</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L498" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="inlineStr"/>
     </row>
     <row r="499">
@@ -18948,15 +18970,11 @@
         <v>11756264.44757115</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18985,15 +19003,11 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19022,15 +19036,11 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19059,15 +19069,11 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19100,11 +19106,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19137,11 +19139,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19174,11 +19172,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19211,11 +19205,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19248,11 +19238,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19285,11 +19271,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19322,11 +19304,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19355,15 +19333,11 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19396,11 +19370,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19429,15 +19399,11 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19466,15 +19432,11 @@
         <v>12590333.14752263</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19503,15 +19465,11 @@
         <v>12628928.01162263</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19540,15 +19498,11 @@
         <v>12715816.01962263</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19577,15 +19531,11 @@
         <v>12715816.01962263</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19614,15 +19564,11 @@
         <v>13334934.54972262</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19651,15 +19597,11 @@
         <v>13334934.54972262</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19688,15 +19630,11 @@
         <v>13017980.19092263</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19725,15 +19663,11 @@
         <v>13193413.66442263</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19766,11 +19700,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19799,15 +19729,11 @@
         <v>13165751.66442263</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19840,11 +19766,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19877,11 +19799,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19914,11 +19832,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19951,11 +19865,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19988,11 +19898,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20025,11 +19931,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20062,11 +19964,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20099,11 +19997,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20136,11 +20030,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20173,11 +20063,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20210,11 +20096,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20243,15 +20125,11 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20162,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20321,11 +20195,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20358,11 +20228,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20395,11 +20261,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20432,11 +20294,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20469,11 +20327,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20506,11 +20360,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20539,15 +20389,11 @@
         <v>10948557.14992722</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20576,15 +20422,11 @@
         <v>10977779.92752722</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20617,11 +20459,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20650,15 +20488,11 @@
         <v>10988396.44552722</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20691,11 +20525,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20724,15 +20554,11 @@
         <v>10739240.02792722</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20765,11 +20591,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20798,15 +20620,11 @@
         <v>10660322.02792722</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20835,15 +20653,11 @@
         <v>10152415.77012722</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20872,15 +20686,11 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20909,15 +20719,11 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20946,15 +20752,11 @@
         <v>11650147.99372722</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20983,15 +20785,11 @@
         <v>11650229.99372722</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21024,11 +20822,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21057,15 +20851,11 @@
         <v>11836871.66522722</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21094,15 +20884,11 @@
         <v>11795373.81412722</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21131,15 +20917,11 @@
         <v>11699042.58292722</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21168,15 +20950,11 @@
         <v>11586989.99322722</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21209,11 +20987,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21242,15 +21016,11 @@
         <v>11738965.38132722</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21279,15 +21049,11 @@
         <v>11258083.04639828</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21316,15 +21082,11 @@
         <v>11275777.83467189</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21353,15 +21115,11 @@
         <v>11020415.51197189</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21390,15 +21148,11 @@
         <v>11020415.51197189</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21427,15 +21181,11 @@
         <v>11028801.39177189</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21468,11 +21218,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21251,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21542,11 +21284,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21579,11 +21317,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21616,11 +21350,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21653,11 +21383,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21690,11 +21416,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21727,11 +21449,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21764,11 +21482,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21801,11 +21515,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21838,11 +21548,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21875,11 +21581,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21912,11 +21614,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21949,11 +21647,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21986,11 +21680,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22023,11 +21713,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22060,11 +21746,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22097,11 +21779,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22134,11 +21812,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22171,11 +21845,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22208,11 +21878,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22245,11 +21911,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22282,11 +21944,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22319,11 +21977,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22356,11 +22010,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22393,11 +22043,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22430,11 +22076,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22467,11 +22109,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22504,11 +22142,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22541,11 +22175,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22578,11 +22208,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22615,11 +22241,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22652,11 +22274,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22689,11 +22307,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22340,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22763,11 +22373,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22800,11 +22406,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22837,11 +22439,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22874,11 +22472,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22911,11 +22505,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22948,11 +22538,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22985,11 +22571,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23022,11 +22604,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23059,11 +22637,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23096,11 +22670,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23133,11 +22703,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23170,11 +22736,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23207,11 +22769,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23244,11 +22802,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23281,11 +22835,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23318,11 +22868,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23355,11 +22901,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23392,11 +22934,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23429,11 +22967,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23466,11 +23000,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23503,11 +23033,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23540,11 +23066,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23577,11 +23099,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23614,11 +23132,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23651,11 +23165,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23688,11 +23198,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23725,11 +23231,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23762,11 +23264,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23799,11 +23297,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23836,11 +23330,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23873,11 +23363,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23906,16 +23392,14 @@
         <v>17093632.09457695</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
       <c r="M633" t="inlineStr"/>
     </row>
     <row r="634">
@@ -23941,7 +23425,7 @@
         <v>17503632.09457695</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24337,7 +23821,7 @@
         <v>18002162.85834614</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24370,7 +23854,7 @@
         <v>17501361.85924614</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24403,7 +23887,7 @@
         <v>17128568.52745803</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24865,7 +24349,7 @@
         <v>18444392.78625803</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24898,7 +24382,7 @@
         <v>18758828.58255803</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24931,7 +24415,7 @@
         <v>17869867.10305803</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24964,7 +24448,7 @@
         <v>18463273.95295803</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24997,7 +24481,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25030,7 +24514,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25063,7 +24547,7 @@
         <v>18450489.69555803</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25096,7 +24580,7 @@
         <v>19666169.24735803</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25129,7 +24613,7 @@
         <v>19555179.69475803</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25162,7 +24646,7 @@
         <v>18631288.89575803</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25195,7 +24679,7 @@
         <v>18634088.17385803</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25426,7 +24910,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25459,7 +24943,7 @@
         <v>18809792.89575803</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25492,7 +24976,7 @@
         <v>17206085.12345803</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25525,7 +25009,7 @@
         <v>17879495.87785803</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25558,7 +25042,7 @@
         <v>18555782.71485803</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25591,7 +25075,7 @@
         <v>18969036.27655803</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25624,7 +25108,7 @@
         <v>17976618.13429524</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25657,7 +25141,7 @@
         <v>17774390.44499524</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25690,7 +25174,7 @@
         <v>17341602.80099524</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25723,7 +25207,7 @@
         <v>16715060.16819524</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25756,7 +25240,7 @@
         <v>16715407.29759524</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25789,7 +25273,7 @@
         <v>16449396.39519524</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25822,7 +25306,7 @@
         <v>16452793.57669524</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25855,7 +25339,7 @@
         <v>16029088.49549524</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25888,7 +25372,7 @@
         <v>16031490.79069524</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25921,7 +25405,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25954,7 +25438,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25987,7 +25471,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26020,7 +25504,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26053,7 +25537,7 @@
         <v>15682722.14829524</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26548,7 +26032,7 @@
         <v>13684041.49542127</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26680,7 +26164,7 @@
         <v>12843571.62412127</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26746,7 +26230,7 @@
         <v>12849069.12592127</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26812,7 +26296,7 @@
         <v>13828371.65761709</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26845,7 +26329,7 @@
         <v>13708960.65601709</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26878,7 +26362,7 @@
         <v>13709250.64241709</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27175,7 +26659,7 @@
         <v>13528281.9446113</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27208,7 +26692,7 @@
         <v>13632304.5616113</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27241,7 +26725,7 @@
         <v>13581456.4125113</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27274,7 +26758,7 @@
         <v>13581540.8964113</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27307,7 +26791,7 @@
         <v>11354116.8180113</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27340,7 +26824,7 @@
         <v>11455565.8408126</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27505,7 +26989,7 @@
         <v>11168547.2442126</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27538,7 +27022,7 @@
         <v>11217238.8295126</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27571,7 +27055,7 @@
         <v>11277602.6770126</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27637,7 +27121,7 @@
         <v>10955257.8298126</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27670,7 +27154,7 @@
         <v>11016458.9774126</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27736,7 +27220,7 @@
         <v>10976237.7045126</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27901,7 +27385,7 @@
         <v>10972341.14110094</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27934,7 +27418,7 @@
         <v>10951720.30160094</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27967,7 +27451,7 @@
         <v>10951720.30160094</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28000,7 +27484,7 @@
         <v>11507770.88580094</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28044,6 +27528,6 @@
       <c r="M758" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-16 BackTest XVG.xlsx
+++ b/BackTest/2019-11-16 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>3340320.13683538</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>3159218.13683538</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>3159218.13683538</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>3410368.13683538</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>3410368.13683538</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>2673222.10583538</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -833,17 +781,11 @@
         <v>2692062.10583538</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -876,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -950,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -987,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1024,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1098,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1135,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1172,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1209,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1246,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1283,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1394,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1431,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1468,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1542,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1579,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1616,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1653,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1727,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1764,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1801,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1875,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1912,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1986,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2023,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2060,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2097,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2167,15 +1969,11 @@
         <v>4961074.345057992</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2204,15 +2002,11 @@
         <v>4247492.734657993</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2241,15 +2035,11 @@
         <v>3947777.960657992</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2278,15 +2068,11 @@
         <v>3963703.950057992</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2315,15 +2101,11 @@
         <v>4159950.583557992</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2352,15 +2134,11 @@
         <v>5028539.096657992</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2389,15 +2167,11 @@
         <v>5253018.868957993</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2426,15 +2200,11 @@
         <v>2848234.284457993</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2463,15 +2233,11 @@
         <v>4433051.971157992</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2500,15 +2266,11 @@
         <v>3248957.576057992</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2537,15 +2299,11 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2574,15 +2332,11 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2611,15 +2365,11 @@
         <v>2597794.211031902</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2648,15 +2398,11 @@
         <v>2458349.988074762</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2685,15 +2431,11 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2722,15 +2464,11 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2800,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2837,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2874,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2911,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2948,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2985,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3022,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3096,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3133,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3170,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3207,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3244,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3318,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3429,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3466,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3503,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3540,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3577,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3614,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3688,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3725,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3762,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3873,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3943,15 +3553,11 @@
         <v>-3950585.14339858</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4354,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4391,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4428,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4502,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4539,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4650,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4983,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5016,15 +4510,11 @@
         <v>-2033274.232127989</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5127,15 +4609,11 @@
         <v>-2097613.128688499</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5201,15 +4675,11 @@
         <v>-2014304.128688499</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5238,15 +4708,11 @@
         <v>-1934304.128688499</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5275,15 +4741,11 @@
         <v>-1955597.607088499</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5312,15 +4774,11 @@
         <v>-1963320.063088499</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5349,15 +4807,11 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5386,15 +4840,11 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5423,15 +4873,11 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5460,15 +4906,11 @@
         <v>-2280286.267588499</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5497,15 +4939,11 @@
         <v>-1927767.030188499</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5534,15 +4972,11 @@
         <v>-1595601.144088499</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5612,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5649,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5760,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5871,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5982,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6056,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6241,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6352,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6533,17 +5863,11 @@
         <v>-2362553.04671317</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6572,17 +5896,11 @@
         <v>-2362553.04671317</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6611,17 +5929,11 @@
         <v>-2322553.04671317</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6650,17 +5962,11 @@
         <v>-2400239.564913169</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6689,17 +5995,11 @@
         <v>-2456239.564913169</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6728,17 +6028,11 @@
         <v>-3283244.843013169</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6804,17 +6094,11 @@
         <v>-5139843.837413169</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6843,17 +6127,11 @@
         <v>-4977847.277113169</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6882,17 +6160,11 @@
         <v>-5026622.828813169</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6921,17 +6193,11 @@
         <v>-5462622.828813169</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>5.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6965,12 +6231,10 @@
       <c r="I177" t="n">
         <v>5.15</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7002,10 +6266,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.15</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -7039,10 +6305,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.15</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -7077,11 +6345,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7114,11 +6378,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7151,11 +6411,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7188,11 +6444,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7225,11 +6477,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7262,11 +6510,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7295,17 +6539,11 @@
         <v>-4445598.824013169</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>5.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7334,17 +6572,11 @@
         <v>-4455598.824013169</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7373,17 +6605,11 @@
         <v>-4455598.824013169</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7416,11 +6642,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7453,11 +6675,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +6708,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7527,11 +6741,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7564,11 +6774,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7597,17 +6803,11 @@
         <v>-3673673.721413169</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7640,11 +6840,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7673,17 +6869,11 @@
         <v>-3334899.544513169</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>5.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +6906,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7749,17 +6935,11 @@
         <v>-3711135.815513169</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>5.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7792,11 +6972,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7825,17 +7001,11 @@
         <v>-3532024.432513169</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7864,17 +7034,11 @@
         <v>-3326853.991513169</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7907,11 +7071,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7944,11 +7104,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +7137,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8018,11 +7170,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8055,11 +7203,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +7236,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8125,17 +7265,11 @@
         <v>-3536778.567913169</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>5.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8168,11 +7302,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8201,17 +7331,11 @@
         <v>-3512087.642313169</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>5.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8244,11 +7368,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8281,11 +7401,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8318,11 +7434,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8355,11 +7467,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8392,11 +7500,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8425,17 +7529,11 @@
         <v>-3577936.038213169</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>5.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8468,11 +7566,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8505,11 +7599,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8542,11 +7632,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8579,11 +7665,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8616,11 +7698,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +7731,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8690,11 +7764,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8727,11 +7797,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8764,11 +7830,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8797,17 +7859,11 @@
         <v>-3957898.979613169</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>5.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8836,13 +7892,15 @@
         <v>-4063226.366413169</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -9066,9 +8124,11 @@
         <v>-6596606.158713168</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>5.04</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9103,9 +8163,11 @@
         <v>-6197606.158713168</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>5.03</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9140,9 +8202,11 @@
         <v>-5652178.927313169</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>5.04</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9177,11 +8241,9 @@
         <v>-5652178.927313169</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>5.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9294,11 +8356,9 @@
         <v>-5435707.035513168</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9333,11 +8393,9 @@
         <v>-5435707.035513168</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9372,11 +8430,9 @@
         <v>-5450707.035513168</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9411,11 +8467,9 @@
         <v>-5450707.035513168</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>5.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9450,11 +8504,9 @@
         <v>-5328521.708113168</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>5.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9489,11 +8541,9 @@
         <v>-5328521.708113168</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9528,11 +8578,9 @@
         <v>-5273199.213013168</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9567,11 +8615,9 @@
         <v>-5591421.449213169</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>5.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9606,11 +8652,9 @@
         <v>-5591421.449213169</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9645,11 +8689,9 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9684,11 +8726,9 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>5.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9797,11 +8837,9 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9836,11 +8874,9 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9875,11 +8911,9 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9914,11 +8948,9 @@
         <v>-5534771.747613168</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9953,11 +8985,9 @@
         <v>-5526684.858113169</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>5.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10066,11 +9096,9 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10105,11 +9133,9 @@
         <v>-6637912.995513169</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10218,11 +9244,9 @@
         <v>-6695460.827813169</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>5.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10257,11 +9281,9 @@
         <v>-6923713.807513169</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10333,11 +9355,9 @@
         <v>-6943314.897413169</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>5.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10372,11 +9392,9 @@
         <v>-5945034.927813169</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>5.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10411,11 +9429,9 @@
         <v>-5915034.927813169</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -11116,11 +10132,9 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11155,11 +10169,9 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>5.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11194,11 +10206,9 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>5.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -11233,11 +10243,9 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>5.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11272,11 +10280,9 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>5.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11311,11 +10317,9 @@
         <v>-6363474.273213168</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>5.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -12053,18 +11057,16 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
@@ -12090,15 +11092,11 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12127,15 +11125,11 @@
         <v>-3566207.689813167</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12164,15 +11158,11 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12201,15 +11191,11 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12238,15 +11224,11 @@
         <v>-3484064.610413167</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12275,15 +11257,11 @@
         <v>-3439355.459513167</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12312,15 +11290,11 @@
         <v>-3527553.131613167</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12349,15 +11323,11 @@
         <v>-3442346.671613167</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12390,11 +11360,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12427,11 +11393,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12464,11 +11426,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12501,11 +11459,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12534,15 +11488,11 @@
         <v>-2944347.679913167</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12575,11 +11525,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12612,11 +11558,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12649,11 +11591,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12686,11 +11624,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12723,11 +11657,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +11690,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +11723,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12834,11 +11756,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12871,11 +11789,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12908,11 +11822,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12945,11 +11855,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12982,11 +11888,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13019,11 +11921,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13056,11 +11954,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13093,11 +11987,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13130,11 +12020,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13167,11 +12053,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13204,11 +12086,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13241,11 +12119,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13278,11 +12152,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13315,11 +12185,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13352,11 +12218,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +12251,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13426,11 +12284,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13463,11 +12317,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13500,11 +12350,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13537,11 +12383,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13574,11 +12416,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13611,11 +12449,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13648,11 +12482,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13681,15 +12511,11 @@
         <v>-1242646.777857947</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13718,15 +12544,11 @@
         <v>-751164.2077579469</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13755,15 +12577,11 @@
         <v>-1688678.505257947</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13792,15 +12610,11 @@
         <v>-2114679.613457947</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13833,11 +12647,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13870,11 +12680,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13907,11 +12713,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13944,11 +12746,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +12779,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14014,15 +12808,11 @@
         <v>-1971173.460757947</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14051,15 +12841,11 @@
         <v>-2108866.948957947</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14088,15 +12874,11 @@
         <v>-1366866.948957947</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14125,15 +12907,11 @@
         <v>-1449837.473257947</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14166,11 +12944,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14199,15 +12973,11 @@
         <v>53727.289342053</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14240,11 +13010,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +13043,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +13076,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14351,11 +13109,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14388,11 +13142,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14425,11 +13175,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14462,11 +13208,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +13241,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +13274,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14573,11 +13307,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14610,11 +13340,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14647,11 +13373,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +13406,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14721,11 +13439,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14758,11 +13472,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14795,11 +13505,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +13538,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +13571,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +13604,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14943,11 +13637,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +13670,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15017,11 +13703,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +13736,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15091,11 +13769,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15128,11 +13802,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15165,11 +13835,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +13868,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15239,11 +13901,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +13934,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15313,11 +13967,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15350,11 +14000,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15387,11 +14033,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +14066,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +14099,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +14132,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +14165,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +14198,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +14231,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15646,11 +14264,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15683,11 +14297,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +14330,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +14363,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15794,11 +14396,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15831,11 +14429,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15868,11 +14462,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +14495,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15942,11 +14528,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15979,11 +14561,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16016,11 +14594,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16053,11 +14627,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16090,11 +14660,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16127,11 +14693,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16160,15 +14722,11 @@
         <v>-2827055.573337246</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16201,11 +14759,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16238,11 +14792,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +14825,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16312,11 +14858,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16349,11 +14891,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16386,11 +14924,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +14957,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16460,11 +14990,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16497,11 +15023,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16534,11 +15056,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16571,11 +15089,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16608,11 +15122,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +15155,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16682,11 +15188,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16719,11 +15221,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16756,11 +15254,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16793,11 +15287,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16830,11 +15320,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16867,11 +15353,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16904,11 +15386,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16941,11 +15419,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +15452,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17015,11 +15485,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +15518,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +15551,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +15584,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17163,11 +15617,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +15650,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +15683,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17274,11 +15716,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +15749,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +15782,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17385,11 +15815,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17422,11 +15848,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17459,11 +15881,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17496,11 +15914,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17533,11 +15947,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17570,11 +15980,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +16013,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +16046,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17681,11 +16079,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17718,11 +16112,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17755,11 +16145,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17792,11 +16178,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17829,11 +16211,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17866,11 +16244,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17903,11 +16277,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17940,11 +16310,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17977,11 +16343,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18014,11 +16376,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18051,11 +16409,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18088,11 +16442,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18125,11 +16475,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18162,11 +16508,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18199,11 +16541,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18236,11 +16574,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18273,11 +16607,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18310,11 +16640,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18347,11 +16673,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18384,11 +16706,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +16739,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18458,11 +16772,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18495,11 +16805,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18532,11 +16838,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18569,11 +16871,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18606,11 +16904,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18643,11 +16937,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18680,11 +16970,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18717,11 +17003,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18754,11 +17036,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +17069,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18828,11 +17102,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +17135,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18902,11 +17168,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18935,16 +17197,14 @@
         <v>12040929.02997115</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="n">
+        <v>1</v>
+      </c>
       <c r="M498" t="inlineStr"/>
     </row>
     <row r="499">
@@ -18970,7 +17230,7 @@
         <v>11756264.44757115</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19003,7 +17263,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19036,7 +17296,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19069,7 +17329,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19432,7 +17692,7 @@
         <v>12590333.14752263</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19465,7 +17725,7 @@
         <v>12628928.01162263</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19729,7 +17989,7 @@
         <v>13165751.66442263</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20125,7 +18385,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20389,7 +18649,7 @@
         <v>10948557.14992722</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20422,7 +18682,7 @@
         <v>10977779.92752722</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20488,7 +18748,7 @@
         <v>10988396.44552722</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20554,7 +18814,7 @@
         <v>10739240.02792722</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20620,7 +18880,7 @@
         <v>10660322.02792722</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20653,7 +18913,7 @@
         <v>10152415.77012722</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20686,7 +18946,7 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20719,7 +18979,7 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20752,7 +19012,7 @@
         <v>11650147.99372722</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20785,7 +19045,7 @@
         <v>11650229.99372722</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20851,7 +19111,7 @@
         <v>11836871.66522722</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20884,7 +19144,7 @@
         <v>11795373.81412722</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20917,7 +19177,7 @@
         <v>11699042.58292722</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20950,7 +19210,7 @@
         <v>11586989.99322722</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21016,7 +19276,7 @@
         <v>11738965.38132722</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21049,7 +19309,7 @@
         <v>11258083.04639828</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21082,7 +19342,7 @@
         <v>11275777.83467189</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21115,7 +19375,7 @@
         <v>11020415.51197189</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21148,7 +19408,7 @@
         <v>11020415.51197189</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21181,7 +19441,7 @@
         <v>11028801.39177189</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -25009,7 +23269,7 @@
         <v>17879495.87785803</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25042,7 +23302,7 @@
         <v>18555782.71485803</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25075,7 +23335,7 @@
         <v>18969036.27655803</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25108,7 +23368,7 @@
         <v>17976618.13429524</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25141,7 +23401,7 @@
         <v>17774390.44499524</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25174,7 +23434,7 @@
         <v>17341602.80099524</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25207,7 +23467,7 @@
         <v>16715060.16819524</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25240,7 +23500,7 @@
         <v>16715407.29759524</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25273,7 +23533,7 @@
         <v>16449396.39519524</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25306,7 +23566,7 @@
         <v>16452793.57669524</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25339,7 +23599,7 @@
         <v>16029088.49549524</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25372,7 +23632,7 @@
         <v>16031490.79069524</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25405,7 +23665,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25438,7 +23698,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25471,7 +23731,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25504,7 +23764,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25537,7 +23797,7 @@
         <v>15682722.14829524</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26032,7 +24292,7 @@
         <v>13684041.49542127</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26296,7 +24556,7 @@
         <v>13828371.65761709</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26329,7 +24589,7 @@
         <v>13708960.65601709</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26362,7 +24622,7 @@
         <v>13709250.64241709</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26659,7 +24919,7 @@
         <v>13528281.9446113</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26692,7 +24952,7 @@
         <v>13632304.5616113</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26725,7 +24985,7 @@
         <v>13581456.4125113</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26758,7 +25018,7 @@
         <v>13581540.8964113</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26791,7 +25051,7 @@
         <v>11354116.8180113</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26824,7 +25084,7 @@
         <v>11455565.8408126</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26989,7 +25249,7 @@
         <v>11168547.2442126</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27022,7 +25282,7 @@
         <v>11217238.8295126</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27055,7 +25315,7 @@
         <v>11277602.6770126</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27121,7 +25381,7 @@
         <v>10955257.8298126</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27154,7 +25414,7 @@
         <v>11016458.9774126</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27220,7 +25480,7 @@
         <v>10976237.7045126</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27385,7 +25645,7 @@
         <v>10972341.14110094</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27418,7 +25678,7 @@
         <v>10951720.30160094</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27451,7 +25711,7 @@
         <v>10951720.30160094</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27484,7 +25744,7 @@
         <v>11507770.88580094</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27528,6 +25788,6 @@
       <c r="M758" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-16 BackTest XVG.xlsx
+++ b/BackTest/2019-11-16 BackTest XVG.xlsx
@@ -484,11 +484,17 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1267,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1304,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1378,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1415,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1452,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1489,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1526,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1563,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1600,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1637,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1674,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1711,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1748,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1785,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1822,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1859,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1896,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1933,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1970,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2007,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2044,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2081,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2118,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2151,15 @@
         <v>4961074.345057992</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2188,15 @@
         <v>4247492.734657993</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2225,15 @@
         <v>3947777.960657992</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2262,15 @@
         <v>3963703.950057992</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2299,15 @@
         <v>4159950.583557992</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2336,15 @@
         <v>5028539.096657992</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2373,15 @@
         <v>5253018.868957993</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2410,15 @@
         <v>2848234.284457993</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2447,15 @@
         <v>4433051.971157992</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2484,15 @@
         <v>3248957.576057992</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2521,15 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2558,15 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2595,15 @@
         <v>2597794.211031902</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2632,15 @@
         <v>2458349.988074762</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2669,15 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2706,15 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2747,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2784,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2821,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2858,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2895,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2932,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2969,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3006,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3043,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3080,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3117,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3154,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3191,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3228,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3265,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3302,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3339,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3376,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3413,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3450,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3487,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3524,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3561,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3598,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3635,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3672,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3709,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3746,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3783,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3820,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3857,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3894,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3927,15 @@
         <v>-3950585.14339858</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3968,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4005,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4042,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4079,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4116,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4153,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4190,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4227,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4264,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4301,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4338,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4375,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4412,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4449,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4486,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4523,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4560,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4597,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4634,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4671,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4708,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4745,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4782,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4819,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4856,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4893,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4930,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4967,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5000,15 @@
         <v>-2033274.232127989</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5041,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5078,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5111,15 @@
         <v>-2097613.128688499</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5152,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5185,15 @@
         <v>-2014304.128688499</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5222,15 @@
         <v>-1934304.128688499</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5259,15 @@
         <v>-1955597.607088499</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5296,15 @@
         <v>-1963320.063088499</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5333,15 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5370,15 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5407,15 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5444,15 @@
         <v>-2280286.267588499</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5481,15 @@
         <v>-1927767.030188499</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5518,15 @@
         <v>-1595601.144088499</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5559,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5596,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5633,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5670,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5707,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5744,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5781,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5818,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5855,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5892,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5929,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5966,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6003,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6040,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6077,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6114,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6151,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6188,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6225,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6262,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6299,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6336,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6373,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6410,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6447,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6484,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6521,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6558,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6595,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6632,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6669,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6706,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6743,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6780,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6817,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6854,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6891,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,15 +6924,15 @@
         <v>-4159613.789513169</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J177" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6266,12 +6964,10 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.15</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6305,12 +7001,10 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.15</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6345,7 +7039,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6378,7 +7076,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6411,7 +7113,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +7150,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6477,7 +7187,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6510,7 +7224,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +7261,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6576,7 +7298,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6609,7 +7335,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +7372,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6675,7 +7409,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6708,7 +7446,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6741,7 +7483,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6774,7 +7520,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6807,7 +7557,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6840,7 +7594,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6873,7 +7631,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6906,7 +7668,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6939,7 +7705,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6972,7 +7742,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7005,7 +7779,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7816,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7071,7 +7853,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7104,7 +7890,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7137,7 +7927,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7170,7 +7964,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7203,7 +8001,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7236,7 +8038,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7269,7 +8075,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7302,7 +8112,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7335,7 +8149,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7368,7 +8186,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7401,7 +8223,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7434,7 +8260,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7467,7 +8297,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +8334,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7533,7 +8371,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7566,7 +8408,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +8445,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7632,7 +8482,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7665,7 +8519,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7698,7 +8556,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7731,7 +8593,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7764,7 +8630,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +8667,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7830,7 +8704,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7863,7 +8741,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7900,7 +8782,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -8124,11 +9006,9 @@
         <v>-6596606.158713168</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>5.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8163,11 +9043,9 @@
         <v>-6197606.158713168</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>5.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8202,11 +9080,9 @@
         <v>-5652178.927313169</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>5.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8278,11 +9154,9 @@
         <v>-5654163.035513168</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>5.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8578,9 +9452,11 @@
         <v>-5273199.213013168</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8763,9 +9639,11 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8800,9 +9678,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8837,9 +9717,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8874,9 +9756,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -8911,9 +9795,11 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -8948,9 +9834,11 @@
         <v>-5534771.747613168</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -8985,9 +9873,11 @@
         <v>-5526684.858113169</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9022,9 +9912,11 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9059,9 +9951,11 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>5.19</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9096,9 +9990,11 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5.19</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9133,9 +10029,11 @@
         <v>-6637912.995513169</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5.19</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9170,9 +10068,11 @@
         <v>-6647740.995513169</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9207,9 +10107,11 @@
         <v>-6727529.827813169</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>5.14</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9244,9 +10146,11 @@
         <v>-6695460.827813169</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5.09</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9281,9 +10185,11 @@
         <v>-6923713.807513169</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5.15</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9318,9 +10224,11 @@
         <v>-6943413.007413169</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5.06</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9355,9 +10263,11 @@
         <v>-6943314.897413169</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5.05</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9392,9 +10302,11 @@
         <v>-5945034.927813169</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.13</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9429,9 +10341,11 @@
         <v>-5915034.927813169</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.15</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9466,9 +10380,11 @@
         <v>-5920034.927813169</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9503,9 +10419,11 @@
         <v>-5965034.927813169</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5.15</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9540,9 +10458,11 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5.13</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9577,9 +10497,11 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>5.16</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9614,9 +10536,11 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>5.16</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -9651,9 +10575,11 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>5.13</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -9688,9 +10614,11 @@
         <v>-6737992.639813168</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>5.13</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -9725,9 +10653,11 @@
         <v>-6781992.639813168</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5.06</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -9762,9 +10692,11 @@
         <v>-6699636.612413168</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>5.05</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -9799,9 +10731,11 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -9836,9 +10770,11 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10095,9 +11031,11 @@
         <v>-6577711.464513168</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10132,9 +11070,11 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10169,9 +11109,11 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10206,9 +11148,11 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10243,9 +11187,11 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>5.18</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10280,9 +11226,11 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10317,9 +11265,11 @@
         <v>-6363474.273213168</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10354,9 +11304,11 @@
         <v>-6185294.871113168</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>5.23</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10391,9 +11343,11 @@
         <v>-6093770.712813168</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10428,9 +11382,11 @@
         <v>-6267776.099913168</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>5.29</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10465,9 +11421,11 @@
         <v>-6266117.599913168</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>5.24</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10502,9 +11460,11 @@
         <v>-6276787.599913168</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10539,9 +11499,11 @@
         <v>-6214034.387213168</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>5.24</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10576,9 +11538,11 @@
         <v>-6154013.494313167</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10613,9 +11577,11 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>5.3</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10650,9 +11616,11 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>5.33</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10687,9 +11655,11 @@
         <v>-5866942.750913167</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>5.33</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10724,9 +11694,11 @@
         <v>-5331220.611313167</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>5.34</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10761,9 +11733,11 @@
         <v>-5287965.368313167</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10798,9 +11772,11 @@
         <v>-5166730.335413167</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>5.42</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10835,9 +11811,11 @@
         <v>-5179286.335413167</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>5.43</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10872,9 +11850,11 @@
         <v>-5341089.588713167</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10909,9 +11889,11 @@
         <v>-5025085.588713167</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>5.39</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10946,9 +11928,11 @@
         <v>-5218465.754513167</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10983,9 +11967,11 @@
         <v>-3724020.860613167</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>5.39</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11057,16 +12043,18 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L312" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
       <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
@@ -11092,11 +12080,15 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11125,11 +12117,15 @@
         <v>-3566207.689813167</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +12154,15 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +12191,15 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11224,11 +12228,17 @@
         <v>-3484064.610413167</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11257,11 +12267,15 @@
         <v>-3439355.459513167</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +12304,15 @@
         <v>-3527553.131613167</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +12341,15 @@
         <v>-3442346.671613167</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11356,11 +12378,17 @@
         <v>-3512435.277013167</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11393,7 +12421,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11426,7 +12458,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11459,7 +12495,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11488,11 +12528,15 @@
         <v>-2944347.679913167</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11525,7 +12569,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11558,7 +12606,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11591,7 +12643,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11624,7 +12680,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11657,7 +12717,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11690,7 +12754,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11723,7 +12791,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11756,7 +12828,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11789,7 +12865,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11822,7 +12902,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11855,7 +12939,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11888,7 +12976,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11921,7 +13013,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11954,7 +13050,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11987,7 +13087,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12020,7 +13124,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12053,7 +13161,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12086,7 +13198,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12119,7 +13235,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12152,7 +13272,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12185,7 +13309,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +13346,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12251,7 +13383,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12284,7 +13420,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12317,7 +13457,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12350,7 +13494,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12383,7 +13531,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12416,7 +13568,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12449,7 +13605,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12482,7 +13642,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12511,11 +13675,15 @@
         <v>-1242646.777857947</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12544,11 +13712,15 @@
         <v>-751164.2077579469</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12577,11 +13749,15 @@
         <v>-1688678.505257947</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12610,11 +13786,15 @@
         <v>-2114679.613457947</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12647,7 +13827,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12680,7 +13864,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12713,7 +13901,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12746,7 +13938,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +13975,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12808,11 +14008,15 @@
         <v>-1971173.460757947</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12841,11 +14045,15 @@
         <v>-2108866.948957947</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12874,11 +14082,15 @@
         <v>-1366866.948957947</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +14119,15 @@
         <v>-1449837.473257947</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12944,7 +14160,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12973,11 +14193,15 @@
         <v>53727.289342053</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13010,7 +14234,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13043,7 +14271,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13076,7 +14308,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13109,7 +14345,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13142,7 +14382,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13175,7 +14419,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13208,7 +14456,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13241,7 +14493,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13274,7 +14530,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13307,7 +14567,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13340,7 +14604,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13373,7 +14641,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13406,7 +14678,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13439,7 +14715,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13472,7 +14752,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13505,7 +14789,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13538,7 +14826,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13571,7 +14863,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13604,7 +14900,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13637,7 +14937,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13670,7 +14974,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13703,7 +15011,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13736,7 +15048,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13769,7 +15085,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13802,7 +15122,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13835,7 +15159,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13868,7 +15196,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13901,7 +15233,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13934,7 +15270,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13967,7 +15307,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14000,7 +15344,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14033,7 +15381,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14066,7 +15418,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14099,7 +15455,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14132,7 +15492,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14165,7 +15529,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14198,7 +15566,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14231,7 +15603,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14264,7 +15640,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14297,7 +15677,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14330,7 +15714,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14363,7 +15751,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14396,7 +15788,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14429,7 +15825,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14462,7 +15862,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14495,7 +15899,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14528,7 +15936,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14561,7 +15973,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14594,7 +16010,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14627,7 +16047,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14660,7 +16084,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14693,7 +16121,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14722,11 +16154,15 @@
         <v>-2827055.573337246</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14759,7 +16195,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14792,7 +16232,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14825,7 +16269,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14858,7 +16306,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14891,7 +16343,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14924,7 +16380,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14957,7 +16417,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14990,7 +16454,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15023,7 +16491,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15056,7 +16528,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15089,7 +16565,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15122,7 +16602,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15155,7 +16639,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15188,7 +16676,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15221,7 +16713,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15254,7 +16750,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15287,7 +16787,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15320,7 +16824,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15353,7 +16861,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15386,7 +16898,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15419,7 +16935,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15452,7 +16972,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15485,7 +17009,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15518,7 +17046,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15551,7 +17083,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15584,7 +17120,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15617,7 +17157,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15650,7 +17194,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15683,7 +17231,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15716,7 +17268,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15749,7 +17305,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15782,7 +17342,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15815,7 +17379,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15848,7 +17416,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15881,7 +17453,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15914,7 +17490,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15947,7 +17527,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15980,7 +17564,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16013,7 +17601,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16042,14 +17634,16 @@
         <v>10613560.76747116</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="inlineStr"/>
     </row>
     <row r="464">
@@ -16075,7 +17669,7 @@
         <v>9673813.634671155</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16108,7 +17702,7 @@
         <v>9094100.163371155</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16141,7 +17735,7 @@
         <v>9301186.639371155</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16207,7 +17801,7 @@
         <v>7389429.894571155</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16240,7 +17834,7 @@
         <v>8971766.289471155</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16273,7 +17867,7 @@
         <v>8446573.143671155</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16306,7 +17900,7 @@
         <v>9376522.213971155</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16339,7 +17933,7 @@
         <v>9375430.879571155</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16537,7 +18131,7 @@
         <v>11114596.20177115</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16570,7 +18164,7 @@
         <v>10813322.11547115</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16603,7 +18197,7 @@
         <v>9816126.322971152</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16669,7 +18263,7 @@
         <v>9920021.937371152</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16702,7 +18296,7 @@
         <v>9920021.937371152</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16735,7 +18329,7 @@
         <v>9639660.745571151</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16768,7 +18362,7 @@
         <v>9640443.044271151</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16801,7 +18395,7 @@
         <v>9640443.044271151</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16834,7 +18428,7 @@
         <v>9698129.044271151</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16867,7 +18461,7 @@
         <v>9528758.808371151</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16900,7 +18494,7 @@
         <v>10355010.16727115</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16933,7 +18527,7 @@
         <v>10700933.91667115</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16966,7 +18560,7 @@
         <v>10700933.91667115</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16999,7 +18593,7 @@
         <v>11001147.10567115</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17032,7 +18626,7 @@
         <v>12463625.12707115</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17065,7 +18659,7 @@
         <v>12326825.32247115</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17098,7 +18692,7 @@
         <v>11750128.97797115</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17131,7 +18725,7 @@
         <v>11566473.33357115</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17164,7 +18758,7 @@
         <v>11101062.06247115</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17197,7 +18791,7 @@
         <v>12040929.02997115</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17230,7 +18824,7 @@
         <v>11756264.44757115</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17263,7 +18857,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17296,7 +18890,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17329,7 +18923,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17362,7 +18956,7 @@
         <v>11778479.80427115</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17395,7 +18989,7 @@
         <v>12871649.89462263</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17428,7 +19022,7 @@
         <v>12372188.71892263</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17461,7 +19055,7 @@
         <v>12477629.96382263</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17494,7 +19088,7 @@
         <v>12404314.92132263</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17527,7 +19121,7 @@
         <v>12320104.14372263</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17560,7 +19154,7 @@
         <v>12489397.14372263</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17593,7 +19187,7 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17626,7 +19220,7 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17659,7 +19253,7 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17692,7 +19286,7 @@
         <v>12590333.14752263</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17725,7 +19319,7 @@
         <v>12628928.01162263</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17758,7 +19352,7 @@
         <v>12715816.01962263</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17791,7 +19385,7 @@
         <v>12715816.01962263</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17824,7 +19418,7 @@
         <v>13334934.54972262</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17857,7 +19451,7 @@
         <v>13334934.54972262</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17890,7 +19484,7 @@
         <v>13017980.19092263</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17923,7 +19517,7 @@
         <v>13193413.66442263</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17956,7 +19550,7 @@
         <v>13165751.66442263</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17989,7 +19583,7 @@
         <v>13165751.66442263</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18022,7 +19616,7 @@
         <v>13177750.26142262</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18055,7 +19649,7 @@
         <v>13177750.26142262</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18088,7 +19682,7 @@
         <v>13084100.68978211</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18121,7 +19715,7 @@
         <v>13275267.26168211</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18154,7 +19748,7 @@
         <v>13245267.26168211</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18187,7 +19781,7 @@
         <v>13245348.69498211</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18220,7 +19814,7 @@
         <v>13211528.96068211</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18253,7 +19847,7 @@
         <v>12177646.72192723</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18286,7 +19880,7 @@
         <v>11655373.50792723</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18319,7 +19913,7 @@
         <v>11610706.67232723</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18352,7 +19946,7 @@
         <v>11665825.29882723</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18385,7 +19979,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18418,7 +20012,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18451,7 +20045,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18484,7 +20078,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18517,7 +20111,7 @@
         <v>11684065.11072722</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18550,7 +20144,7 @@
         <v>11709130.62402722</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18583,7 +20177,7 @@
         <v>11706014.06242722</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18616,7 +20210,7 @@
         <v>11745559.09142722</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18649,7 +20243,7 @@
         <v>10948557.14992722</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18682,7 +20276,7 @@
         <v>10977779.92752722</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18715,7 +20309,7 @@
         <v>10988628.68652722</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18748,7 +20342,7 @@
         <v>10988396.44552722</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18781,7 +20375,7 @@
         <v>10739158.02792722</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18814,7 +20408,7 @@
         <v>10739240.02792722</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18847,7 +20441,7 @@
         <v>10660240.02792722</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18880,7 +20474,7 @@
         <v>10660322.02792722</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18913,7 +20507,7 @@
         <v>10152415.77012722</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18946,7 +20540,7 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18979,7 +20573,7 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19012,7 +20606,7 @@
         <v>11650147.99372722</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19045,7 +20639,7 @@
         <v>11650229.99372722</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19111,7 +20705,7 @@
         <v>11836871.66522722</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19144,7 +20738,7 @@
         <v>11795373.81412722</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19177,7 +20771,7 @@
         <v>11699042.58292722</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19408,7 +21002,7 @@
         <v>11020415.51197189</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19870,7 +21464,7 @@
         <v>12541237.14577189</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22048,7 +23642,7 @@
         <v>18029407.77274614</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22312,7 +23906,7 @@
         <v>16989999.10185803</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22609,7 +24203,7 @@
         <v>18444392.78625803</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22642,7 +24236,7 @@
         <v>18758828.58255803</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22675,7 +24269,7 @@
         <v>17869867.10305803</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22708,7 +24302,7 @@
         <v>18463273.95295803</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22741,7 +24335,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22774,7 +24368,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22807,7 +24401,7 @@
         <v>18450489.69555803</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22840,7 +24434,7 @@
         <v>19666169.24735803</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22873,7 +24467,7 @@
         <v>19555179.69475803</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22906,7 +24500,7 @@
         <v>18631288.89575803</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22939,7 +24533,7 @@
         <v>18634088.17385803</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22972,7 +24566,7 @@
         <v>17945839.72385803</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23005,7 +24599,7 @@
         <v>18562631.76375803</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23038,7 +24632,7 @@
         <v>18561464.09645803</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23071,7 +24665,7 @@
         <v>18528488.04645803</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23104,7 +24698,7 @@
         <v>18468740.16685803</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23137,7 +24731,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23170,7 +24764,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23203,7 +24797,7 @@
         <v>18809792.89575803</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23236,7 +24830,7 @@
         <v>17206085.12345803</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23269,7 +24863,7 @@
         <v>17879495.87785803</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23302,7 +24896,7 @@
         <v>18555782.71485803</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23335,7 +24929,7 @@
         <v>18969036.27655803</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23368,7 +24962,7 @@
         <v>17976618.13429524</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23401,7 +24995,7 @@
         <v>17774390.44499524</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23434,7 +25028,7 @@
         <v>17341602.80099524</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23467,7 +25061,7 @@
         <v>16715060.16819524</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23500,7 +25094,7 @@
         <v>16715407.29759524</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23533,7 +25127,7 @@
         <v>16449396.39519524</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23566,7 +25160,7 @@
         <v>16452793.57669524</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23599,7 +25193,7 @@
         <v>16029088.49549524</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23632,7 +25226,7 @@
         <v>16031490.79069524</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23665,7 +25259,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23698,7 +25292,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23731,7 +25325,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23764,7 +25358,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23797,7 +25391,7 @@
         <v>15682722.14829524</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23830,7 +25424,7 @@
         <v>15677620.94669524</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23863,7 +25457,7 @@
         <v>16177620.94669524</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23896,7 +25490,7 @@
         <v>15469764.43319524</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23929,7 +25523,7 @@
         <v>15469764.43319524</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23962,7 +25556,7 @@
         <v>15386198.51719525</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23995,7 +25589,7 @@
         <v>15418927.14572127</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24028,7 +25622,7 @@
         <v>15257118.29872127</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24061,7 +25655,7 @@
         <v>15257118.29872127</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24094,7 +25688,7 @@
         <v>14565419.10882127</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24127,7 +25721,7 @@
         <v>14565558.05512127</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24160,7 +25754,7 @@
         <v>14439024.76642127</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24193,7 +25787,7 @@
         <v>14375472.82802127</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24226,7 +25820,7 @@
         <v>13666023.12242127</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24259,7 +25853,7 @@
         <v>13684041.49542127</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24688,7 +26282,7 @@
         <v>13903963.72711709</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24721,7 +26315,7 @@
         <v>13986754.0852113</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24754,7 +26348,7 @@
         <v>13826902.8043113</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24787,7 +26381,7 @@
         <v>14013087.7565113</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24820,7 +26414,7 @@
         <v>14046415.3102113</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24853,7 +26447,7 @@
         <v>13939103.1333113</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24886,7 +26480,7 @@
         <v>13528642.0976113</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24919,7 +26513,7 @@
         <v>13528281.9446113</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24952,7 +26546,7 @@
         <v>13632304.5616113</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24985,7 +26579,7 @@
         <v>13581456.4125113</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25018,7 +26612,7 @@
         <v>13581540.8964113</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25051,7 +26645,7 @@
         <v>11354116.8180113</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25084,7 +26678,7 @@
         <v>11455565.8408126</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
